--- a/public/uploads/1.xlsx
+++ b/public/uploads/1.xlsx
@@ -14,6908 +14,6 @@
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1611">
-  <si>
-    <t>category_id</t>
-  </si>
-  <si>
-    <t>parent_id</t>
-  </si>
-  <si>
-    <t>name(ru-ru)</t>
-  </si>
-  <si>
-    <t>top</t>
-  </si>
-  <si>
-    <t>columns</t>
-  </si>
-  <si>
-    <t>sort_order</t>
-  </si>
-  <si>
-    <t>image_name</t>
-  </si>
-  <si>
-    <t>date_added</t>
-  </si>
-  <si>
-    <t>date_modified</t>
-  </si>
-  <si>
-    <t>description(ru-ru)</t>
-  </si>
-  <si>
-    <t>meta_title(ru-ru)</t>
-  </si>
-  <si>
-    <t>meta_description(ru-ru)</t>
-  </si>
-  <si>
-    <t>meta_keywords(ru-ru)</t>
-  </si>
-  <si>
-    <t>store_ids</t>
-  </si>
-  <si>
-    <t>layout</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Нивелиры , уровни, дальномеры</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>2015-10-16 15:57:57</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:22:09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Преимущества
-покупки лазерных уровней (нивелиров) и дальномеров&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Лазерные приборы динамично заменяют традиционную оптику в бытовом и
-промышленном строительстве. Эти точные и несложные в эксплуатации устройства
-находят широкий отклик у пользователей. Выполнение различных ремонтных и строительных
-работ с помощью лазерных изделий возможно после тщательного изучения принципа
-их работы.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Особенности и
-преимущества уровней&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Популярные лазерные уровни (нивелиры) – это приборы, необходимые для
-построения горизонтальной или вертикальной линии света в помещениях. Данный
-прибор ускоряет и обеспечивает безупречную точность при разметке стены, пола
-или потолка в жилом или общественном здании.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Как любой другой инструмент, лазерные уровни бывают профессиональными и
-бытовыми.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Их разделяют:&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
- &lt;li class="MsoNormal"&gt;по видам излучателей;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;численности поверхностей, на которые проецируются лучи;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;по типу выравнивания проекции (ручная,
-     самовыравнивающаяся, комбинированная).&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;p&gt;Купить лазерный уровень необходимо, чтобы облегчить выполнение ряда работ.
-Этот инструмент имеет следующие преимущества. С его помощью можно:&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
- &lt;li class="MsoNormal"&gt;создавать проекции света на любых поверхностях –
-     горизонтальных или вертикальных;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;делать несложную разметку на гипсокартоне, декоративной
-     или строительной плоскости;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;получать точные измерения;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;работать, не имея специальных навыков;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;наносить разметку за короткий промежуток времени без
-     помощников.&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;p&gt;Перед покупкой лазерного уровня стоит определиться с целями, для которых он
-понадобится. Для бытовых устройств цена начинается с 900 рублей, стоимость
-профессиональных намного больше – от 20 000 рублей.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Высокоточный лазерный дальномер применяют при измерении труднодоступных
-конструктивных элементов и определении их площади. Широкие функциональные
-возможности дальномеров обеспечивают использование их в самых различных
-областях.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Достоинства дальномеров&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Эти приборы выделяются множеством достоинств:&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
- &lt;li class="MsoNormal"&gt;можно работать в любое время, как днём, так и ночью;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;устройства представлены в широком ассортименте;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;простые в использовании;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;это практичный и надёжный инструмент;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;можно использовать даже в самых сложных условиях.&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;h2&gt;Где купить
-дальномер&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p style="text-align: justify;"&gt;
-&lt;/p&gt;&lt;p&gt;Сделать заказ и купить измерительные инструменты по выгодным ценам можно в
-интернет-магазине «БРЕНД-Инструмент». В каталоге вы можете выбрать бывший в
-употреблении лазерный дальномер по цене, которая намного ниже, чем новый
-инструмент. Магазин предлагает выгодные условия сотрудничества и возможность
-оформления доставки по России.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить лазерные дальномеры по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Лазерные дальномеры б/у: экономьте на покупке качественного измерительного оборудования. Низкие цены в магазине "Бренд-Инструмент".</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0:,1:</t>
-  </si>
-  <si>
-    <t>Перфораторы</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:01:41</t>
-  </si>
-  <si>
-    <t>2023-06-02 10:21:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;b&gt;Выбирайте бытовые и
-промышленные модели перфораторов разной мощности в каталоге магазина «БРЕНД
-Инструмент»&lt;/b&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Электроинструментами пользуются не только строители, но и обычные граждане.
-Дома сложно обойтись без электродрели, лобзика, сварочного аппарата и других
-бытовых приборов. Если требуется проделать в стене крупное отверстие, то
-перфоратор сможет заменить лишь тяжелый лом или кувалда с зубилом. У этого
-инструмента рабочая часть не только вращается, но и совершает
-возвратно-поступательные движения. В итоге получаются мощные удары буром по
-объекту, предназначенному для разрушения.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;&lt;b&gt;Где купить
-перфоратор&lt;/b&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;В каталоге перфораторов интернет-магазина «БРЕНД-Инструмент» представлен
-большой выбор этих ударных электроинструментов.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Выбирать их следует с учетом следующих характеристик:&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- Выходная мощность. Для домашних работ достаточно 600
-     ватт.&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- Потребление электроэнергии. Это важное требование для
-     тех, кто работает от стационарной сети.&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- Показатели ударной силы.&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- Максимальное и минимальное количество оборотов.&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- Количество скоростей.&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- Максимальный диаметр внутренней рабочей части патрона
-     для установки бура или сверла.&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- Наличие съемной рукоятки.&lt;/p&gt;&lt;ul type="disc"&gt;
-&lt;/ul&gt;&lt;p&gt;Лучшим вариантом перфоратора является модель, снабженная предохранительной
-муфтой и антивибрационной системой.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Немаловажным фактором при выборе перфоратора является вес. Если планируется
-стройка или капитальный ремонт, значит, слишком тяжелая модель будет создавать
-дискомфорт. После длительной работы громоздким перфоратором, спина, шея и руки
-устают до такой степени, что больше ничего не хочется делать. Даже ночной сон
-не всегда помогает. Минимальный вес ударного электроинструмента мощностью 600
-ватт – 2 кг. Этого вполне достаточно для домашних работ. В магазине можно
-купить более мощный перфоратор, но бывший в употреблении. Его стоимость
-сопоставима с ценой новой маломощной модели, но и вес значительно больше.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p style="text-align: justify;"&gt;
-&lt;/p&gt;&lt;p&gt;Воспользуйтесь выгодными предложениями и станьте нашим постоянным клиентом.
-Мы постоянно пополняем ассортимент каталога, а также занимаемся скупкой
-инструмента б/у.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить перфораторы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Перфораторы - мощные и надежные инструменты для профессиональных строителей и домашних мастеров. Выберите из нашего ассортимента перфоратор, который подойдет именно вам.</t>
-  </si>
-  <si>
-    <t>Пылесосы</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/15866309.jpeg</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:02:04</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:12:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	Строительные пылесосы – являются спецоборудованием на строительной площадке. Способны быстро и качественно очистить стройплощадку или цех от любого типа мусора – пыли, токсичных веществ и прочего.&lt;/p&gt;
-&lt;h2 style="text-align: justify;"&gt;
-	На что необходимо обратить внимание при покупке строительного пылесоса:&lt;/h2&gt;
-&lt;ul style="margin-left: 40px;"&gt;
-	&lt;li style="text-align: justify;"&gt;
-		универсальность – если планируется уборка и использование такого оборудования при широком спектре задач;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		надежность – обратите внимание на функции, которые заложены производителем, охлаждение, допочистка и прочее. Всё это способно продлить срок работы такого оборудования при высоких нагрузках;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		режим работы – способность обеспечить работу на протяжении многих часов.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p style="text-align: justify;"&gt;
-	В интернет-магазине Бренд представлены &lt;strong&gt;промышленные строительные пылесосы б/у&lt;/strong&gt;, которые не уступают по цене и качеству новым. Оформить заказ на такое оборудование можно прямо сейчас на сайте.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить пылесосы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Пылесосы б/у - наш интернет-магазин предлагает качественные б/у пылесосы для дома и офиса. Выбирайте из нашего ассортимента и экономьте на покупке нового.</t>
-  </si>
-  <si>
-    <t>пылесос строительный бу купить строительный пылесос бу строительный пылесос москва пылесос для строительной пыли строительный пылесос без мешков строительный пылесос керхер пылесос строительный makita строительный пылесос в аренду москва пылесос строитель</t>
-  </si>
-  <si>
-    <t>Тепловые пушки, обогреватели</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:03:00</t>
-  </si>
-  <si>
-    <t>2023-07-04 16:14:57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	Тепловая пушка – спецоборудование, способное нагреть как помещение в целом, так и произвести точечный нагрев определенной площади. Конструкция внешне выглядит просто – нагревательный элемент и вентилятор с большой мощностью. Используют такой инструмент как в быту, так и на стройплощадках.&lt;/p&gt;
-&lt;h2 style="text-align: justify;"&gt;
-	Принято разделять тепловые пушки на виды, от типа топлива:&lt;/h2&gt;
-&lt;ul style="margin-left: 40px;"&gt;
-	&lt;li style="text-align: justify;"&gt;
-		электрические – самые популярные;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		газовые;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		дизельные;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		инфракрасные;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		водяные.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p style="text-align: justify;"&gt;
-	В быту чаще всего используют электрические, в силу чистоты воздуха (без запаха) и безопасности. На одном уровне с эффективностью использования стоят газовые пушки – эффективны и универсальны в применении, а так же дешевле в плане энергосбережения.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	&lt;strong&gt;Тепловые пушки б/у&lt;/strong&gt; различного типа представлены в ассортименте интернет-магазина Бренд, оформить заказ на такой товар можно прямо сейчас.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить тепловые пушки, обогреватели по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тепловые пушки, обогреватели: поддерживайте комфортную температуру на рабочем месте с нашими тепловыми пушками и обогревателями. </t>
-  </si>
-  <si>
-    <t>Гайковерты</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/DCF899P2-QW.jpeg</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:03:21</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:39:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	&lt;strong&gt;Гайковерт&lt;/strong&gt; – это строительный инструмент, который служит для сборки или разборки резьбовых соединений при мелком ремонте, а так же при масштабном строительстве.&lt;/p&gt;
-&lt;h2 style="text-align: justify;"&gt;
-	Гайковерты принято делить по типу питания:&amp;nbsp;&lt;/h2&gt;
-&lt;ul style="margin-left: 40px;"&gt;
-	&lt;li style="text-align: justify;"&gt;
-		аккумуляторные гайковерты;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		пневмогайковерты;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		сетевые гайковерты.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p style="text-align: justify;"&gt;
-	Чаще всего при конструировании современных моделей гайковертов используют никель-кадмиевые или литийно-ионные аккумуляторы.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Понятно дело, что использование аккумуляторного гайковерта упрощает ручной труд при ремонте, не ограничивая передвижение, а вот сетевые гайковерты работают от сети (при помощи кабеля разной длины), что чаще всего используется в помещениях при монтаже конструкций или на шиномонтажах.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Новые гайковерты гораздо дороже, чем &lt;strong&gt;гайковерты б/у&lt;/strong&gt;, поэтому интернет-магазин электроинструментов Бренд, предлагает большой выбор бывших в употреблении гайковертов по доступным ценам.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить гайковерты по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Гайковерты (б/у и новый): широкий выбор гайковертов разных производителей и состояний. Найдите идеальный инструмент для своих нужд!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">гайковерт аккумуляторный, гайковерт электрический, ударный гайковерт, купить гайковерт, гайковерт цена, купить пневмогайковерт, пневмо гайковерт, пневмогайковерт ударный, гайковерт электрический ударный, угловой гайковерт, ручной гайковерт, гайковерт бу, </t>
-  </si>
-  <si>
-    <t>Дрели</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/9c0e865cd6cfb1222075e3ebb9d783af.jpeg</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:03:47</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:28:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;&lt;strong&gt;Выбирайте
-электродрели для ремонтных и строительных работ в интернет-магазине «БРЕНД
-Инструмент» &lt;/strong&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;&lt;span style="font-size: 18px;"&gt;Электрическая дрель используется на объектах, где есть возможность
-подключения к электросети. В зависимости от вида выполняемых работы вы можете
-выбрать один из вариантов дрели:&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;&lt;span style="font-size: 18px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 18px;"&gt;угловую,&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 18px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 18px;"&gt;миксер,&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 18px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 18px;"&gt;шуруповерт,&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 18px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 18px;"&gt;ударную.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 18px;"&gt;
-&lt;/span&gt;&lt;/ul&gt;&lt;p&gt;&lt;span style="font-size: 18px;"&gt;При выборе необходимо изучить характеристики каждой модели, их можно найти в
-карточке товара.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 18px;"&gt;Основные моменты:&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;&lt;span style="font-size: 18px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 18px;"&gt;потребляемая и выходная мощность;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 18px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 18px;"&gt;максимальное количество оборотов;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 18px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 18px;"&gt;варианты режимов работы;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 18px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 18px;"&gt;количество скоростей;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 18px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 18px;"&gt;максимальный и минимальный диаметр сверления;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 18px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 18px;"&gt;наличие реверса и ограничителя глубины сверления;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 18px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 18px;"&gt;наличие съемной вспомогательной рукоятки;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 18px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 18px;"&gt;наличие антивибрационной системы и предохранительной
-     муфты.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 18px;"&gt;
-&lt;/span&gt;&lt;/ul&gt;&lt;p&gt;&lt;span style="font-size: 18px;"&gt;В каталоге представлены бытовые и промышленные модели, отличающиеся
-мощностью и временем непрерывной работы.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Варианты
-подключения&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;&lt;span style="font-size: 18px;"&gt;Предусмотрено два вида подключения дрели, среди которых – центральная
-электросеть и аккумуляторные батареи. Первый вариант подходит лишь для
-стационарного использования инструмента с наличием подведенной и подключенной
-электропроводки. Такие дрели более мощные.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 18px;"&gt;Для бытовых нужд подойдет недорогой вариант дрели, с возможностью
-подключения к домашней электросети и работы на удалении. Не помешают и
-дополнительные насадки. Они могут понадобиться для размешивания краски, лака,
-строительных смесей. Наличие реверса в электродрели – важная функция. С ее
-помощью легко закручивать и откручивать винты и шурупы. Даже при сверлении
-твердого материала и заклинивании сверла при включении реверса сверло сразу
-высвобождается.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Преимущества
-покупки электродрели в интернет-магазине «БРЕНД Инструмент»&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p style="text-align: justify;"&gt;
-&lt;/p&gt;&lt;p style="text-align:justify"&gt;&lt;span style="font-size: 18px;"&gt;У нас вы можете купить дрели по
-ценам-производителя. Вы можете выбрать новый товар или бывший в употребления.
-Если вы выбирает второй вариант, то существенно экономите, так как перед
-продажей он тщательно проверяется и тестируется. Мы предлагаем несколько способов
-оплаты и доставки.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить дрели по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Дрели: широкий выбор дрелей для любых задач. Надежность и качество от ведущих производителей!</t>
-  </si>
-  <si>
-    <t>Сварочное и газовое оборудование</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:04:13</t>
-  </si>
-  <si>
-    <t>2023-07-28 17:57:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;&lt;br&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить сварочное оборудование по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Сварочное оборудование: профессиональные сварочные аппараты, аксессуары и расходные материалы для эффективной и безопасной сварки.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лобзики </t>
-  </si>
-  <si>
-    <t>2015-10-16 16:05:01</t>
-  </si>
-  <si>
-    <t>2023-06-22 18:23:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;strong&gt;&lt;span style="font-size:14px;"&gt;Лобзики&lt;/span&gt;&lt;/strong&gt; применяются для распилки древесины, тонких материалов, металла, пластика. Наряду с прямыми, этот инструмент способен делать фигурные резы. Они применяются для выпиливания окружностей, а также для выполнения прямоугольных вырезов и распилов.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Устройство&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Современный электролобзик оснащается встроенным средством защиты, электронными регулировками скорости, гасителями уровня вибрации и шума. Над опорной плитой устанавливается специальная защита, которая предохраняет от случайного касания пильного полотна.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Принцип работы&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	При помощи винта пилка жёстко крепится и совершает движение вверх-вниз с высокой частотой. Если лобзик оснащен многоступенчатым маятниковым ходом, то пильное полотно при движении вниз отклоняется немного назад. Маятниковый ход увеличивает скорость прямого реза и удлиняется срок службы пильного полотна. Электролобзики также имеют направляющую - горизонтальную опорную платформу, которой они опираются на распиливаемую деталь. Это значительно повышает точность пиления. Обычно направляющую делают поворачивающейся на угол до 45 градусов.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;strong&gt;В зависимости от способа крепления пилки различают три вида&lt;/strong&gt;&lt;/p&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		с крестообразным хвостовиком;&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		с гладким хвостовиком;&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		хвостовик с отверстием.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Характеристики&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Основной показатель производительности электролобзиков -&amp;nbsp;&lt;strong&gt;мощность&lt;/strong&gt;. При выборе стоит обратить внимание и на другие его характеристики:&lt;/p&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;максимальная глубина пропила&lt;/strong&gt;;&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;скорость резания&lt;/strong&gt;&amp;nbsp;различных материалов.&lt;br /&gt;
-		&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/instrument/lobziki/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=Podskazki_SEO&amp;amp;utm_content=2433288887&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:3|DT:desktop|RI:213|CI:19962938|GI:1678596403|PI:6405360147|AI:2433288887|RT:|KW:%D0%BB%D0%BE%D0%B1%D0%B7%D0%B8%D0%BA%20%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B8%D0%B9|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&amp;amp;yclid=2868464168872708644&lt;/span&gt;&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить лобзики (аккумуляторные и электрические) по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Лобзики: Предлагаем аккумуляторные и электрические лобзики от ведущих производителей. Обеспечьте себе точность и удобство при выполнении работ!</t>
-  </si>
-  <si>
-    <t>Лобзик бу купить лобзик бу ножницы по металлу ножницы для резки металла ножницы листовые высечные ножницы,Высечные ножницы,высечные ножницы</t>
-  </si>
-  <si>
-    <t>Шлифовальные машины по бетону</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/700-nw.jpeg</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:05:23</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:54:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	Шлифовальные машинки (ШМ) – специнструмент, служит для обработки плоских и выпуклых поверхностей. Качество и скорость обработки поверхности оценивается выбором самого типа инструмента и шлифшкурки.&lt;/p&gt;
-&lt;h2 style="text-align: justify;"&gt;
-	При строительных работах принято разделять несколько типов шлифмашинок:&lt;/h2&gt;
-&lt;ul style="margin-left: 40px;"&gt;
-	&lt;li style="text-align: justify;"&gt;
-		ленточные;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		прямоугольные, дельтовидные (вибро- и плоские);&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		круговые (орбитальные, эксцентриковые).&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p style="text-align: justify;"&gt;
-	Самые простые работы, которые проводятся с помощью шлифмашин – зачистка и обработка поверхностей от шпаклевки, ржавчины, снятие старого покрытия лака или краски и прочее.&lt;/p&gt;
-&lt;h2 style="text-align: justify;"&gt;
-	На что необходимо обратить внимание при выборе шлифовальных машинок:&lt;/h2&gt;
-&lt;ul style="margin-left: 40px;"&gt;
-	&lt;li style="text-align: justify;"&gt;
-		мощность – выше это значение, тем выше производительность инструмента;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		доп.возможности – регуляторы скорости, пылеудаление, регулируемая рукоятка и прочее;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		материал корпуса инструмента – металл или пластик.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p style="text-align: justify;"&gt;
-	Ведущие мировые производители представлены в ассортименте интернет-магазина Бренд – тут можно выбрать и &lt;strong&gt;купить б/у шлифовальную машинку&lt;/strong&gt; для необходимых строительных работ.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить шлифовальная машина по бетону по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Шлифовальная машина по бетону: идеальное решение для обработки твердых поверхностей. Высокое качество и доступные цены в "Бренд-Инструмент".</t>
-  </si>
-  <si>
-    <t>шлифовальная машина по бетону,  бу шлифовальная машина, купить бу угловая шлифовальная машина</t>
-  </si>
-  <si>
-    <t>Отбойные молотки</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:06:24</t>
-  </si>
-  <si>
-    <t>2023-06-22 18:26:42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	Во время любых ремонтно-строительных работ &lt;strong&gt;отбойный молоток&lt;/strong&gt; является просто незаменимым инструментом. Ранее, он использовался при земельно-дорожных работах, для снятия твёрдых покрытий, к примеру, асфальта, но теперь актуален и при перепланировке, для разрушения твёрдых поверхностей и сноса перегородок. Кроме того, такой молоток может работать с материалами любой плотности, начиная от замёрзшего грунта и заканчивая железобетоном. Конечно же, для бытовой работы он слишком мощный, и нацелен исключительно на профессиональную деятельность, поэтому зачастую с таким инструментом работают только специалисты.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Типы отбойных молотков&lt;/p&gt;
-&lt;ul&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Пневматические&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Электрические&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Бензиновые&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p style="text-align: justify;"&gt;
-	При изготовлении отбойного молотка, практически каждый производитель отдаёт предпочтение высокопрочному пластику, ведь эта особенность позволяет увеличить сроки службы инструмента, и при этом снизить его массогабаритные характеристики, для большего удобства пользователя во время эксплуатации.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	При выборе отбойного молотка, в первую очередь важно обращать внимание на:&lt;/p&gt;
-&lt;ul&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Мощность&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Частоту и силу ударов&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Габариты&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Тип патрона&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p style="text-align: justify;"&gt;
-	В этом плане каждый пользователь опирается исключительно на свои рабочие особенности и пожелания. К примеру, тяжёлый молоток подойдёт для вертикального долбления, в то время как лёгкий – для горизонтального.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Кроме этого важно учитывать дополнительные функции:&lt;/p&gt;
-&lt;ul&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Противовибрационную систему&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Возможность фиксации оснастки в разных положениях&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Фиксатор пуска (с целью длительных работ)&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Системы износа угольных щёток&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Эргономичную, желательно прорезиненную рукоять&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить отбойный молотки по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Отбойный молоток б/у: доступные цены на проверенные временем отбойные молотки. Большой выбор мощностей и производителей. Разрушайте с уверенностью!</t>
-  </si>
-  <si>
-    <t>отбойный молоток купить отбойный молоток бу отбойный молоток бу купить отбойный молоток электрический бу купить отбойный молоток электрический бу,Отбойный молоток,отбойный молоток электрический бу</t>
-  </si>
-  <si>
-    <t>Фрезеры</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:06:46</t>
-  </si>
-  <si>
-    <t>2023-07-04 16:16:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	Фрезеры (фрезерный инструмент) – ручное спецоборудование для использования дома и в мастерской. Применяется для выполнения пазов, уступов, обработки кромок и профилей, а так же канавок по дереву.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Фрезерный инструмент используют в столярке, а для сложновыполнимых работ используют шаблоны. Если в наличии есть подходящая допоснастка, то фрезеры можно использовать и для обработки других материалов: пластика, оргстекла и металла.&lt;/p&gt;
-&lt;h2 style="text-align: justify;"&gt;
-	Электрические фрезеры различают по основным характеристикам:&lt;/h2&gt;
-&lt;ul style="margin-left: 40px;"&gt;
-	&lt;li style="text-align: justify;"&gt;
-		мощность – 600-2000 Вт;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		число оборотов;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		глубина обработки – 20-80 мм;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		плавный пуск.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p style="text-align: justify;"&gt;
-	Так же не стоит оставлять без внимания саму конструкцию изготовления инструмента, а именно на опорную платформу, вертикальные направляющие и простоту регулировки.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	&lt;strong&gt;Электрофрезы б/у&lt;/strong&gt; можно купить в интернет-магазине Бренд по доступной цене. Качество б/у фрезерного инструмента не уступает новому. Сделайте заказ прямо сейчас на странице магазина.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить фрезеры по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фрезеры: создавайте сложные формы и детали с помощью наших профессиональных фрезеров от лучших брендов. </t>
-  </si>
-  <si>
-    <t>электрофрезы электрофреза электрофреза фс электрофреза ручная электрофрезы для моделирования электрофрезы по дереву электрофреза по дереву купить электрофреза дисковый фрезер фрезерный инструмент,Дисковый фрезер,фрезерный инструмент</t>
-  </si>
-  <si>
-    <t>Штроборезы</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:07:46</t>
-  </si>
-  <si>
-    <t>2023-07-06 16:15:26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	Штроборезы, а так же бороздоделы – специнструмент применяется для проделывания штроб (глубокие и широкие пазы) в бетоне, кирпичной кладке, а так же камне. Используются штроборезы и для прокладывания труб, системы отопления, газо и электропроводов.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Такой инструмент принято считать мощной отрезной машиной, различия между штроборезом и бороздоделом в отрезном диске. В первом случае отрезной диск один, во втором два.&lt;/p&gt;
-&lt;h2 style="text-align: justify;"&gt;
-	На что необходимо обратить внимание при выборе штробореза:&lt;/h2&gt;
-&lt;ul style="margin-left: 40px;"&gt;
-	&lt;li style="text-align: justify;"&gt;
-		возможность регулировки расстояния между дисками;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		мощность – 900-2500 Вт;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		диаметр диска;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		плавный пуск и возможность удаления пыли.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p style="text-align: justify;"&gt;
-	Все эти параметры способны значительно увеличить продуктивность данного инструмента во время проведения строительно-можнтажных работ. &lt;strong&gt;Купить б/у штроборезы&lt;/strong&gt; ведущих мировых производителей можно прямо сейчас оформив заказ в интернет-магазине Бренд.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить штроборезы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Штроборез бу - экономьте на покупке штробореза, выбирая б/у модели в отличном состоянии. В нашем магазине вы найдете штроборезы разных марок и мощностей.</t>
-  </si>
-  <si>
-    <t>Шуруповерты аккумуляторные</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/iffiffif.jpeg</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:08:08</t>
-  </si>
-  <si>
-    <t>2022-06-16 17:34:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	&lt;strong&gt;Шуруповерты аккумуляторные&lt;/strong&gt;&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Самая простая функция при строительных работах – это закручивание крепежа. С такой работой отлично справляется шуруповерт. Винты, шурупы, саморезы, а так же сверление (с помощью дрели-шуруповерт), зачистить или отполировать, и даже снять краску – все эти работы по силам с таким инструментом.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Шуруповерты на аккумуляторе оптимально для работ с крепежом и для сверления отверстий. Возможность работы с рабочими поверхностями такими как:&lt;/p&gt;
-&lt;ul&gt;
-	&lt;li style="text-align: justify;"&gt;
-		металл;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		пластик;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		древесина.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p style="text-align: justify;"&gt;
-	Мобильные с небольшим весом и широкой сферой применения – эти инструменты заслуженно занимают лидирующие позиции по продажам в строительных магазинах и рынках. Но для чего переплачивать за абсолютно новые инструменты, если можно купить такой же, но дешевле?!&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	&lt;strong&gt;Б/у шуруповерты&lt;/strong&gt; в ассортименте представлены в интернет-магазине Бренд, купить такой инструмент можно прямо сейчас оформив заказ на страницах сайта.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Шуруповерты аккумуляторные (б/у и новый) купить в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шуруповерты аккумуляторные купить в Москве с доставкой ➣ведущие бренды электроинструментов  в интернет-магазине БРЕНД-Инструмент ✔большой выбор ✔ низкие цены </t>
-  </si>
-  <si>
-    <t>Шуруповерты аккумуляторные,бу шуруповерт шуруповерт бу купить шуруповерт бу в москве шуруповерт бу купить в москве шуруповерт макита бу купить шуруповерт макита бу шуруповерты аккумуляторные бу ,Аккумуляторный винтоверт,шуруповерт хитачи бу</t>
-  </si>
-  <si>
-    <t>Пилы</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:08:32</t>
-  </si>
-  <si>
-    <t>2023-06-22 18:27:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	&lt;strong&gt;Ручные дисковые пилы&lt;/strong&gt; – это незаменимый строительный инструмент для дома, дачи и строительных площадок разных масштабов. Такой инструмент способен выполнять прямые резы в дереве, ДСП, алюминии и прочего. А циркулярные пилы способны выполнить прямые (продольные или поперечные) распилы по пластику, шиферу и слоистых материалах.&lt;/p&gt;
-&lt;h2 style="text-align: justify;"&gt;
-	Дисковая пила, по классификации пропила, делится на три класса:&lt;/h2&gt;
-&lt;ul style="margin-left: 40px;"&gt;
-	&lt;li style="text-align: justify;"&gt;
-		малые – до 50 мм;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		средние – 50-65 мм;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		большие – от 65 мм.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p style="text-align: justify;"&gt;
-	Портативный (если говорить про аккумуляторные пилы) и удобный ручной электроинструмент, надежный помощник во время строительно-монтажных работ.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Бытовые модели дисковых пил отличаются в ценовой категории от профессиональных порядка на 2-3 тысячи. Но можно &lt;strong&gt;купить пилы б/у&lt;/strong&gt;, что и предлагает интернет-магазин Бренд, те же производители только по доступным ценам.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить пилы для строительства по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Пила для строительства (б/у и новые): отличный выбор строительных пил новых и б/у. Профессиональные и бытовые модели от проверенных брендов.</t>
-  </si>
-  <si>
-    <t>пилы бу купить торцовочная пила купить циркулярная пила бу купить сабельная пила бу дисковая пила купить бу,Аккумуляторная сабельная пила,дисковая пила купить бу</t>
-  </si>
-  <si>
-    <t>Генераторы</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:27:07</t>
-  </si>
-  <si>
-    <t>2023-07-24 23:00:59</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Генераторы и электростанции&lt;/h2&gt;
-&lt;p&gt;Промышленность стремительно развивается, а вместе с ней усиливается потребность в надежных и эффективных энергетических системах. Современные модели компактны и надежны. Особенно популярны генераторы, которые используются в гаражах, мастерских, на стройках и в других сферах. Качественные изделия можно заказать в нашем каталоге по выгодным условиям.&lt;/p&gt;
-&lt;p&gt;Генераторы представляют собой устройства, преобразующие механическую энергию в электрическую. Они являются неотъемлемой частью промышленных комплексов и мастерских, обеспечивая стабильную работу оборудования в случае аварийных ситуаций или перебоев в электроснабжении. При выборе изделия следует учитывать мощность, тип топлива, уровень шума и другие параметры. Можно купить генераторы в Москве в нашем интернет-магазине по отличной стоимости и с доставкой.&lt;/p&gt;
-&lt;p&gt;Озонаторы – это устройства, генерирующие озон для различных применений. В промышленности они используются для очистки воды, дезинфекции воздуха и поверхностей, обработки продуктов и материалов. Озонаторы способны уничтожать бактерии, вирусы, споры, грибки, а также нейтрализовать вредные вещества и устранять неприятные запахи. Выбор конкретной модели зависит от масштаба задачи, цены и требуемой производительности.&lt;/p&gt;
-&lt;p&gt;Переносные электростанции, также известные как мобильные дизель-генераторы, обеспечивают гибкость и мобильность при обеспечении электроэнергией мастерских и промышленных объектов. Они полезны на стройках, в отдаленных районах, где нет постоянного доступа к электричеству, и в экстренных ситуациях. Важно учитывать размеры, мощность, тип топлива, а также уровень шума при выборе переносной электростанции. Можно заказать изделия в Москве для любого объекта.&lt;/p&gt;
-&lt;p&gt;Генераторы, озонаторы и переносные электростанции играют ключевую роль в поддержании стабильной работы мастерских и промышленных комплексов. Правильный выбор этих устройств в зависимости от потребностей и особенностей конкретного предприятия является важной задачей, решение которой помогает обеспечить надежность и эффективность производственного процесса.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить генераторы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Генераторы б/у: надежные и проверенные временем генераторы по выгодным ценам. Большой выбор мощностей и производителей. Экономьте без потери качества!</t>
-  </si>
-  <si>
-    <t>электростанции бу электростанция бу купить дизельная электростанция бу куплю бу генератор электростанцию купить дизельную ,Дизельная электростанция,электростанцию бу</t>
-  </si>
-  <si>
-    <t>Строительные пистолеты</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/7f-cnw904.jpeg</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:27:33</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:03:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	Строительно-монтажные пистолеты – выглядит по форме классического пистолета или отбойника в миниатюре. Назначение такого инструмента – забивать дюбель-гвозди в бетон, кирпич, сталь. Расходным материалом для проведения работ является строительный патрон, который имеет разную мощность заряда.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	В строительных работах так же используют газовые монтажные пистолеты по бетону и металлу. Такой инструмент многозаряден, способен помочь быстро установить пластиковый короб, кабель каналов, держатель для труб и проводов, и прочего электрокрепежа.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Если необходимо быстро и аккуратно закрепить несколько тонких деталей или крепежей – такой инструмент просто незаменим.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Интернет-магазин Бренд предлагает &lt;strong&gt;газовые монтажные пистолеты б/у&lt;/strong&gt; по доступным ценам. Оформить заказ на покупку б/у электроинструмента можно прямо сейчас на сайте.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить строительный монтажный пистолеты по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Строительный монтажный пистолет бу - надежный и удобный инструмент для установки различных конструкций. Мы предлагаем вам бу монтажные пистолеты разных производителей.</t>
-  </si>
-  <si>
-    <t>строительный пистолет строительный пистолет цена строительно монтажный пистолет газовый монтажный пистолет газовый монтажный пистолет цена газовый строительный пистолет монтажный пистолет цена пистолет макита газовый пистолет макита газовый пистолет hilti</t>
-  </si>
-  <si>
-    <t>Зарядные устройства</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/f621a06e826a3651848824d0aa53edc3_enl.jpeg</t>
-  </si>
-  <si>
-    <t>2015-10-16 16:52:14</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:18:32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	&lt;strong&gt;Зарядные устройства для инструментов&lt;/strong&gt; (аккумуляторы) – это сопутствующий инструмент, который прилагается к почти каждой модели аккумуляторного инструмента.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Такое устройство способно быстро восстановить заряд батареи, и продолжить работу строительного инструмента во время проведения работ.&lt;/p&gt;
-&lt;h2 style="text-align: justify;"&gt;
-	На что необходимо обратить внимание при выборе зарядного устройства для инструмента:&lt;/h2&gt;
-&lt;ul style="margin-left: 40px;"&gt;
-	&lt;li style="text-align: justify;"&gt;
-		напряжение;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		сила тока;&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		вес.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p style="text-align: justify;"&gt;
-	Интернет-магазин Бренд представляет &lt;strong&gt;бу зарядные устройства&lt;/strong&gt; для различного строительного инструмента, хорошего качества и по доступным ценам.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Зарядные устройства (бу и новые)  купить с доставкой в Москве | БРЕНД-Инструмент | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Зарядные устройства (б/у и новые): подберите идеальное зарядное устройство для своего инструмента. Большой выбор новых и б/у моделей от проверенных брендов.</t>
-  </si>
-  <si>
-    <t>зарядное устройство для инструмента зарядные устройства для дрели зарядное устройство для дрели шуруповерта зарядное устройство,Аккумулятор, для аккумуляторов дрели</t>
-  </si>
-  <si>
-    <t>Наборы и кейсы</t>
-  </si>
-  <si>
-    <t>2015-10-29 12:30:05</t>
-  </si>
-  <si>
-    <t>2020-07-28 16:49:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	Каждый строительный инструмент требует бережного хранения и правильного обращения. Поэтому практически для каждой модели электроинструмента можно подобрать удобный кейс для сбережения и переноски.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Интернет-магазин Бренд предлагает &lt;strong&gt;б/у кейсы&lt;/strong&gt; для строительных инструментов по доступной цене. А так же &lt;strong&gt;наборы инструментов&lt;/strong&gt; для различных видов строительно-монтажных работ. Весь электроинструмент в надлежащем качестве и по доступной цене.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Наборы и кейсы инструменты бу купить недорого в Москве</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наборы и кейсы инструменты бу купить недорого в Москве
-</t>
-  </si>
-  <si>
-    <t>Наборы строительные, кейсы, набор инструментов бу ,Аккумуляторный расширительный инструмент,набор инструментов бу купить</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>Инструменты на запчасти</t>
-  </si>
-  <si>
-    <t>2015-10-29 12:32:00</t>
-  </si>
-  <si>
-    <t>2023-06-22 18:20:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	Мировые бренды строительного инструмента по низкой цене – &lt;strong&gt;на запчасти или под ремонт.&lt;/strong&gt; Не рабочие, под разборку строительные марки Makita, Hilti, Bosch и многое другое по низким ценам только в интерент-магазине Бренд.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить инструменты на запчасти по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Инструменты на запчасти: не выбрасывайте старые инструменты – найдите нужные запчасти в нашем магазине и верните им жизнь. </t>
-  </si>
-  <si>
-    <t>Профессиональные инструменты</t>
-  </si>
-  <si>
-    <t>2016-02-13 12:47:41</t>
-  </si>
-  <si>
-    <t>2021-02-12 11:58:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	В данной категории собраны &lt;strong&gt;профессиональные электроинструменты&lt;/strong&gt; от признанных во всём мире производителей. Здесь Вы сможете встретить творения таких фирм как Dewalt, Makita, Bosch, Leister и другие.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Многие мастера знают о том, что использование моделей инструмента премиум-класса позволит ускорить и облегчить решение многих важных задач. Однако некоторые ошибочно полагают, что отличие профессионального инструмента от бытового заключается лишь в уровне изготовления, и потому «тратиться» на дорогую модель нет особого смысла. На самом же деле, разница между такими инструментами колоссальная, ведь в профессиональном устройстве имеются такие важные качества, которыми бытовой аппарат уж точно не похвастается, а именно:&lt;/p&gt;
-&lt;ul&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Выдержка интенсивной эксплуатации&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Низкая утомляемость&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Высокая точность работы и производительность&lt;/li&gt;
-	&lt;li style="text-align: justify;"&gt;
-		Окупаемость&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p style="text-align: justify;"&gt;
-	В нашем магазине представлен &lt;strong&gt;широкий ассортимент профессиональных электроинструментов б/у и новых&lt;/strong&gt;, где Вы всегда сможете найти модель по душе, и по карману. Наш товар славится превосходным качеством и доступными ценами.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Профессиональные инструменты - купить в Москве недорого| БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Купить профессиональные инструменты в Москве в интернет-магазине БРЕНД-Инструмент ✔Большой выбор электроинструментов ✔Доставка по Москве ✔Низкие цены!!!</t>
-  </si>
-  <si>
-    <t>профессиональный электроинструмент</t>
-  </si>
-  <si>
-    <t>Болгарки (УШМ)</t>
-  </si>
-  <si>
-    <t>2016-03-31 09:50:01</t>
-  </si>
-  <si>
-    <t>2023-06-02 10:21:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify;"&gt;
-	&lt;strong&gt;Углошлифовальная машина&lt;/strong&gt;, а по простому в народе говорят «болгарка» - из-за страны Болгарии, где этот инструмент был выпущен в производство. Такой инструмент стал незаменимым помощником для любого мало-мальского строителя в быту и на производстве.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Углошлифовальная машина может многое: резать металл и камни, при помощи абразивных дисков, шлифовать и полировать поверхности различной сложности.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Все фирменные болгарки сейчас выпускают по строгим стандартам качетсва. Каждый производитель стремится усовершенствовать и улучшить свой инструмент: мощностью, техническими данными, и разными размерами.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	&lt;strong&gt;Главное, что бы инструмент удобно лежал в руке&lt;/strong&gt;, то есть был эргономичной формы, от этого зависит эффективность работы.&lt;/p&gt;
-&lt;p style="text-align: justify;"&gt;
-	Эти инструменты имеют долгий срок службы, надежны и ценовой диапазон способствует выбрать и &lt;strong&gt;купить болгарку по доступной цене&lt;/strong&gt;. Хорошей альтернативой покупке нового инструмента служит – &lt;strong&gt;электроинструмент бывший в употреблении&lt;/strong&gt;.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить болгарки (ушм) по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Болгарки (УШМ): В нашем магазине представлены болгарки различной мощности и размера. Выберите подходящий инструмент для эффективной работы!</t>
-  </si>
-  <si>
-    <t>Установки алмазного бурения</t>
-  </si>
-  <si>
-    <t>2016-10-04 11:04:50</t>
-  </si>
-  <si>
-    <t>2023-07-06 16:00:20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;div&gt;
-	Алмазное бурение (алмазное сверление) — технологический процесс создания цилиндрического отверстия в строительном материале (бетон,железобетон, кирпич, камень и др.) с применением алмазного инструмента.&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Алмазное бурение (сверление) применяется в строительстве для изготовления технологических отверстий при прокладке различных видов коммуникаций:&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	- систем водоснабжения, отопления, вентиляции, кондиционирования, канализационных и стоковых магистралей;&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	- электрических сетей, волоконно-оптических каналов передачи данных;&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	- взятия проб бетона в монолитных конструкциях, образцов в скальных породах;&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Технология алмазного бурения (сверления) широко применяется при изготовлении ниш в кирпичных и бетонных стенах, при резке проемов в капитальных стенах и перекрытиях.&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Технология алмазного бурения подразумевает применение специального оборудования: установки алмазного бурения и инструмента — алмазной коронки (колонкового бура).&lt;/div&gt;
-&lt;div&gt;
-	Установка алмазного бурения — техническое устройство, состоящее из электрического или гидравлического бормотора и станины.&lt;/div&gt;
-&lt;div&gt;
-	Виды алмазных буровых установок:&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Каждая установка алмазного сверления располагает своими условиями эксплуатации (назначения). Исходя из этого и определяются ее технические характеристики. Установки могут различаться мощностью, диаметром сверления, скоростными режимами и т.д.&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Установки делятся на 4 подгруппы:&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Электрические (станинные и ручные) – основной вид данных установок. Привод работает от электрического мотора. Диапазон сверления отверстий – до 500 мл.&lt;/div&gt;
-&lt;div&gt;
-	Гидравлические – самые мощные представители из существующих. В данном типе вращательное движение придается гидравлическим мотором.&lt;/div&gt;
-&lt;div&gt;
-	Пневматические – необходимы при сверлении в подземных сооружениях и местах с повышенной взрывоопасностью. Обладают малой мощностью, поэтому область применения ограничена.&lt;/div&gt;
-&lt;div&gt;
-	Бензиновые – установки, не требующие наличия постоянного энергообеспечения, что заметно повышает их мобильность.&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Установки позволяют осуществлять работы по алмазному бурению максимально качественно, быстро и надежно. К тому же, данное оборудование способно обслуживаться лишь одним рабочим, а также помогает заметно сократить сроки выполнения сверлильных работ. Среди других преимуществ таких установок отмечаются: высокая точность, невысокий уровень шума и отсутствие бетонной пыли. Благодаря этому алмазное сверление можно применять и в жилых заселенных домах.&lt;/div&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить установки алмазного бурения по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Установки алмазного бурения: эффективное бурение с алмазными установками от лучших брендов. Быстрый результат и долгий срок службы.</t>
-  </si>
-  <si>
-    <t>Установка алмазного бурения б/у ручная установка алмазного бурения б/у купить в Москве электрическая установка алмазного бурения б/у купить в Москве</t>
-  </si>
-  <si>
-    <t>Миксеры строительные</t>
-  </si>
-  <si>
-    <t>2016-10-05 12:37:19</t>
-  </si>
-  <si>
-    <t>2023-06-22 18:24:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-size:16px;"&gt;&lt;strong&gt;Строительный миксер -&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;&lt;span style="font-size:12px;"&gt;&lt;span style="background-color: rgb(245, 245, 245); color: rgb(0, 0, 0); font-family: sans-serif; text-align: justify; text-indent: 2em;"&gt;распространенный инструмент в ремонтно-строительной практике, поскольку без выполняемого им процесса перемешивания не обходится фактически ни один ремонт.&amp;nbsp;&lt;/span&gt;&lt;span style="background-color: rgb(245, 245, 245); color: rgb(0, 0, 0); font-family: sans-serif; text-align: justify; text-indent: 2em;"&gt;Все миксеры устроены одинаково. Главный элемент любого миксера – электродвигатель, встроенный в корпус самого миксера. Этот электродвигатель приводит (передает крутящий момент) во вращение вал с закрепленной на нем насадкой.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin: 0.3em 0px 0.7em; padding: 0px; border: 0px; outline: 0px; text-indent: 2em; color: rgb(0, 0, 0); font-family: sans-serif; font-size: 16px; text-align: justify; background-color: rgb(245, 245, 245);"&gt;
-	&lt;span style="font-size:12px;"&gt;Насадка и осуществляет непосредственное перемешивание рабочего раствора или суспензии. Управляется такой двигатель человеком с помощью расположенного с внешней стороны корпуса пульта управления.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin: 0.3em 0px 0.7em; padding: 0px; border: 0px; outline: 0px; text-indent: 2em; color: rgb(0, 0, 0); font-family: sans-serif; font-size: 16px; text-align: justify; background-color: rgb(245, 245, 245);"&gt;
-	&lt;span style="font-size:12px;"&gt;Обычно в миксерах используются недорогие универсальные коллекторные электродвигатели, управляемые непосредственно изменением напряжения питания такого двигателя с помощью курка, расположенного на корпусе миксера, но в более дорогих моделях сейчас все чаще можно встретить и асинхронные двигатели.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin: 0.3em 0px 0.7em; padding: 0px; border: 0px; outline: 0px; text-indent: 2em; color: rgb(0, 0, 0); font-family: sans-serif; font-size: 16px; text-align: justify; background-color: rgb(245, 245, 245);"&gt;
-	&lt;span style="font-size:12px;"&gt;Управление асинхронным двигателем более сложное – требуется изменять частоту тока. Поэтому в корпус такого миксера всегда встроен дополнительный блок преобразования частоты тока.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin: 0.3em 0px 0.7em; padding: 0px; border: 0px; outline: 0px; text-indent: 2em; color: rgb(0, 0, 0); font-family: sans-serif; font-size: 16px; text-align: justify; background-color: rgb(245, 245, 245);"&gt;
-	&lt;span style="font-size:12px;"&gt;Миксеры на асинхронных двигателях имеют то преимущество, что способны поддерживать постоянными заданные обороты вала двигателя вне зависимости от рабочей нагрузки на миксер при постоянном крутящем моменте, что имеет огромное значение при перемешивании вязких и особо вязких растворов.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin: 0.3em 0px 0.7em; padding: 0px; border: 0px; outline: 0px; text-indent: 2em; color: rgb(0, 0, 0); font-family: sans-serif; font-size: 16px; text-align: justify; background-color: rgb(245, 245, 245);"&gt;
-	&lt;span style="font-size:12px;"&gt;Кроме того, такие миксеры являются бесшумными и более гибкими в управлении. Их недостатки – высокая цена и дорогостоящий ремонт в случае отказа преобразователя частоты.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin: 0.3em 0px 0.7em; padding: 0px; border: 0px; outline: 0px; text-indent: 2em; color: rgb(0, 0, 0); font-family: sans-serif; font-size: 16px; text-align: justify; background-color: rgb(245, 245, 245);"&gt;
-	&lt;span style="font-size:12px;"&gt;Миксеры на коллекторных электродвигателях более просты в эксплуатации, имеют, как правило, значительно более низкие цены (именно за счет дешевого типа электродвигателя и управления им) относительно асинхронных, но более шумные за счет принципа устройства самого двигателя.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin: 0.3em 0px 0.7em; padding: 0px; border: 0px; outline: 0px; text-indent: 2em; color: rgb(0, 0, 0); font-family: sans-serif; font-size: 16px; text-align: justify; background-color: rgb(245, 245, 245);"&gt;
-	&lt;span style="font-size:12px;"&gt;К таким двигателям желательно иметь дополнительную пару щеток коллектора двигателя, которая обычно присутствует в комплекте, но не всегда.&lt;br /&gt;
-	&lt;br /&gt;
-	&lt;strong&gt;Виды строительных миксеров:&lt;/strong&gt;&lt;/span&gt;&lt;br /&gt;
-	&amp;nbsp;&lt;/p&gt;
-&lt;p style="margin: 0.3em 0px 0.7em; padding: 0px; border: 0px; outline: 0px; text-indent: 2em; color: rgb(0, 0, 0); font-family: sans-serif; font-size: 16px; text-align: justify; background-color: rgb(245, 245, 245);"&gt;
-	&lt;span style="font-size:12px;"&gt;Все миксеры можно разделить на ручные и стационарные. Первые удерживаются в руках непосредственно человеком при выполнении работ, а вторые приспособлены для их работы с определенной емкостью и устанавливаются непосредственно на эту емкость.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin: 0.3em 0px 0.7em; padding: 0px; border: 0px; outline: 0px; text-indent: 2em; color: rgb(0, 0, 0); font-family: sans-serif; font-size: 16px; text-align: justify; background-color: rgb(245, 245, 245);"&gt;
-	&lt;span style="font-size:12px;"&gt;Как правило, ручные миксеры имеют меньшую цену, меньшую массу, более мобильны и транспортабельны относительно стационарных. Процесс перемешивания человек ведет с помощью такого миксера непосредственно сам – он может легко поменять угол наклона миксера, глубину перемешивания и т. д.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin: 0.3em 0px 0.7em; padding: 0px; border: 0px; outline: 0px; text-indent: 2em; color: rgb(0, 0, 0); font-family: sans-serif; font-size: 16px; text-align: justify; background-color: rgb(245, 245, 245);"&gt;
-	&lt;span style="font-size:12px;"&gt;Однако стационарные миксеры для раствора имеют свое преимущество – ими проще управлять, поскольку не нужно во время проведения работ их все время удерживать в руках.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin: 0.3em 0px 0.7em; padding: 0px; border: 0px; outline: 0px; text-indent: 2em; color: rgb(0, 0, 0); font-family: sans-serif; font-size: 16px; text-align: justify; background-color: rgb(245, 245, 245);"&gt;
-	&lt;span style="font-size:12px;"&gt;Стационарные миксеры имеют большую мощность и рассчитаны на больший разовый объем перемешивания, что, соответственно, означает их большую производительность относительно ручных миксеров.&lt;br /&gt;
-	&lt;br /&gt;
-	&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;Таким образом, если планируется выполнять большой объем ремонтно-строительных работ, то следует подумать о приобретении стационарного миксера, а в остальных случаях (особенно при частых выездных работах) вполне будет достаточно и ручного.&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить миксеры строительные по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Миксеры строительные: отличный выбор для смешивания строительных материалов. Большой ассортимент, высокое качество и доступные цены. Сделайте работу проще с нашими миксерами!</t>
-  </si>
-  <si>
-    <t>Миксер строительный</t>
-  </si>
-  <si>
-    <t>Рубанки</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/3ad4c2f93c471f32cd50aa4e5b3fa4b6.jpeg</t>
-  </si>
-  <si>
-    <t>2016-10-05 15:13:34</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:57:13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;b style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px;"&gt;Электрический&amp;nbsp;рубанок&amp;nbsp;-&amp;nbsp;&lt;/b&gt;&lt;span style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px;"&gt;ручной или стационарный деревообрабатывающий электроинструмент&amp;nbsp;&lt;/span&gt;&lt;span style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px;"&gt;для строгания.&lt;/span&gt;&lt;br&gt;
-	&amp;nbsp;&lt;/p&gt;
-&lt;p style="margin: 0.5em 0px; line-height: inherit; color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px;"&gt;
-	&lt;strong&gt;Электрорубанок состоит из:&lt;/strong&gt;&lt;/p&gt;
-&lt;ul style="margin: 0.3em 0px 0px 1.6em; padding-right: 0px; padding-left: 0px; list-style-image: url(&amp;quot;data:image/svg+xml,%3C%3Fxml%20version%3D%221.0%22%20encoding%3D%22UTF-8%22%3F%3E%0A%3Csvg%20xmlns%3D%22http%3A%2F%2Fwww.w3.org%2F2000%2Fsvg%22%20version%3D%221.1%22%20width%3D%225%22%20height%3D%2213%22%3E%0A%3Ccircle%20cx%3D%222.5%22%20cy%3D%229.5%22%20r%3D%222.5%22%20fill%3D%22%2300528c%22%2F%3E%0A%3C%2Fsvg%3E%0A&amp;quot;); color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px;"&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		корпуса, имеющего ручку-упор;&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		передней опоры с механизмом, помогающим регулировать глубину строгания;&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		электродвигателя;&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		редуктора;&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		кабеля со штепсельной вилкой.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p style="margin-bottom: 0.1em;"&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Разновидности рубанков:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin-bottom: 0.1em;"&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;-&amp;nbsp;&lt;/strong&gt;ручной - с универсальным коллекторным двигателем (УКД)&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin-bottom: 0.1em;"&gt;
-	&lt;span style="font-size:14px;"&gt;- стационарный - с асинхронным электродвигателем&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin-bottom: 0.1em;"&gt;
-	&lt;span style="font-size: 14px;"&gt;- сетевой (220-230 В)&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin-bottom: 0.1em;"&gt;
-	&lt;span style="font-size: 14px;"&gt;- аккумуляторный (18 В)&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin-bottom: 0.1em;"&gt;
-	&amp;nbsp;&lt;/p&gt;
-&lt;p style="margin-bottom: 0.1em;"&gt;
-	&lt;span style="font-size: 14px;"&gt;-&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить рубанки по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рубанки: обработка дерева станет легкой и быстрой с высококачественными рубанками от "Бренд-Инструмент". </t>
-  </si>
-  <si>
-    <t>Электрорубанок купить б/у в Москве недорого, рубанок электрический б/у купить в Москве, рубанки б/у и новые купить в Москве недорого, ручной рубанок купить б/у в Москве недорого</t>
-  </si>
-  <si>
-    <t>Фены</t>
-  </si>
-  <si>
-    <t>2016-10-12 16:06:34</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:36:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;b style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px; line-height: 22.4px;"&gt;Фен&lt;/b&gt;&lt;span style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px; line-height: 22.4px;"&gt;&amp;nbsp;— электрический прибор&lt;/span&gt;&lt;span style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px; line-height: 22.4px;"&gt;&amp;nbsp;выдающий направленный поток нагретого&amp;nbsp; воздуха&lt;/span&gt;&lt;span style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px; line-height: 22.4px;"&gt;. Важнейшей особенностью фена является возможность подачи тепла точно в заданную область. Происхождение слова «фен» связано с&amp;nbsp; немецкой маркой&lt;/span&gt;&lt;span style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px; line-height: 22.4px;"&gt;&amp;nbsp;&lt;/span&gt;&lt;i style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px; line-height: 22.4px;"&gt;Fön&lt;/i&gt;&lt;span style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px; line-height: 22.4px;"&gt;, зарегистрированной в 1908&lt;/span&gt;&lt;span style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px; line-height: 22.4px;"&gt;&amp;nbsp;году производителем электрооборудования компанией&amp;nbsp; AEG&lt;/span&gt;&lt;span style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px; line-height: 22.4px;"&gt;, и ссылающейся на тёплый альпийский ветер фен&lt;/span&gt;.&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Строительный или технический фен&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;&lt;span style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px; line-height: 22.4px;"&gt;отличается способностью выдавать поток воздуха, нагретого до температуры около 300—500&amp;nbsp;°C, но с невысокой скоростью. Различные модели технических фенов могут иметь также и режимы с более низкой температурой воздуха, например, 50&amp;nbsp;°C. Существуют модели, позволяющие получать воздух с температурами в диапазоне 50—650&amp;nbsp;°C с шагом в 10&amp;nbsp;°C или плавной регулировкой. Некоторые модели позволяют регулировать расход воздуха.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin: 0.5em 0px; line-height: 22.4px; color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px;"&gt;
-	Строительный фен имеет большое число применений, в т.&amp;nbsp;ч.:&lt;/p&gt;
-&lt;ul style="margin: 0.3em 0px 0px 1.6em; padding-right: 0px; padding-left: 0px; list-style-image: url(&amp;quot;data:image/svg+xml,%3C%3Fxml%20version%3D%221.0%22%20encoding%3D%22UTF-8%22%3F%3E%0A%3Csvg%20xmlns%3D%22http%3A%2F%2Fwww.w3.org%2F2000%2Fsvg%22%20version%3D%221.1%22%20width%3D%225%22%20height%3D%2213%22%3E%0A%3Ccircle%20cx%3D%222.5%22%20cy%3D%229.5%22%20r%3D%222.5%22%20fill%3D%22%2300528c%22%2F%3E%0A%3C%2Fsvg%3E%0A&amp;quot;); color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px; line-height: 22.4px;"&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		Сушка;&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		Подогрев клеющих составов перед нанесением (в т.&amp;nbsp;ч. и прямо на поверхности, на которую они наносятся);&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		Подогрев клеевого слоя перед разделением склеенных деталей (например, удаление наклеек);&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		Подогрев некоторых разъёмных металлических соединений перед их разборкой;&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		Подогрев&amp;nbsp; термопластовых&amp;nbsp;деталей для придания им формы (например, гибка или посадка труб);&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		Разогрев покрытий из&amp;nbsp; лаков и красок&amp;nbsp;для их удаления;&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		Пайка и лужение&amp;nbsp;металлов;&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		Сварка&amp;nbsp; (прежде всего термопластов);&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		Нанесение термопластичных&amp;nbsp; герметиков;&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		Посадка термореактивной электроизоляции на проводах;&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		Розжиг&amp;nbsp; углей в мангале;&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		Отогревание замерзших водопроводных труб;&lt;/li&gt;
-	&lt;li style="margin-bottom: 0.1em;"&gt;
-		Нагревание полиэфирной&amp;nbsp;или эпоксидной&amp;nbsp;смолы для более быстрого отвердения.&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить строительные фены по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Строительные фены: обновите свой инструментарий с нашими б/у и новыми строительными фенами для различных задач.</t>
-  </si>
-  <si>
-    <t>технические фены, строительные фены</t>
-  </si>
-  <si>
-    <t>Плиткорезы электрические</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/75635_image.jpeg</t>
-  </si>
-  <si>
-    <t>2016-11-17 15:25:23</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:46:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Плиткорезы электрические&lt;/strong&gt;&lt;/span&gt;&lt;b style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px;"&gt;&amp;nbsp;-&amp;nbsp;&lt;/b&gt;&lt;span style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px;"&gt;общее название семейства инструментов&amp;nbsp; (станков)&lt;/span&gt;&lt;span style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px;"&gt;&amp;nbsp;для прямой, фигурной&amp;nbsp; резки&lt;/span&gt;&lt;span style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px;"&gt;&amp;nbsp;и разламывания&amp;nbsp; керамической плитки&lt;/span&gt;&lt;span style="color: rgb(37, 37, 37); font-family: sans-serif; font-size: 14px;"&gt;.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;В настоящее время под понятием&amp;nbsp; "плиткорез"&lt;/span&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;&amp;nbsp;подразумевается разнообразная техника. Объединяет её общее назначение - резание керамической плитки разных видов, стекла и камня. Причем, сам рез может выполняться несколькими способами. Первый - это накладывание риски - надреза, по которому впоследствии разламывается материал, второй – полное разрезание, распиливание заготовки и третий – откусывание небольших кусков с края. Какой именно способ будет применяться, зависит от конкретного вида оборудования. Он же влияет на скорость, качество и возможность вообще порезать тот или иной материал.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial;"&gt;Классификация:&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;strong&gt;Механические&amp;nbsp;&lt;/strong&gt;-&amp;nbsp;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;группа инструментов, которая не требует дополнительного источника питания. Всю работу делает механика и сам человек.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;strong&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;Ручные -&amp;nbsp;&lt;/span&gt;&lt;/strong&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;бывают двух типов - "кусачки" и отдельный режущий валик.&amp;nbsp;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;strong&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;Электрические плиткорезы&amp;nbsp;&lt;/span&gt;&lt;/strong&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;состоят&amp;nbsp;&lt;/span&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;из рабочего стола и пильной головки с электроприводом и режущим алмазным диском.&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&amp;nbsp;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить плиткорезы электрические по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Плиткорезы электрические (б/у, новые): быстро и аккуратно режьте плитку с нашими плиткорезами. Выбирайте из новых и б/у моделей. Экономьте время и силы!</t>
-  </si>
-  <si>
-    <t>Плиткорезы электрические б/у купить б/у плиткорез ручной б/у плиткорез механический б/у плиткорез электрический б/у купить в Москве плиткорез б/у Зубр Энкор Bosch купить недорого б/у плиткорез в Москве</t>
-  </si>
-  <si>
-    <t>Мойки</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/123456789.jpeg</t>
-  </si>
-  <si>
-    <t>2016-11-18 13:25:36</t>
-  </si>
-  <si>
-    <t>2023-07-04 16:15:59</t>
-  </si>
-  <si>
-    <t>Купить мойки высокого давления по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Мойки высокого давления, минимойки: эффективная очистка с мойками высокого давления и минимойками от лучших производителей. Быстрый результат и долгий срок службы.</t>
-  </si>
-  <si>
-    <t>купить мойку высокого давления б/у минимойку бытовую б/у Karcher, Sthil купить недорого бытовую мойку б/у в Москве</t>
-  </si>
-  <si>
-    <t>Прессовый инструмент</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/24646_big.jpeg</t>
-  </si>
-  <si>
-    <t>2016-11-19 17:04:15</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:43:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p align="justify" style="box-sizing: border-box; margin: 0px 0px 20px; color: rgb(0, 0, 0); font-family: &amp;quot;Source Sans Pro&amp;quot;, Arial, sans-serif; font-size: 14px;"&gt;
-	&lt;b style="box-sizing: border-box;"&gt;Прессовый инструмент&lt;/b&gt;&lt;span style="box-sizing: border-box; background-image: none; background-repeat: repeat; background-position: 0% 0%;"&gt;&amp;nbsp;предназначен для монтажа систем.&lt;/span&gt;Трубы и фитинги, изготовленные из металла, нуждаются в особом соединении, которое будет прочным, надежным и долговечным. Если ранее такие системы монтировались с использованием сварочных аппаратов, то сегодня появилась более простая и функциональная альтернатива. Прессовый инструмент значительно облегчает монтажные работы и способствует ускорению сборки системы. Еще одно достоинство прессового инструмента – абсолютная безопасность и простота эксплуатации, а также чистота производимых работ.&amp;nbsp;&lt;/p&gt;
-&lt;p align="justify" style="box-sizing: border-box; margin: 0px 0px 20px; color: rgb(0, 0, 0); font-family: &amp;quot;Source Sans Pro&amp;quot;, Arial, sans-serif; font-size: 14px;"&gt;
-	&amp;nbsp;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить прессовый инструменты по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Прессовый инструмент б/у - экономьте на покупке качественного прессового инструмента. Большой выбор б/у моделей в отличном состоянии.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Прессовый инструмент б/у купить прессовый инструмент б/у прессовый инструмент б/у купить прессовый инструмент электрический </t>
-  </si>
-  <si>
-    <t>Пилы дисковые</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/pila_diskovaya_metabo_ks_55_600855000.jpeg</t>
-  </si>
-  <si>
-    <t>2016-12-01 18:40:12</t>
-  </si>
-  <si>
-    <t>2023-04-27 21:46:46</t>
-  </si>
-  <si>
-    <t>Купить торцовочные пилы для строительства по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Пила б/у для строительства: экономьте на покупке, не теряя в качестве. Большой выбор проверенных б/у пил для различных видов работ. Надежность и доступность.</t>
-  </si>
-  <si>
-    <t>Пилы торцовочные</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/stroitelnie-tovari-instrumenti-elektroinstrument-pili-lobziki-pila-torcovochnaya-ptd-1-3m-210-1.jpeg</t>
-  </si>
-  <si>
-    <t>2016-12-01 19:00:36</t>
-  </si>
-  <si>
-    <t>2023-04-27 21:45:53</t>
-  </si>
-  <si>
-    <t>Купить дисковые пилы для строительства по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Пила б/у для строительства - экономьте на покупке новой пилы и выбирайте б/у в нашем интернет-магазине. Все инструменты проходят проверку на работоспособность и готовы к использованию.</t>
-  </si>
-  <si>
-    <t>Бензопилы</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/0c99a1eb484d402fac8c4aa4dc077324.jpeg</t>
-  </si>
-  <si>
-    <t>2016-12-01 19:15:12</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:23:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="margin: 0px; font-stretch: normal; font-size: 13px; line-height: 18px; font-family: arial, helvetica, sans-serif; padding-bottom: 18px; color: rgb(51, 51, 51);"&gt;
-	Нужна бензопила? А какая? Бытовая для дачи, полупрофессиональна или профессиональная?&lt;/p&gt;
-&lt;p style="margin: 0px; font-stretch: normal; font-size: 13px; line-height: 18px; font-family: arial, helvetica, sans-serif; padding-bottom: 18px; color: rgb(51, 51, 51);"&gt;
-	Все они делятся по мощности двигателя: бытовая бензопила — 1,8-2,5 л.с., полупрофессиональная пила — до 3,2 л.с., профессиональная — от 3,5 л.с.&lt;/p&gt;
-&lt;p style="margin: 0px; font-stretch: normal; font-size: 13px; line-height: 18px; font-family: arial, helvetica, sans-serif; padding-bottom: 18px; color: rgb(51, 51, 51);"&gt;
-	&lt;strong&gt;У каждой пилы свой моторесурс:&lt;/strong&gt;&lt;/p&gt;
-&lt;div class="detail-feat" style="color: rgb(51, 51, 51); font-family: arial, helvetica, sans-serif; font-size: 13px;"&gt;
-	&lt;ul style="padding-right: 0px; padding-left: 0px; margin: 0px 0px 0px 27px; list-style: none none;"&gt;
-		&lt;li style="list-style-type: disc;"&gt;
-			&lt;em&gt;Пила для дачи&lt;/em&gt;. Дрова для шашлыка, маленькие деревца, старые ветки — вот её стезя. При эксплуатации 8-10 часов в год, ресурс составляет 130-150 часов. У брендовых — до 200 ч.&lt;br /&gt;
-			&amp;nbsp;&lt;/li&gt;
-		&lt;li style="list-style-type: disc;"&gt;
-			&lt;em&gt;Полупрофессиональные&lt;/em&gt;. Если работы много, но сделать её нужно за раз. Например: заготовить 2 машины дров для бани, построить дом "для себя". Они способны на многое, но нельзя использовать их в течение дня без остановки.&amp;nbsp;&lt;br /&gt;
-			&amp;nbsp;&lt;/li&gt;
-		&lt;li style="list-style-type: disc;"&gt;
-			&lt;em&gt;Профессиональные&lt;/em&gt;. Их используют компании-первопроходцы (Газпром, РЖД и т.д.). Эти агрегаты работают по 8 часов в день (1500-2000 моточасов).&amp;nbsp;&lt;br /&gt;
-			&amp;nbsp;&lt;/li&gt;
-	&lt;/ul&gt;
-&lt;/div&gt;
-&lt;p style="margin: 0px; font-stretch: normal; font-size: 13px; line-height: 18px; font-family: arial, helvetica, sans-serif; padding-bottom: 18px; color: rgb(51, 51, 51);"&gt;
-	&lt;strong&gt;Что касается их ремонта?&lt;/strong&gt;&lt;/p&gt;
-&lt;p style="margin: 0px; font-stretch: normal; font-size: 13px; line-height: 18px; font-family: arial, helvetica, sans-serif; padding-bottom: 18px; color: rgb(51, 51, 51);"&gt;
-	Стоит ли ремонтировать — все зависит от моторесурса.&lt;/p&gt;
-&lt;p style="margin: 0px; font-stretch: normal; font-size: 13px; line-height: 18px; font-family: arial, helvetica, sans-serif; padding-bottom: 18px; color: rgb(51, 51, 51);"&gt;
-	150ч делим на 10ч=15 лет — срок пилы для дачи в идеале. После ремонтировать даже и не стоит. Цена двигателя — это половина цены бензопилы. Лучше возьмите новую.&lt;/p&gt;
-&lt;p style="margin: 0px; font-stretch: normal; font-size: 13px; line-height: 18px; font-family: arial, helvetica, sans-serif; padding-bottom: 18px; color: rgb(51, 51, 51);"&gt;
-	Полупрофессиональные и профессиональные пилы ремонтировать целесообразно. Запчасти для них делают из качественных материалов.&lt;/p&gt;
-&lt;p style="margin: 0px; font-stretch: normal; font-size: 13px; line-height: 18px; font-family: arial, helvetica, sans-serif; padding-bottom: 18px; color: rgb(51, 51, 51);"&gt;
-	&lt;strong&gt;Как выбрать бытовую бензопилу?&lt;/strong&gt;&lt;/p&gt;
-&lt;p style="margin: 0px; font-stretch: normal; font-size: 13px; line-height: 18px; font-family: arial, helvetica, sans-serif; padding-bottom: 18px; color: rgb(51, 51, 51);"&gt;
-	Самая большая конкуренция здесь. Рынок перенасыщен. Поэтому производители пытаются разнообразить их новыми функциями. Виброгашение, например. Или сделают&amp;nbsp;бачок для смазки масла&amp;nbsp;из качественного алюминия, как в профессиональных. Придумывают систему облегченного старта.&amp;nbsp;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить бензопилы для строительства по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Бензопила б/у для строительства: надежные и проверенные бензопилы б/у от Бренд-Инструмент. Экономьте без ущерба для качества работы!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бензопилы </t>
-  </si>
-  <si>
-    <t>Аккумуляторы</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/ieeedfc2b1.jpeg</t>
-  </si>
-  <si>
-    <t>2016-12-25 16:16:31</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:16:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;strong&gt;Аккумуляторная батарея&lt;/strong&gt;&amp;nbsp;— это источник автономного электропитания аккумуляторного инструмента. Блоки различны по типу аккумулятора, его емкости и напряжению на выходе. По способу фиксации выделяют модели типа «слайдер», когда батарея крепится горизонтальным передвижением по направляющим, и «обойма», где вертикальный выступ блока вставляется в специальное углубление в инструменте.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Среди источников тока различают&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Батарейки&lt;/strong&gt;&amp;nbsp;— от 1,5 до 9 В применяются для бытовых приборов, 12 В используются в пультах сигнализации автомобилей. Щелочные и алкалиновые — одноразовые, никель-металлогидридные - перезаряжаемые.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Блоки&lt;/strong&gt;&amp;nbsp;— аккумуляторы для инструментов с напряжением до 36 В.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Типы блоков по химическому составу&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		Никель-кадмиевые (Ni-Cd) — доступны по цене. Первый аккумулятор для шуруповерта был с кадмием, в новых разработках он уже не применяется. Заряжать батарею нужно только после того, как она полностью разрядится. Преимущества: отлично выдерживают нагрузку, работают при низких температурах.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		Никель-металлогидридные (Ni-Mh) – от предыдущего типа отличаются меньшим весом. Нет эффекта памяти, такие аккумуляторы для инструмента можно ставить на подзарядку в любое время. Они в любой момент готовы к работе, но плохо переносят отрицательные температуры.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		Литий-ионные (Li-ion) – самый современный аккумулятор для дрели, легкий, обладающий высоким напряжением.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Важные характеристики&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Напряжение&lt;/strong&gt;&amp;nbsp;выражается в Вольтах и соотносится с параметром мощности у сетевого инструмента.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Емкость&lt;/strong&gt;&amp;nbsp;указывает, насколько долго батарея будет поддерживать напряжение на максимальном уровне. Этот показатель находится в пределах 1,0-3,0 А/час.&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить аккумуляторы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Аккумуляторы: заряжайте свои инструменты с нашими аккумуляторами. Высокое качество, надежность и долгий срок службы. Не останьтесь без энергии в нужный момент!</t>
-  </si>
-  <si>
-    <t>Степлеры</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/nd-pc19-35.jpeg</t>
-  </si>
-  <si>
-    <t>2017-02-10 17:29:03</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:02:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;Электрические степлеры предназначенны для скрепления материалов и используются при большом объеме работ в мебельном производстве, строительных работах и упаковочном производстве. Они характеризуются высокой скорострельностью благодаря электрическому приводу.&lt;/span&gt;&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Важные для выбора электрических степлеров параметры&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Расходные материалы&lt;/strong&gt;&amp;nbsp;— это гвозди, скобы, шпильки и т.д. Выбор нужной вам расходки зависит от того, какой оснасткой вы планируете работать. Некоторые модели могут использовать только один вид оснастки, а есть многоплановые, которые работают с несколькими видами расходных материалов. Выбор&amp;nbsp; оснастки зависит также от типа соединения: скобы и шпильки необходимы для скрепления деталей, которые идут последовательно, гвозди предназначены для элементов, расположенных друг за другом, клепки необходимы для работы с тонким материалом: тканью, листовым металлом малой толщины и т.д. Например, для закрепления обивки часто используют электрические степлеры для мебели с клепками.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Регулировка силы удара&lt;/strong&gt;&amp;nbsp;является важным параметром, если вам приходится работать с разным по плотности материалом. Соответственно, чем толще материал, тем сильнее должен быть удар. А для мягких материалов требуется небольшое усилие, иначе поверхность испортится.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Возможность двойного удара&lt;/strong&gt;&amp;nbsp;необходима, если работа связана с тяжелой оснасткой: гвоздями, штифтами, шпильками. Повторный удар происходит вхолостую, без подачи крепежного элемента, и дополнительно закрепляет оснастку, поданную при первом ударе. Это дает возможность забить гвозди и шпильки, которые не пошли полностью в материал с первого удара. К примеру, целесообразно применять в строительстве электрические степлеры с функцией двойного удара.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Главные технические характеристики&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Частота ударов&lt;/strong&gt;&amp;nbsp;в первую очередь влияет на производительность. Чем она выше, тем больше работы вы сможете выполнить. Если вам предстоят масштабные работы, то логичнее выбрать электрический степлер с высокой частотой ударов – 60 уд/мин. Если же эта характеристика не играет важной роли, то достаточно&amp;nbsp; 20 уд/мин.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Вес&lt;/strong&gt;&amp;nbsp;степлера связан с удобством работы с инструментом. Так как держать его приходится на вытянутой руке, от значительного веса инструмента быстро наступает усталость, особенно если приходится работать часто и долго. Кроме того, степлер с более прочным корпусом будет намного тяжелее.&lt;br /&gt;
-		&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/instrument/steplery/elektricheskie/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=VCh_Instryment_Msk&amp;amp;utm_content=2432094582&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:2|DT:desktop|RI:213|CI:19959853|GI:1677773750|PI:6403153860|AI:2432094582|RT:|KW:%D0%AD%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B8%D0%B9%20%D1%81%D1%82%D0%B5%D0%BF%D0%BB%D0%B5%D1%80|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&amp;amp;yclid=489303969248578609&lt;/span&gt;&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить степлеры по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Степлеры: надежные и удобные инструменты для быстрой и аккуратной работы. Отличный выбор моделей в "Бренд-Инструмент".</t>
-  </si>
-  <si>
-    <t>Резьбонарезной инструмент</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/13ccca8d61428241b386b12b91048ef8.jpeg</t>
-  </si>
-  <si>
-    <t>2017-05-14 18:05:12</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:13:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Резьбонарезной инструмент&lt;/strong&gt;&lt;/span&gt;&amp;nbsp;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;&amp;nbsp;(клуппы, метчики и плашки) используются в промышленности, строительстве и при бытовых работах и монтажных операциях, когда приходится сталкиваться с необходимостью нанесения внутренней или внешней резьбы на детали.&lt;/span&gt;&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Виды резьбонарезного инструмента&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	В зависимости от того, для каких задач используется резьбонарезной инструмент, можно выделить следующие его виды:&lt;/p&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;em&gt;метчики&lt;/em&gt;&amp;nbsp;- для нарезания внутренней резьбы;&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;em&gt;плашки&lt;/em&gt;&amp;nbsp;- служать для создания внешней резьбы на делатях типа болтов и шпилек;&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;em&gt;трубный клупп&lt;/em&gt;&amp;nbsp;- для нанесения резьбы на наружную сторону трубы.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Как выбирать?&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Самая важная характеристика –&amp;nbsp;&lt;strong&gt;размер резьбы&lt;/strong&gt;, которую можно создать при помощи инструмента. В его маркировке обязательно есть указание на эту величину.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Также важен&amp;nbsp;&lt;strong&gt;тип резьбы&lt;/strong&gt;, которую можно получить с помощью резьбонарезного инструмента – метрическая, коническая, трапецеидальная, дюймовая или др. Кроме того, все метчики и плашки делятся на правые и левые – в зависимости от того, правую или левую резьбу они нарезают. Это также следует учитывать при выборе.&lt;br /&gt;
-	&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/ruchnoy_instrument/stolyarno-slesarnyi/rezbonareznoy/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=Rychnoi_Instryment_Seo_Msk&amp;amp;utm_content=2433206585&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:1|DT:desktop|RI:213|CI:19962768|GI:1678537275|PI:6405214413|AI:2433206585|RT:|KW:%D1%80%D0%B5%D0%B7%D1%8C%D0%B1%D0%BE%D0%BD%D0%B0%D1%80%D0%B5%D0%B7%D0%BD%D0%BE%D0%B9%20%D0%B8%D0%BD%D1%81%D1%82%D1%80%D1%83%D0%BC%D0%B5%D0%BD%D1%82|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&amp;amp;yclid=2596236510550821420&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить резьбонарезной инструмент по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Резьбонарезной инструмент: качественный резьбонарезной инструмент для создания резьбы на различных материалах. Надежность и точность гарантированы.</t>
-  </si>
-  <si>
-    <t>Пилы цепные электрические</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/edec8e5f8ed2af0fa6561635e01b565a.jpeg</t>
-  </si>
-  <si>
-    <t>2017-05-14 19:21:54</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:34:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Пила цепная электрическая&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;Когда нужен легкий и удобный в работе инструмент для распиловки бревен и досок, отличной альтернативой бензопиле становится пила цепная электрическая. Применяется в деревообрабатывающей мастерской, строительстве, частном хозяйстве. Главное – наличие поблизости розетки на 220 В.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&amp;nbsp;&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Конструктивные особенности&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Любая пила цепная электрическая состоит из корпуса с электродвигателем и пильной гарнитуры – шины с цепью. Вращение от двигателя передается на оснастку – так осуществляется движение цепи по шине и происходит процесс пиления. Инструмент с продольным расположением двигателя отличается хорошей балансировкой. А пила цепная электрическая с поперечным двигателем популярна при работах в вертикальных плоскостях.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Важным элементом инструмента является шнур питания. Чтобы во время работ он не повредился, а вилка не вылетела из розетки, на рукояти может быть предусмотрен фиксатор. Важно, чтобы пила цепная электрическая отвечала всем требованиям электробезопасности, у нее должна быть двойная изоляция. У мощных моделей есть ограничение пускового тока, что снижает нагрузку на сеть при запуске и продлевает срок службы двигателя. Для безопасной эксплуатации пила цепная электрическая имеет тормоз цепи, срабатывающий мгновенно при угрозе обратного удара. Зубчатый упор в конструкции служит для аккуратного, точного реза.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Какие преимущества имеют пилы цепные электрические&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		Отсутствие вредных выхлопов и минимум шума – можно работать в помещении.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		Удобство работы и обслуживания – не надо топлива, масла, свечей, не требуется технического обслуживания двигателя.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		Компактная и легкая конструкция – благодаря отсутствию топливного бака.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Параметры выбора&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;strong&gt;Мощность&lt;/strong&gt;&amp;nbsp;влияет на производительность инструмента. Бытовые пилы цепные электрические до 1000 – 1500 Вт подойдут для частной мастерской, заготовки дров, спиливания деревьев на даче. Для профессионального использования в строительстве и на деревообрабатывающих предприятиях используются модели мощностью до 2000 Вт и более.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;strong&gt;Длина шины&lt;/strong&gt;&amp;nbsp;влияет на максимальный размер распиливаемых заготовок: пилы цепные электрические могут оснащаться шиной длиной от 30 до 45 см.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;strong&gt;Вес&lt;/strong&gt;&amp;nbsp;инструмента сказывается на удобстве работы. Зависит от мощности двигателя и размера оснастки. С маломощными моделями весом в 4 – 6 кг управляться легко. Профессиональные мощные инструменты могут весить свыше 10 кг.&lt;br /&gt;
-	&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/sadovaya_tehnika/elektropily_tsepnye/elektricheskie/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=VCh__Sadovaya_tehnika_Msk&amp;amp;utm_content=2432095542&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:1|DT:desktop|RI:213|CI:19959854|GI:1677773872|PI:6403154043|AI:2432095542|RT:|KW:%D1%86%D0%B5%D0%BF%D0%BD%D0%B0%D1%8F%20%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B0%D1%8F%20%D0%BF%D0%B8%D0%BB%D0%B0|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&amp;amp;yclid=2597419764159351875&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить пилы цепные электрические по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Пилы цепные электрические - надежный инструмент для резки дерева и других материалов. Выберите пилу цепную из нашего каталога и получайте качественный результат.</t>
-  </si>
-  <si>
-    <t>Краскопульты и окрасочные аппараты</t>
-  </si>
-  <si>
-    <t>2017-05-16 11:32:07</t>
-  </si>
-  <si>
-    <t>2023-06-22 18:21:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Краскопульт&lt;/strong&gt;&lt;/span&gt; это инструменты для нанесения на поверхность изделий и сооружений составов различной вязкости (вода, дезинфицирующие средства, лакокрасочные материалы, всевозможные пропитки и т.п.). Сейчас модели различной конструкции и емкости применяются в производственных и бытовых целях, на стройплощадках, в автосервисах, на деревообрабатывающих предприятиях.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Устройство&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	По сути, краскопульт - это усложненный пульверизатор, куда под давлением подводится состав для распыления. Как правило, он выполняется в форме пистолета, состоит из корпуса, курка, распылительной головки, воздушного клапана и других деталей. Бачок, откуда поступает краска, может крепиться сверху или внизу. Сменные сопла и головки подбираются в зависимости от характера работ и вязкости состава.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Виды&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Пневматический&lt;/strong&gt;&amp;nbsp;- приводится в действие энергией сжатого воздуха. Питание поступает от воздушной сети, компрессора или ручного насоса. В зависимости от параметров рабочего давления и расхода воздуха подбирается соответствующее нагнетательное оборудование. Как правило, краскораспылители низкого давления более экономичны, легко наносят состав, им требуется шланг большего диаметра. Зато инструментом с высоким рабочим давлением можно наносить более вязкие краски и «металлики», это краскопульт для покраски авто.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Электрический&lt;/strong&gt;&amp;nbsp;- называют также безвоздушным, необходимое давление обеспечивается встроенным мотором и плунжерным насосом. Все электрокраскопульты компактны и удобны в работе, но не обеспечивают такого ровного покрытия, как пневматические, поэтому чаще используются в бытовых целях.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Важные характеристики&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Производительность&lt;/strong&gt;&amp;nbsp;- объем распыленного вещества в единицу времени, обычно оставляет не более 0,4 л/мин.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		Обычно ручной краскопульт имеет&amp;nbsp;&lt;strong&gt;емкость бака&lt;/strong&gt;&amp;nbsp;0,4 - 1 л, иначе его будет тяжело держать на весу. Однако некоторые модели можно подключить через шланг к стационарному красконагнетательному баку большого объема.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Мощность&lt;/strong&gt;&amp;nbsp;(до 600 Вт) у электрических моделей и&amp;nbsp;&lt;strong&gt;расход воздуха&lt;/strong&gt;&amp;nbsp;(до 230 л/мин) – у пневматических влияют на производительность оборудования и потребление энергоресурсов.&lt;br /&gt;
-		&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/instrument/kraskopulty/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=VCh_Instryment_Msk&amp;amp;utm_content=2432094524&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:1|DT:desktop|RI:213|CI:19959853|GI:1677773706|PI:6403153802|AI:2432094524|RT:|KW:%D0%BA%D1%80%D0%B0%D1%81%D0%BA%D0%BE%D0%BF%D1%83%D0%BB%D1%8C%D1%82|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&amp;amp;yclid=2635351241973304249&lt;/span&gt;&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить краскопульты и окрасочные аппараты по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Краскопульты и окрасочные аппараты: быстро и равномерно наносите краску с нашим оборудованием. Большой выбор моделей и производителей. Работайте профессионально!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Краскопульты,  окрасочные аппараты
-</t>
-  </si>
-  <si>
-    <t>Бензорезы и электрорезчики</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/TSA-230.jpeg</t>
-  </si>
-  <si>
-    <t>2017-05-16 11:39:30</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:24:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Бензорезы&lt;/strong&gt;&lt;/span&gt; применяются для резки бетона, камня, кирпича, асфальта, металла. Также эффективно справляются с поставленной задачей при ремонтных работах и реконструкции зданий. Учитывая, что цена такого инструмента значительно ниже, чем стоимость стенорезных и прочих специальных машин, он весьма выгоден для строительных компаний. Предназначенный для тяжелой продолжительной работы, ручной резчик отличается надежностью и долговечностью. Поэтому рекомендуем приобрести его всем, чья работа связана с резкой твердых материалов.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Устройство&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;strong&gt;Бензорезы представляют собой корпус с двигателем и рукоятками, привод и отрезной диск&lt;/strong&gt;. Для 2-х тактного бензинового двигателя характерна значительная мощность и высокий крутящий момент. Передача мощности осуществляется через ремень. В качестве режущего органа применяются отрезные шлифовальные и алмазные диски.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	В целом, устройство бензореза направлено на защиту инструмента от проникновения внутрь пыли. Во-первых, используется центробежная система очистки воздуха. Фильтр большого размера редко нуждается в обслуживании (до 1 раза в год). Стартер так же защищен от попадания пыли, поэтому обладает высокой износостойкостью. Удобство работы обеспечивают системы облегчения запуска и защита от вибрации.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Принцип работы&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Двигатель работает на смеси бензина и масла. Глубина резания ограничена размером диска. Если бензорез работает с двумя дисками, то глубину резания можно увеличить в два раза. В этом случае инструмент работает, как штроборез. После того, как с помощью перфоратора извлекается материал из штробы, резание можно продолжить. При резке желательно использовать небольшой сектор диска. Инструмент нужно держать под прямым углом к обрабатываемой детали. Алмазные диски являются расходным материалом. Для обработки материалов разного вида выпускаются специальные круги.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Характеристики&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px; text-align: left;"&gt;
-		&lt;strong&gt;&lt;em&gt;Мощность&lt;/em&gt;&lt;/strong&gt;&amp;nbsp;- более высокие показатели необходимы для тяжелой резки бетона и камня.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px; text-align: left;"&gt;
-		&lt;strong&gt;&lt;em&gt;Максимальная глубина резания&lt;/em&gt;&lt;/strong&gt;&amp;nbsp;- от 93 до 400 мм.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px; text-align: left;"&gt;
-		&lt;strong&gt;&lt;em&gt;Вес&lt;/em&gt;&lt;/strong&gt;&amp;nbsp;- может достигать 21,4 кг.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Виды&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Кроме обычных моделей, есть специализированные бензорезы. Например, рельсорез. Он комплектуется специальным приспособлением для крепления на рельсе. А кольцерез приводится в движение не от центра, а от края. Благодаря этому, можно получить разрез большей глубины, но цена таких моделей значительно выше. Инструменты, предназначенные для спасательных работ, оснащаются блестящим защитным кожухом с хромированным покрытием, который легко заметен даже в условиях плохой видимости.&lt;br /&gt;
-	&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/stroitelnoe_oborudovanie/rezchiki/benzorezi/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=Stroitelnoe_oborydovanie_Msk&amp;amp;utm_content=2433474428&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:3|DT:desktop|RI:213|CI:19963192|GI:1678713780|PI:6405545319|AI:2433474428|RT:|KW:%D0%B1%D0%B5%D0%BD%D0%B7%D0%BE%D1%80%D0%B5%D0%B7|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&amp;amp;yclid=2635455862264564767&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить бензорезы и электрорезчики по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Бензорезы и электрорезчики - необходимые инструменты для резки бетона, кирпича и других материалов. У нас вы найдете бензорезы и электрорезчики различных производителей.</t>
-  </si>
-  <si>
-    <t>Бензобуры</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/c-ag252.jpeg</t>
-  </si>
-  <si>
-    <t>2017-05-16 11:45:57</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:22:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Бензобуры&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;&lt;span style="font-size:12px;"&gt;&lt;span style="font-family: Arial, Verdana;"&gt;это портативный аппарат, предназначенный для бурения скважин в почве или сверления лунок во льду.&amp;nbsp;&lt;/span&gt;&lt;strong style="margin: 0px; padding: 0px; border: 0px; outline: 0px; font-size: 13px; vertical-align: baseline; background-image: initial; background-position: initial; background-size: initial; background-repeat: initial; background-attachment: initial; background-origin: initial; background-clip: initial; font-family: Arial, Verdana;"&gt;Бензобур&lt;/strong&gt;&lt;span style="font-family: Arial, Verdana;"&gt;&amp;nbsp;— незаменимый помощник рыболова в зимнее время. Отверстия инструмент проделывает с помощью шнекового бура. Практически каждый бензобур обладает мощным двигателем и оснащен высоким вращающимся моментом. По своей эффективности он не уступает крупным навесным агрегатам. Мотобуры часто используют для работы на сложных грунтах. Они нашли широкое применение как в производстве, так и быту.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить бензобуры электроинструменты по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бензобуры: ищете надежный и мощный инструмент? Откройте для себя наш выбор бензобуров, как б/у, так и новых. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бензобуры  строительный б/у инструмент, скупка б/у инструмента, купить б/у инструмент в Москве
-</t>
-  </si>
-  <si>
-    <t>Расширительный инструмент</t>
-  </si>
-  <si>
-    <t>2017-05-16 12:08:16</t>
-  </si>
-  <si>
-    <t>2023-07-04 16:14:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Расширительный инструмент&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить расширительный инструмент по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Расширительный инструмент: улучшите свои возможности с нашим ассортиментом расширительного инструмента. Откройте новые горизонты для своего мастерства!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Расширительный инструмент ,строительный б/у инструмент, скупка б/у инструмента, купить б/у инструмент в Москве
-</t>
-  </si>
-  <si>
-    <t>Компрессоры</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/67ac81d891d76a9177bf18c8f2dea11e.jpeg</t>
-  </si>
-  <si>
-    <t>2017-05-16 12:34:27</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:55:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Компрессоры&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;используются в мастерских, автосервисах, производственных цехах и в быту для работы пневмоинструментов. Мы собрали продукцию всех популярных производителей и готовы помочь вам подобрать подходящие и предложить лучшие условия покупки.&lt;/span&gt;&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;&lt;br&gt;&lt;/h3&gt;&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить компрессоры по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Компрессоры (новый и б/у) - широкий выбор надежных и производительных компрессоров от лучших производителей. Экономьте с покупкой б/у моделей!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Компрессоры, строительный б/у инструмент, скупка б/у инструмента, купить б/у инструмент в Москве
-</t>
-  </si>
-  <si>
-    <t>Паяльники для полипропиленовых труб</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/5e668e6f5efd72ec29e48a1bd26e5938.jpeg</t>
-  </si>
-  <si>
-    <t>2017-05-16 13:24:25</t>
-  </si>
-  <si>
-    <t>2023-09-18 23:16:29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2 class="fs-25 fst-b tdec-none m-0 mb-25" style="margin-top: 0px; margin-right: 0px; margin-left: 0px; font-family: arial; font-size: 25px; color: rgb(0, 0, 0); margin-bottom: 25px !important;"&gt;
-	&lt;span style="font-family:times new roman,times,serif;"&gt;Паяльники для полипропиленовых труб&amp;nbsp;&lt;span style="font-size:12px;"&gt;служат для простого и быстрого соединения отрезков труб путем нагрева. Пригодится и профессионалу, и практичному хозяину.&lt;/span&gt;&lt;/span&gt;&lt;/h2&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	&lt;span style="font-family:times new roman,times,serif;"&gt;&lt;span style="font-size:12px;"&gt;Как работает паяльник&lt;/span&gt;&lt;/span&gt;&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;span style="font-family:times new roman,times,serif;"&gt;Аппарат имеет нагревательную часть. К ней прислоняют элементы труб, которые нужно состыковать. Если использовать&amp;nbsp;&lt;em&gt;раструбный паяльник для полипропиленовых труб&lt;/em&gt;, то с обеих сторон нагревательной части устанавливают матрицы подходящего диаметра. Затем нагретые части двух труб соединяют фитингом.&amp;nbsp;&lt;em&gt;Аппараты для стыковой сварки&lt;/em&gt;&amp;nbsp;работают иначе – отрезки труб сначала стыкуются, а затем нагреваются. Это профессиональные модели, которые могут использоваться даже при прокладке уличного трубопровода.&lt;/span&gt;&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	&lt;span style="font-family:times new roman,times,serif;"&gt;Как выбрать подходящий аппарат&lt;/span&gt;&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;span style="font-family:times new roman,times,serif;"&gt;В первую очередь обратите внимание на&amp;nbsp;&lt;strong&gt;тип труб&lt;/strong&gt;, с которыми он способен работать: ПЭ, ПВДФ, ПБ, ПП и т.д. Вторым важным параметром является&amp;nbsp;&lt;strong&gt;диаметр труб&lt;/strong&gt;&amp;nbsp;– может составлять от 20 до 110 мм и более.&lt;br&gt;
-	&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/santehnika/svar_pay_app_plast_poliprop_trub/&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить паяльники для полипропиленовых труб по выгодным ценам в Москве</t>
-  </si>
-  <si>
-    <t>Паяльники Для Полипропиленовых Труб в интернет магазине Бренд Инструмент! ♕ Самые доступные цены на товары для строительства и ремонта! ✸ Звоните по телефону ☎ 8 (800) 550 78 85. Наши менеджеры проконсультируют вас по всем вопросам! ✌</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Паяльники для полипропиленовых труб,строительный б/у инструмент, скупка б/у инструмента, купить б/у инструмент в Москве
-</t>
-  </si>
-  <si>
-    <t>Точильные станки</t>
-  </si>
-  <si>
-    <t>2017-05-16 16:01:07</t>
-  </si>
-  <si>
-    <t>2023-11-18 10:18:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Точильные станки&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;Заточка режущих и колючих инструментов — востребованная операция на производстве и в быту. В том и другом случае применяют настольные заточные станки. Они имеют малые габариты, поэтому для них не обязательно выделять отдельное место в мастерской. Электрическое точило можно хранить в шкафу или на полке и доставать по мере необходимости. При правильной эксплуатации их срок службы достигает 10 лет. Пользоваться ими довольно просто. Их цена доступна, поэтому можно купить заточной станок для дома, чтобы содержать в порядке ножи, топоры, стамески, лопаты и прочие инструменты.&lt;/span&gt;&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Виды&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Универсальный -&lt;/strong&gt;&amp;nbsp;это электрическое точило, предназначенное для выполнения разнообразных шлифовальных работ. Вал двигателя выходит с двух сторон. В качестве режущих инструментов применяются: два диска (с разной зернистостью для черной и чистовой обработки) или диск и шлифовальная лента (последняя - для шлифования).&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Угловое точило&lt;/strong&gt;&amp;nbsp;имеет особое устройство. Один диск по отношению ко второму находится на перпендикулярной оси. В некоторых случаях такое расположение более удобно для работы. Некоторые точила электрические приспособлены и для сухой, и для влажной заточки (есть бак для воды). Такой станок для заточки ножей покупать не обязательно, а для строгального инструмента он предпочтителен.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;b&gt;Настольный точильный станок для цепей&lt;/b&gt; — предназначен для владельцев электрических цепных пил и бензопил. Они могут обрабатывать цепи различных видов под углом от 0 до 300 градусов с установкой на нужную глубину стачивания.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;b&gt;Настольный заточной станок для сверл&lt;/b&gt; — обработка инструментов разного диаметра (3-20 мм) из любых материалов, включая твердосплавную и быстрорежущую сталь.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Типы по назначению&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Профессиональные&amp;nbsp;&lt;/strong&gt;&amp;nbsp;— отличаются большей стоимостью, имеют надежную конструкцию для непрерывной эксплуатации в течение рабочей смены.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Бытовые&lt;/strong&gt;&amp;nbsp;— работают 15 минут, затем требуется перерыв. Оптимальный вариант, если нужен заточной станок для ножей.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Характеристики&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Мощность&lt;/strong&gt;&amp;nbsp;— чем выше мощность, тем больше возможностей.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Диаметр круга&lt;/strong&gt;&amp;nbsp;— точильные станки выбираются в соответствии с габаритами обрабатываемых деталей.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Диаметр посадочного диска&lt;/strong&gt;&amp;nbsp;— учитывается для покупки оснастки.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Скорость&lt;/strong&gt;&amp;nbsp;— возможность регулировки дает преимущества.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Вес&lt;/strong&gt;&amp;nbsp;— возможность хранения и перемещения точила.&lt;br /&gt;
-		&lt;span id="hidden-copy" style="-webkit-transform: scale(0, 0); transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/stanki/zatochnye_tochilo/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=Stanki_Seo_Msk_VCh&amp;amp;utm_content=2434053936&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:2|DT:desktop|RI:213|CI:19964094|GI:1679086342|PI:6406221608|AI:2434053936|RT:|KW:%D1%82%D0%BE%D1%87%D0%B8%D0%BB%D0%BE%20%D1%8D%D0%BB%D0%B5%D0%BA%D1%82%D1%80%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%BE%D0%B5|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&amp;amp;_openstat=ZGlyZWN0LnlhbmRleC5ydTsxOTk2NDA5NDsyNDM0MDUzOTM2O3lhbmRleC5ydTpwcmVtaXVt&amp;amp;yclid=2639588495402732667&lt;/span&gt;&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить точильные станки по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Точильные станки: Обеспечьте идеальную заточку инструментов с помощью точильных станков из нашего ассортимента. Точность и долговечность гарантированы!</t>
-  </si>
-  <si>
-    <t>Шуруповерты сетевые</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/fcvfc]vfi.jpeg</t>
-  </si>
-  <si>
-    <t>2017-05-17 14:17:36</t>
-  </si>
-  <si>
-    <t>2022-06-16 17:39:25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Шуруповерты сетевые.&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;Это инструмент узкой направленности, с помощью которого можно быстро закручивать шурупы в дерево, металл, гипсокартон, соединяя элементы мебели и сборных конструкций.&lt;/span&gt;&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Возведение межкомнатных перегородок, монтаж подвесных потолков, облицовка фасадов домов сайдингом занимают не один час. Зачастую, при использовании аккумуляторных инструментов приходится делать перерывы на подзарядку. Поэтому выполнения больших по объему работ, без ограничения по времени, отлично подходят сетевые шуруповерты. Единственное условие – это наличие розетки для подключения.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Технические характеристики&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	При выборе инструмента, в первую очередь обращают внимание на&amp;nbsp;&lt;strong&gt;мощность&lt;/strong&gt;. От этого показателя зависит производительность, а, следовательно, и интенсивность использования. Для непродолжительных работ подойдут электрические шуруповерты на 230 – 500 Вт, для профессионалов, которые каждый день используют такой инструмент по несколько часов, на 570 – 720 Вт.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Важной характеристикой является&amp;nbsp;&lt;strong&gt;крутящий момент&lt;/strong&gt;, который определяет способность преодолевать усилие, возникающее при закручивании. От этого зависит диаметр крепежа, который подойдет для использования. Например, к электрическим дрелям-шуруповертам с крутящим моментом до 10 Нм подходят биты с диаметром хвостовика 6,35 мм, с показателем до 15 Нм – оснастка большего диаметра.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Наличие&lt;strong&gt;&amp;nbsp;регулировки глубины&lt;/strong&gt;&amp;nbsp;позволяет выполнять максимально точные работы и закручивать шурупы, не прогибая материал. Некоторые модели имеют&amp;nbsp;&lt;strong&gt;подсветку&lt;/strong&gt;, что позволяет использовать их в затемненных помещениях&lt;br /&gt;
-	&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/instrument/shurupoverty/setevye/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=Podskazki1_SEO_msk&amp;amp;utm_content=2434276353&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:3|DT:desktop|RI:213|CI:19964446|GI:1679226164|PI:6406471619|AI:2434276353|RT:|KW:%D1%88%D1%83%D1%80%D1%83%D0%BF%D0%BE%D0%B2%D1%91%D1%80%D1%82%20%D1%81%D0%B5%D1%82%D0%B5%D0%B2%D0%BE%D0%B9|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&amp;amp;_openstat=ZGlyZWN0LnlhbmRleC5ydTsxOTk2NDQ0NjsyNDM0Mjc2MzUzO3lhbmRleC5ydTpwcmVtaXVt&amp;amp;yclid=2660601794420806520&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Шуруповерты сетевые, выгодные цены, быстрая доставка | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Купить сетевые шуруповерты в Москве ➣ широкий выбор сетевых шуруповертов в нашем магазине ✔быстрая доставка ✔постоянные скидки и акции ✔лучшие бренды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шуруповерты сетевые,строительный б/у инструмент, скупка б/у инструмента, купить б/у инструмент в Москве
-</t>
-  </si>
-  <si>
-    <t>Виброплиты</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/nhgxD9L5.jpeg</t>
-  </si>
-  <si>
-    <t>2017-05-26 17:58:31</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:18:35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Виброплиты&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;позволяют уплотнить грунт, основание под фундамент, асфальт, утрамбовать сыпучие материалы (гравий, щебенка, песок), плотно уложить плитку при мощении. Необходимы в строительных, ремонтных, дорожных, ландшафтных работах. В зависимости от размеров могут применяться как для масштабной обработки обширной площади, так и для точного локального воздействия.&lt;/span&gt;&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Назначение&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Используется оборудование как при подготовке площадки, например, к укладыванию асфальта или заливке фундамента, так и в завершающей стадии работы (прижимание тротуарной плитки, мощение булыжниками). Она обеспечивает необходимое уплотнение, благодаря чему конструкция не будет проседать.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Важные характеристики&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;em&gt;&lt;strong&gt;Глубина уплотнения&lt;/strong&gt;&lt;/em&gt;&amp;nbsp;(воздействия на материал) колеблется в среднем от 15 до 40 см. Как правило, она зависит от мощности и веса оборудования. Например, для уплотнения слоя песка и гравия толщиной 15 см подойдет машина массой до 75 кг, для ямочных и ландшафтных работ (глубина обработки 25 см) – порядка 90 кг. При укладке тротуарной плитки вес оборудования не должен превышать 170 кг, иначе брикеты могут разрушиться.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;em&gt;&lt;strong&gt;Производительность&lt;/strong&gt;&lt;/em&gt;&amp;nbsp;– это площадь обрабатываемого пространства в единицу времени, она может составлять от 100 до 900 кв.м в час.&lt;br /&gt;
-		&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/stroitelnoe_oborudovanie/vibrotehnika/vibroplity/&lt;/span&gt;&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить виброплиты и вибротрамбовки по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Виброплиты и вибротрамбовки - надежный инструмент для уплотнения грунта и других материалов. Выберите виброплиту или вибротрамбовку из нашего каталога и получайте качественный результат.</t>
-  </si>
-  <si>
-    <t>Сверлильные станки</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/b4c990d746a24ef6be138c42f3a7ff01.jpeg</t>
-  </si>
-  <si>
-    <t>2017-05-26 18:11:40</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:17:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="text-align: justify; margin-bottom: 0cm;"&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Магнитные сверлильные станки&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;предназначены для работы в труднодоступных местах и других условиях, исключающих применение стационарного оборудования. Он фиксируется на металлической поверхности, используется для сверления и развертывания отверстий разного диаметра, зенкерования, выполнения резьбы, фрезеровочных операций. Чаще всего магнитные станки используются при ремонте судов, крупных машин и оборудования, проведении строительных и монтажных работ.&lt;/span&gt;&lt;/p&gt;
-&lt;h3 style="text-align: justify; font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Устройство и принцип работы&lt;/h3&gt;
-&lt;p style="text-align: justify; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Любой магнитный станок представляет собой компактную сверлильную установку, с вертикальным расположением рабочего вала. Ход шпинделя регулируется при помощи рукояти. В основании подошвы размещен мощный электромагнит, благодаря чему оборудование надежно устанавливается на металлической поверхности (балки, двутавры, крупные трубы, другие конструктивные элементы). Можно разместить станок сверлильный на магнитной подошве в вертикальном, горизонтальном или наклонном положениях, для дополнительной безопасности используется фиксирующий ремень.&lt;/p&gt;
-&lt;h3 style="text-align: justify; font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Важные характеристики&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="text-align: justify; margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Мощность&lt;/strong&gt;&amp;nbsp;влияет на производительность станка, в среднем составляет 1000-1800 Вт.&lt;/li&gt;
-	&lt;li style="text-align: justify; margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Максимальный диаметр сверления&lt;/strong&gt;&amp;nbsp;указывает на предельный размер выполняемого отверстия, обычно порядка 50 мм.&lt;/li&gt;
-	&lt;li style="text-align: justify; margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Скорость вращения шпинделя&lt;/strong&gt;&amp;nbsp;составляет 150-750 об/мин. Как правило, магнитный сверлильный станок имеет редуктор, который понижает обороты и увеличивает крутящий момент, что позволяет получить крупные отверстия без перегрузок.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;&lt;div style="text-align: justify;"&gt;&lt;strong&gt;Прижимная сила магнита&lt;/strong&gt;&amp;nbsp;зависит от его размеров и мощности оборудования, и составляет до 26000 Н.&lt;/div&gt;
-		&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;&lt;div style="text-align: justify;"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/stanki/na_magnitnoy_podoshve/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=Stanki_Seo_Msk_VCh&amp;amp;utm_content=2434054003&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:3|DT:desktop|RI:213|CI:19964094|GI:1679086408|PI:6406221675|AI:2434054003|RT:|KW:%D0%BC%D0%B0%D0%B3%D0%BD%D0%B8%D1%82%D0%BD%D0%B0%D1%8F%20%D0%B4%D1%80%D0%B5%D0%BB%D1%8C|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&amp;amp;_openstat=ZGlyZWN0LnlhbmRleC5ydTsxOTk2NDA5NDsyNDM0MDU0MDAzO3lhbmRleC5ydTpwcmVtaXVt&amp;amp;yclid=2868116406206470672&lt;/div&gt;&lt;/span&gt;&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить сверлильные станки по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Сверлильные станки - точные и стабильные сверлильные станки для профессионального использования. Удобство и надежность в каждой модели.</t>
-  </si>
-  <si>
-    <t>Станки,  строительный б/у инструмент, скупка б/у инструмента, купить б/у инструмент в Москве</t>
-  </si>
-  <si>
-    <t>Плиткорезы механические</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/17ce7928f1bb3e3d9a96b802c0535abe.jpeg</t>
-  </si>
-  <si>
-    <t>2017-05-30 18:09:55</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:46:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Плиткорезы механические &lt;/strong&gt;&lt;span style="font-size:12px;"&gt;предназначены&lt;strong&gt;&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;&lt;/span&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;для прямого раскроя керамических, каменных и стеклянных изделий. Главным элементом плиткорезных станков является вращающийся алмазный диск или ролик. Заготовка поступательно перемещается относительно него, или наоборот, движется режущий круг, благодаря чему и происходит распиливание. На нашем сайте представлены ручные и электрические плиткорезы для керамогранита, облицовочной или тротуарной плитки, стекла.&lt;/span&gt;&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Виды&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Ручной станок для резки плитки&lt;/strong&gt;&amp;nbsp;и других подобных материалов. Он состоит из небольшой станины с упором и направляющими, и режущего инструмента с рукояткой и небольшим вращающимся алмазными роликом. Его с усилием прокатывают по поверхности плитки, после чего она легко и ровно надламывается. Обычно такой станок используется для бытовых ремонтных работ.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Электрический станок для резки камня&lt;/strong&gt;&amp;nbsp;представляет собой массивное основание с электроприводом и стационарно установленным алмазным диском, относительно которого поступательно движется заготовка. Они могут работать с твердыми материалами большой толщины – мрамором, гранитом, стеклом. Это промышленное оборудование для мастерских и цехов. Благодаря высокой эффективности и скорости обработки профессионального плиткореза, его можно использовать для производства тротуарной плитки.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Необходимые дополнительные материалы&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Расходными материалами для плиткорезов являются алмазные диски. Это тонкие стальные круги с напаянными на режущую кромку кристаллами. Каждый станок камнерезный рассчитан на установку определенной оснастки.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;strong&gt;Диаметр&lt;/strong&gt;&amp;nbsp;может составлять 16-350 мм,&amp;nbsp;&lt;strong&gt;размер посадочного отверстия&lt;/strong&gt;&amp;nbsp;– 6-30 мм. Для разных материалов – мрамора, керамики, песчаника - предусмотрена своя расходка. 50% успеха зависят от правильного выбора диска. Поэтому, если вам нужен плиткорез, рекомендуем сразу заказать комплект алмазных кругов для него, чтобы впоследствии не пришлось искать подходящую оснастку.&lt;br /&gt;
-	&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/stanki/plitkorezy/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=Stanki_Seo_Msk_VCh&amp;amp;utm_content=2434054221&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:1|DT:desktop|RI:213|CI:19964094|GI:1679086621|PI:6406221892|AI:2434054221|RT:|KW:%D0%BF%D0%BB%D0%B8%D1%82%D0%BA%D0%BE%D1%80%D0%B5%D0%B7%20%D0%BC%D0%B5%D1%85%D0%B0%D0%BD%D0%B8%D1%87%D0%B5%D1%81%D0%BA%D0%B8%D0%B9|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&amp;amp;_openstat=ZGlyZWN0LnlhbmRleC5ydTsxOTk2NDA5NDsyNDM0MDU0MjIxO3lhbmRleC5ydTpwcmVtaXVt&amp;amp;yclid=2958699207153947538&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить плиткорезы механические по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Плиткорезы механические: простой и надежный способ резки плитки. Большой выбор моделей и производителей. Экономьте время и силы с нашими плиткорезами!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Плиткорезы механические
-</t>
-  </si>
-  <si>
-    <t>Шлифмашины ленточные</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/15716077-1.jpeg</t>
-  </si>
-  <si>
-    <t>2017-05-30 18:13:35</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:54:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Шлифмашины ленточные&lt;/strong&gt;&lt;/span&gt; предназначены для полировки поверхностей деталей из пластика, дерева, бетона, камня, металла и другого материала. Ими преимущественно удаляют ржавчину, старое лакокрасочное покрытие и, поскольку они могут оставить царапины на поверхности, выполняют черновую полировку.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Устройство&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	По внешнему виду ленточная шлифовальная машина напоминает электрорубанок. Ее главным рабочим элементом является лента, скрепленная в кольцо, которая фиксируется на двух роликах. Электродвигатель приводит ролики в движение, а те в свою очередь заставляют вращаться ленту.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Технические характеристики&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Мощность&lt;/strong&gt;&amp;nbsp;– одна из наиболее важных характеристик, от которой напрямую зависит скорость шлифования и энергопотребление инструмента. Чем больше мощность, тем выше скорость движения ленты. Однако стоит помнить, что высокая скорость ленты приводит к более низкому качеству обработки: царапинам, сколам, раковинам и т.д. Если вам требуется оборудование с невысокой мощностью, то вполне хватит устройства на 330 Вт. В том случае, когда необходима высокая скорость обработки, подойдет модель мощностью 1400 Вт. Соответственно, чем мощнее, тем больше цена ленточной шлифмашины.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Длина ленты&lt;/strong&gt;&amp;nbsp;влияет на то, как часто вы будете обновлять шлифовальное полотно в процессе работы. Обязательно учитывайте натяжение ленты: оно должно быть равномерным. Для разных ленточных шлифмашин подходят ленты, длина которых различается и может составлять от 70 до 760 мм.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Скорость движения ленты&lt;/strong&gt;&amp;nbsp;следует выбирать исходя из материала заготовки, с которой вы будете работать. К примеру, для полировки дерева хватит небольшой скорости движения ленты, например, 9,4 м/мин. Если же деталь каменная или металлическая, то есть выполнена из очень плотного материала, то вам следует купить ленточную шлифовальную машину с высокой скоростью движения ленты – 1700 м/мин.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Ширина ленты&lt;/strong&gt;&amp;nbsp;выбирается в зависимости от площади детали, которую предстоит обработать. Для небольших деталей площадью около нескольких квадратных сантиметров вполне хватит узкой ленты шириной 6 мм. Если же предстоит обработка очень большой площади, например, несколько квадратных метров, то советуем выбирать модель с очень широкой лентой – 110 мм.&lt;br /&gt;
-		&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/instrument/shlifmashiny/lentochnye/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=VCh_Instryment_Msk_A%2fB&amp;amp;utm_content=3322628156&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:1|DT:desktop|RI:213|CI:23257956|GI:2207287601|PI:8058550241|AI:3322628156|RT:|KW:%D0%9B%D0%B5%D0%BD%D1%82%D0%BE%D1%87%D0%BD%D0%B0%D1%8F%20%D1%88%D0%BB%D0%B8%D1%84%D0%BC%D0%B0%D1%88%D0%B8%D0%BD%D0%B0|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&amp;amp;yclid=2958744876132604438&lt;/span&gt;&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить шлифмашины ленточные по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Шлифмашины ленточные - идеально гладкие поверхности с помощью ленточных шлифмашин. Выбирайте лучшие модели для своих нужд.</t>
-  </si>
-  <si>
-    <t>Шлифмашины ленточные, строительный б/у инструмент, скупка б/у инструмента, купить б/у инструмент в Москве</t>
-  </si>
-  <si>
-    <t>Шлифмашины вибрационные</t>
-  </si>
-  <si>
-    <t>2017-05-30 18:16:52</t>
-  </si>
-  <si>
-    <t>2021-09-23 10:59:18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Вибрационная шлифмашина&lt;/strong&gt;&lt;/span&gt;&amp;nbsp;— предназначена для шлифования плоских поверхностей из древесины, пластмассы, камня и металла. Применение шлифовальных листов различной зернистости позволяет проводить как общую, так и тонкую обработку поверхности. Вибрационные шлифмашины можно использовать для снятия старой краски, ржавчины, для удаления царапин.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	В плане чистовой обработки поверхности плоскошлифовальная машина дает высокое качество и точность.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Устройство&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Подошва имеет прямоугольную форму. Шлифовальные листы закрепляются на ней двумя способами: на липучке или с помощью зажимов. Благодаря круглым отверстиям на них и пылеотсоса можно удалить пыль. Шлифовальные листы идут в комплекте или приобретаются отдельно. Для вибрационной шлифмашины с креплением зажимами их можно изготовить самостоятельно из шкурки. В этом случае многие модели комплектуются дыроколом.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Принцип работы&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Над центром платформы в корпусе виброшлифмашины установлен двигатель с якорем. Шпиндель смещен от центра платформы. При вращении якоря платформа совершает круговые движения с большой скоростью - вибрирует. Противовес на валу уравновешивает колебания, например, усиливает их, если при работе сильнее нажимать на платформу.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Технические характеристики&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Мощность&lt;/strong&gt;. У разных плоскошлифовальных машин может составлять от 160 до 600 Вт. Для нормальной работы достаточно 200- 300 Вт, кроме того, инструмент с такой мощностью не будет тяжелым.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Число колебаний&lt;/strong&gt;. Чем больше число колебаний, тем выше производительность.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Рабочая поверхность&lt;/strong&gt;&amp;nbsp;— размер подошвы. С маленьким размером подошвы легче обрабатывать труднодоступные места.&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить вибрационные шлифмашины (б/у и новые) в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Купить вибрационные шлифмашины (б/у и новые) в Москве ✔низкие цены ✔высокое качество ✔быстрая доставка в Москве  ☛заказывайте онлайн или звоните</t>
-  </si>
-  <si>
-    <t>Шлифмашины вибрационные, строительный б/у инструмент, скупка б/у инструмента, купить б/у инструмент в Москве</t>
-  </si>
-  <si>
-    <t>Прямошлифовальные машины</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/c34bbcccfe4904e7b8e9bbce699254c7.jpeg</t>
-  </si>
-  <si>
-    <t>2017-06-04 16:22:08</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:52:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Прямая шлифмашина — самый маневренный инструмент для шлифования, так как лучше других справляется с работой в труднодоступных местах. В качестве оснастки можно использовать разнообразные пальцевые и конические шлифовальные круги, а также фрезы и другие насади. Они применяют для полировки, гравировки, зачистки сварных швов и ржавчины. С таким инструментом Вы легко сможете врезать замок в металлическую дверь.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Устройство&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Конструкция довольно проста: выделяются только корпус и шпиндель. Длинный корпус держат одной рукой. Основная насадка&amp;nbsp;- пальчиковая, но самые мощные инструменты могут работать с кругом диаметром до 150 мм. Применяются так же такие виды насадок, как щетки, веерные шлифователи, насадки со шкуркой.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Насадки крепятся с помощью цангового зажима, который обеспечивает точное вращение.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Технические характеристики&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Мощность.&lt;/strong&gt;&amp;nbsp;Если прямошлифовальные машины не предполагается использовать только для гравировки, выбирать следует инструмент с хорошим запасом мощности.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Число оборотов.&lt;/strong&gt;&amp;nbsp;С одной стороны, хочется приобрести высокооборотистую модель. С другой стороны, при меньшем числе оборотов более высокий крутящий момент. Некоторые модели позволяют изменять скорость, а константная электроника поддерживает ее при больших нагрузках.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Размер цанги.&lt;/strong&gt;&amp;nbsp;Влияет на дальнейший подбор насадок.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Вес.&lt;/strong&gt;&amp;nbsp;Можно подобрать прямую шлифовальную машину весом всего лишь 0,5 кг, которую легче всего будет держать в руке&lt;br /&gt;
-		&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/instrument/shlifmashiny/pryamye/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=VCh_Instryment_Msk&amp;amp;utm_content=2432094606&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:1|DT:desktop|RI:213|CI:19959853|GI:1677773769|PI:6403153891|AI:2432094606|RT:|KW:%D0%9F%D1%80%D1%8F%D0%BC%D0%BE%D1%88%D0%BB%D0%B8%D1%84%D0%BE%D0%B2%D0%B0%D0%BB%D1%8C%D0%BD%D0%B0%D1%8F%20%D0%BC%D0%B0%D1%88%D0%B8%D0%BD%D0%B0|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&amp;amp;yclid=3070243629148670905&lt;/span&gt;&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить прямошлифовальные машины по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Прямошлифовальные машины: В каталоге "Бренд-Инструмент" представлены прямошлифовальные машины различных мощностей и комплектаций. Отличное качество и доступные цены. Оперативная доставка по всей стране. Гарантия от производителя.</t>
-  </si>
-  <si>
-    <t>Шлифмашины эксцентриковые</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/7923371196af7dd4209b7834c541fff3.jpeg</t>
-  </si>
-  <si>
-    <t>2017-06-04 17:12:17</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:53:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;strong&gt;Эксцентриковые шлифмашины&lt;/strong&gt;&amp;nbsp;— универсальный инструмент для зачистки, шлифования, полирования деревянных и металлических поверхностей. С ними можно обрабатывать также пластмассу, стекло, камень, шпатлевку и лакированные поверхности. Эксцентриковые шлифовальные машины имеют самую широкую область применения, но в отличии от других шлифмашин особенно хороши в обработке изогнутых поверхностей. Кроме того, они дают высокую скорость чистового шлифования.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Устройство&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Эсксцентриковые шлифмашины имеют круглую платформу — опорную тарелку. На опорную тарелку крепятся сменные шлифовальные листы, которые изготавливают из корунда, войлока, флиса, губки, меха.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Существует два способа крепления шлифовальных листов:&lt;/p&gt;
-&lt;ol style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li&gt;
-		&lt;strong&gt;Зажим&lt;/strong&gt;&amp;nbsp;— самый экономичный, дешевле и сами машины и расходные материалы к ним.&lt;/li&gt;
-	&lt;li&gt;
-		&lt;strong&gt;С помощью липучки&lt;/strong&gt;&amp;nbsp;— быстрая и удобная замена листа.&lt;/li&gt;
-&lt;/ol&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Для удаления пыли эксцентриковая шлифмашина может оснащаться пылеотводом через подошву или устройством для подключения внешнего пылесоса.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Принцип работы&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	Подошва эксцентриковой шлифовальной машины одновременно совершает два вида движения: вращательное и возвратно-поступательное. Если вращательное движение позволяет производить тонкую шлифовку без рисок, то дополнительное движение делает работу более производительной и качественной.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Технические характеристики&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Мощность.&lt;/strong&gt;&amp;nbsp;Эксцентриковые шлифмашины выпускаются с разной мощностью от 150 до 1000 Вт. Для зачистки и грубой шлифовки лучше выбирать эксцентриковые шлифмашины мощностью от 400 Вт. Самой высокой мощностью (2100 Вт) располагает машина для мокрого шлифования.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Диаметр диска.&lt;/strong&gt;&amp;nbsp;Универсальный размер — 125 мм. Идеальны для чистового шлифования, так как обладают оптимальной амплитудой колебаний. Есть модели с меньшим (80мм) и большим диаметром. Нужно учитывать, что машины с большим диаметром тарелки тяжелее, соответственно с ними менее удобно работать.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Число оборотов.&lt;/strong&gt;&amp;nbsp;Определяет производительность инструмента. Для удобной работы служат системы плавного пуска и постепенного набора числа оборотов, которыми оснащаются некоторые модели. Наличие регулятора числа оборотов позволяет получить лучшие результаты обработки.&lt;br /&gt;
-		&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/instrument/shlifmashiny/ekstsentrikovye_orbitalnye/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=VCh_Instryment_Msk_A%2fB&amp;amp;utm_content=3322628160&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:2|DT:desktop|RI:213|CI:23257956|GI:2207287605|PI:8058550259|AI:3322628160|RT:|KW:%D0%AD%D0%BA%D1%81%D1%86%D0%B5%D0%BD%D1%82%D1%80%D0%B8%D0%BA%D0%BE%D0%B2%D0%B0%D1%8F%20%D1%88%D0%BB%D0%B8%D1%84%D0%BC%D0%B0%D1%88%D0%B8%D0%BD%D0%B0|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&amp;amp;yclid=3071020744959855695&lt;/span&gt;&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить шлифмашины эксцентриковые по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Шлифмашины эксцентриковые: идеальный инструмент для точной и аккуратной шлифовки. Большой выбор моделей и производителей. Работайте быстро и качественно!</t>
-  </si>
-  <si>
-    <t>Измерительные приборы</t>
-  </si>
-  <si>
-    <t>2017-07-13 10:19:21</t>
-  </si>
-  <si>
-    <t>2023-11-28 20:05:06</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Оптовые и розничные продажи измерительных приборов в Москве&amp;nbsp;&lt;/h2&gt;
-&lt;p&gt;В нашем ассортименте тестеров, детекторов и измерительных приборов каждый специалист и энтузиаст найдет необходимое устройство для точных и надежных измерений. Эти инструменты незаменимы в таких сферах, как автомобильная промышленность и строительство. Мы предлагаем заказать их с гарантией качества и функциональности.&lt;/p&gt;
-&lt;p&gt;Наш выбор измерительных устройств охватывает широкий спектр потребностей, обеспечивая точность в каждой задаче. Эти приборы идеально подходят как для профессионального использования, так и для личных проектов, где требуется высокая точность измерений. Наши детекторы имеют долгий срок службы. Можно купить качественные тестеры и измерительные приборы с доставкой в Москве по отличной стоимости на всю бригаду рабочих.&lt;/p&gt;
-&lt;p&gt;Мы предлагаем удобные условия покупки, включая конкурентоспособные цены. Это делает наши измерительные приборы доступными для широкого круга клиентов. Каждый инструмент в этой категории создан для обеспечения максимальной эффективности и долговечности в работе. Все изделия имеют соответствующую документацию. Они настроены и готовы к работе сразу же после покупки.&lt;/p&gt;
-&lt;p&gt;Выбор измерительного оборудования из нашего магазина – это выбор за надежность и точность в каждом измерении. Эти устройства станут ценным дополнением к вашему профессиональному инвентарю или личной коллекции инструментов. Познакомьтесь с нашими тестерами, детекторами и измерительными приборами, чтобы убедиться в их важности для вашей деятельности. В магазине «Бренд-Инструмент» всегда можно заказать инструмент по выгодным ценам и в кредит. У нас всегда выгодная стоимость и быстрая доставка по городу. Если у вас появились вопросы, наши сотрудники будут рады ответить на них. Они помогут с выбором товара и расскажут об условиях оплаты.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить тестеры, детекторы, измерительные приборы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Тестеры, детекторы, измерительные приборы: точность и надежность в каждом изделии. Широкий выбор в интернет-магазине "Бренд-Инструмент".</t>
-  </si>
-  <si>
-    <t>Тестеры, детекторы, измерительные приборы,строительный б/у инструмент, скупка б/у инструмента, купить б/у инструмент в Москве</t>
-  </si>
-  <si>
-    <t>Вибраторы бетонные</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/3d96bda4_enl.jpeg</t>
-  </si>
-  <si>
-    <t>2017-08-13 14:55:10</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:18:07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Вибратор&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;&lt;span style="font-size:12px;"&gt;&lt;span style="color: rgb(60, 56, 53); font-family: &amp;quot;PT Serif&amp;quot;, Georgia, Arial, sans-serif; text-align: justify;"&gt;это устройство, основной функцией которого является уплотнение бетона, то есть избавление от излишков воздуха в пространстве, которое залито бетоном.&lt;/span&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;h3 dir="ltr" style="margin: 0px 0px 1em; padding: 0px; border: 0px; font-variant-numeric: inherit; font-weight: normal; font-stretch: inherit; font-size: 24px; line-height: 1.3em; font-family: Arial, Helvetica, sans-serif, Helvetica, sans-serif; vertical-align: baseline; color: rgb(181, 63, 5);"&gt;
-	&lt;span style="font-size:12px;"&gt;&lt;span style="color:#000000;"&gt;Преимущества использования глубинного вибратора&lt;/span&gt;&lt;/span&gt;&lt;/h3&gt;
-&lt;ul style="margin: 7px 0px 0px; padding-right: 0px; padding-left: 2em; border: 0px; font-variant-numeric: inherit; font-stretch: inherit; font-size: 12px; line-height: inherit; font-family: Arial, Helvetica, sans-serif, Helvetica, sans-serif; vertical-align: baseline; list-style-position: initial; list-style-image: initial; color: rgb(0, 0, 0);"&gt;
-	&lt;li dir="ltr" style="margin: 7px 0px; padding: 0px; border: 0px; font-style: inherit; font-variant: inherit; font-weight: inherit; font-stretch: inherit; font-size: 17px; line-height: 24px; font-family: &amp;quot;PT Serif&amp;quot;, Georgia, Arial, sans-serif; vertical-align: baseline; list-style-image: url(&amp;quot;../images/list_bg.gif&amp;quot;); color: rgb(60, 56, 53);"&gt;
-		&lt;span style="font-size:12px;"&gt;&lt;span style="color:#000000;"&gt;сокращение времени работы с бетоном,&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;
-	&lt;li dir="ltr" style="margin: 7px 0px; padding: 0px; border: 0px; font-style: inherit; font-variant: inherit; font-weight: inherit; font-stretch: inherit; font-size: 17px; line-height: 24px; font-family: &amp;quot;PT Serif&amp;quot;, Georgia, Arial, sans-serif; vertical-align: baseline; list-style-image: url(&amp;quot;../images/list_bg.gif&amp;quot;); color: rgb(60, 56, 53);"&gt;
-		&lt;span style="font-size:12px;"&gt;&lt;span style="color:#000000;"&gt;увеличение крепости и надежности монолитных оснований,&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;
-	&lt;li dir="ltr" style="margin: 7px 0px; padding: 0px; border: 0px; font-style: inherit; font-variant: inherit; font-weight: inherit; font-stretch: inherit; font-size: 17px; line-height: 24px; font-family: &amp;quot;PT Serif&amp;quot;, Georgia, Arial, sans-serif; vertical-align: baseline; list-style-image: url(&amp;quot;../images/list_bg.gif&amp;quot;); color: rgb(60, 56, 53);"&gt;
-		&lt;span style="font-size:12px;"&gt;&lt;span style="color:#000000;"&gt;ускорение строительного процесса,&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;
-	&lt;li dir="ltr" style="margin: 7px 0px; padding: 0px; border: 0px; font-style: inherit; font-variant: inherit; font-weight: inherit; font-stretch: inherit; font-size: 17px; line-height: 24px; font-family: &amp;quot;PT Serif&amp;quot;, Georgia, Arial, sans-serif; vertical-align: baseline; list-style-image: url(&amp;quot;../images/list_bg.gif&amp;quot;); color: rgb(60, 56, 53);"&gt;
-		&lt;span style="font-size:12px;"&gt;&lt;span style="color:#000000;"&gt;уменьшение объема выполненной работы,&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;
-	&lt;li dir="ltr" style="margin: 7px 0px; padding: 0px; border: 0px; font-style: inherit; font-variant: inherit; font-weight: inherit; font-stretch: inherit; font-size: 17px; line-height: 24px; font-family: &amp;quot;PT Serif&amp;quot;, Georgia, Arial, sans-serif; vertical-align: baseline; list-style-image: url(&amp;quot;../images/list_bg.gif&amp;quot;); color: rgb(60, 56, 53);"&gt;
-		&lt;span style="font-size:12px;"&gt;&lt;span style="color:#000000;"&gt;легкость транспортировки,&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;
-	&lt;li dir="ltr" style="margin: 7px 0px; padding: 0px; border: 0px; font-style: inherit; font-variant: inherit; font-weight: inherit; font-stretch: inherit; font-size: 17px; line-height: 24px; font-family: &amp;quot;PT Serif&amp;quot;, Georgia, Arial, sans-serif; vertical-align: baseline; list-style-image: url(&amp;quot;../images/list_bg.gif&amp;quot;); color: rgb(60, 56, 53);"&gt;
-		&lt;span style="font-size:12px;"&gt;&lt;span style="color:#000000;"&gt;возможность подбора и регулировки диаметра виброиглы.&lt;/span&gt;&lt;/span&gt;&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить вибраторы бетонные по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Вибраторы бетонные - профессиональные инструменты для высококачественной укладки бетона. Мы предлагаем вам только надежные и эффективные модели.</t>
-  </si>
-  <si>
-    <t>Плиткорезы</t>
-  </si>
-  <si>
-    <t>2017-08-25 16:16:47</t>
-  </si>
-  <si>
-    <t>2023-06-22 18:28:09</t>
-  </si>
-  <si>
-    <t>Купить плиткорезы (механические и электрические) по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Плиткорезы механические и электрические - незаменимые инструменты для резки керамической плитки. Выбирайте из широкого ассортимента нашего магазина и получайте качественный результат.</t>
-  </si>
-  <si>
-    <t>Шлифмашины</t>
-  </si>
-  <si>
-    <t>2017-08-25 16:21:03</t>
-  </si>
-  <si>
-    <t>2023-07-06 16:07:04</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Где выгодно купить
-угловую шлифмашинку&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Шлифмашина представляет собой компактное устройство, которое используется
-для обработки поверхностей из дерева, камня, бетона, стали и множества иных
-материалов. Можно купить шлифмашину по цене достаточно доступной, чтобы
-выполнять разнообразные работы:&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
- &lt;li class="MsoNormal"&gt;выравнивание плоских поверхностей, их шлифование;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;закругление торцов деталей, их выравнивание и шлифовка;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;удаление ржавчины, краски, гнили и иных загрязнений с
-     различных поверхностей;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;обработка внутренних торцов прорезей, отверстий и
-     углублений.&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;p&gt;Стоимость шлифмашин доступна, а разнообразие моделей позволяет использовать
-их как на производстве, так и в быту, в домашних условиях. Их применяют и в
-строительстве, и при ремонтных работах, и при изготовлении разных предметов из
-металла или дерева.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Разновидности
-шлифовальных машин&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Существует несколько типов шлифмашин, у каждого из которых своя сфера
-применения:&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
- &lt;li class="MsoNormal"&gt;ленточные,&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;угловые,&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;эксцентриковые,&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;прямошлифовальные.&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;p&gt;Ленточные модели шлифуют поверхность шкуркой в виде замкнутой ленты,
-насаженной на ролик, их используют для обработки обширных поверхностей. Для
-полировки выпуклых и вогнутых поверхностей применяются эксцентриковые машины,
-рабочий орган которых позволяет совмещать эксцентриковое движение и
-вращательное. Угловые шлифмашины иначе именуют «болгарками», используют их и
-для шлифовки, и для резки. Рабочий орган представляет собой обдирочный,
-отрезной, лепестковый или зачистной круг. Прямошлифовальные модели
-предназначаются для подготовки поверхностей к покрытию лаком или краской, для
-финишной отделки деталей, а также для шлифовки с высокой точностью в
-труднодоступных местах.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Сетевые и
-аккумуляторные шлифмашины&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Шлифовальные машины любых типов подразделяются на две большие категории –
-аккумуляторные и сетевые. Первые работают автономно, будучи беспроводными,
-вторые необходимо подключать к электросети. Аккумуляторная угловая шлифмашина
-или любая другая позволяет выполнять шлифовальные работы в труднодоступных
-местах, где невозможно обеспечить электропитание, а передвижение в процессе
-работы не ограничивается длиной провода. Но у сетевых моделей тоже есть свои
-преимущества:&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
- &lt;li class="MsoNormal"&gt;время работы не ограничивается;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;по мощности сетевые модели превосходят аккумуляторные;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;производительность сетевых машин выше.&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;p&gt;От способа питания не зависит стоимость шлифмашины, цена ее определяется
-другими характеристиками.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;
-&lt;/p&gt;&lt;p&gt;Заказать шлифовальные машины различных типов по выгодной цене можно в
-интернет-магазине «БРЕНД-инструмент». Наряду с новыми инструментами можно
-приобрести бывшие в употреблении в хорошем состоянии.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить шлифовальные машинки по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Как и где выгодно купить шлифовальную машинку: виды и особенности оборудования: В нашем магазине вы найдете шлифовальные машины различных видов и модификаций. Профессиональная консультация, выгодные цены и быстрая доставка по всей стране.</t>
-  </si>
-  <si>
-    <t>Шлифмашины-ручной и электроинструмент для строительства и ремонта б/у и новый купить в Москве. Makita, Bosch, Hilti, Metabo недорогие цены на инструмент.</t>
-  </si>
-  <si>
-    <t>Пилы сабельные</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/elitech_ps_500_936340_1.jpeg</t>
-  </si>
-  <si>
-    <t>2017-08-30 10:00:14</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:43:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Пилы сабельные&amp;nbsp;&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;С помощью этого инструмента эффективно выполняют демонтажные работы: распил оконной рамы или дверного проема, элементов водопроводной разводки или системы отопления. Для него не важна форма детали – мастер может работать с профильным прокатом или уголками, обыкновенными досками и трубами, торчащими из стены. Востребован в уходе за садом: отлично справляется с обрезкой деревьев, формированием кроны, удалением толстых ветвей. Инструмент ценят за способность резать брус с забитыми в него гвоздями. Незаменим для отделочников, строителей, слесарей, монтажников, кровельщиков. Эффективность электроножовки очевидна и не зависит от материала. Главное, что требуется знать, – как выбрать сабельную пилу и подобрать для нее оснастку. Несколько слов стоит сказать о ней. Полотна отличаются размерами и конструкцией зубьев, которая обусловлена обрабатываемым материалом. Как выбрать электроножовку по дереву?&lt;/span&gt;&lt;a id="w2" name="w2" style="color: rgb(18, 128, 188); text-decoration-line: underline; font-family: Arial; font-size: 12px; background-color: rgb(255, 255, 255);"&gt;&lt;/a&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;&amp;nbsp;Для работы по дереву нужна оснастка&amp;nbsp;&lt;/span&gt;&lt;a id="w2_1" name="w2_1" style="color: rgb(18, 128, 188); text-decoration-line: underline; font-family: Arial; font-size: 12px; background-color: rgb(255, 255, 255);"&gt;&lt;/a&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;с 10 зубьями на дюйм. Чтобы резать металлические трубы понадобится 12 – 14 зубьев на дюйм, для чугуна подойдет полотно с 18 зубьями.&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить пилы сабельные по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Пилы сабельные - универсальные инструменты для резки различных материалов. В нашем каталоге вы найдете пилы сабельные разных мощностей и размеров.</t>
-  </si>
-  <si>
-    <t>Шуруповерты</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/da42832923db53948f84ef0c804ebb00.jpeg</t>
-  </si>
-  <si>
-    <t>2017-09-03 11:27:21</t>
-  </si>
-  <si>
-    <t>2023-05-03 23:37:40</t>
-  </si>
-  <si>
-    <t>&lt;div class="category_bottom"&gt;
-&lt;h2&gt;Назначение и сфера использования&lt;/h2&gt;
-&lt;p&gt;В области строительства и проведения ремонтных работ используются шуруповерты. С их помощью можно быстро вкрутить крепеж в мебель, строительные и отделочные материалы. Применение шуруповертов дает возможность ускорить выполняемые работы и обеспечить надежное крепление с помощью винтов или шурупов.&lt;/p&gt;
-&lt;h2&gt;Виды шуруповертов&lt;/h2&gt;
-&lt;p&gt;В ассортименте интернет-магазина "Бренд-инструмент" есть аккумуляторные, пневматические, сетевые шуруповерты. Первый вид удобен тем, что его не нужно подключать к компрессору или генератору. Аккумуляторные шуруповерты часто используют для проведения работ на высоте. Пневматический инструмент работает от сжатого воздуха, который подает компрессор. Такие шуруповерты удобны тем, что их можно использовать на строительной площадке, где еще отсутствует электроэнергия. И, наконец, сетевой инструмент подключается к электросети или генератору. Все виды шуруповертов можно купить в интернет-магазине "Бренд-инструмент" по выгодной для клиентов цене.&lt;/p&gt;
-&lt;h2&gt;Преимущественные характеристики&lt;/h2&gt;
-&lt;p&gt;Поставляемые заказчикам шуруповерты характеризуются следующими преимуществами:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;небольшой вес, облегчающий использование инструмента;&lt;/li&gt;
-&lt;li&gt;высокий уровень надежности;&lt;/li&gt;
-&lt;li&gt;аккумуляторы повышенной емкости;&lt;/li&gt;
-&lt;li&gt;привлекательная стоимость;&lt;/li&gt;
-&lt;li&gt;большой эксплуатационный ресурс;&lt;/li&gt;
-&lt;li&gt;удобство в использовании;&lt;/li&gt;
-&lt;li&gt;резиновые накладки на рукоятках;&lt;/li&gt;
-&lt;li&gt;безупречное качество.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Шуруповерты можно заказать онлайн или посетить магазин. Клиенты выбирают его услуги благодаря быстрой доставке, хорошей поддержке, богатому ассортименту, помощи в выборе инструмента. Для удобства заказчиков имеется несколько способов оплаты.&lt;/p&gt;
-&lt;p&gt;При выборе подходящего шуруповерта руководствуются его техническими характеристиками. Учитывают тип двигателя инструмента, емкость аккумулятора (если он имеется), частоту вращения шпинделя. Кроме того, во внимание следует принимать вес и габариты шуруповерта, число скоростей, наличие подсветки, возможность блокировки шпинделя, присутствие тормоза двигателя. Эти и другие характеристики имеются в карточках описания товаров и в документации, которая прилагается к шуруповертам. Представители магазина "Бренд-инструмент" помогут выбрать подходящие товары, руководствуясь пожеланиями и финансовыми возможностями клиента. В ассортименте есть как новые, так и бывшие в использовании шуруповерты.&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Купить шуруповерты по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Шуруповерты (б/у и новый) - выбирайте шуруповерты б/у или новые модели из нашего каталога. Все инструменты проходят проверку на работоспособность и готовы к использованию.</t>
-  </si>
-  <si>
-    <t>Мультитулы,реноваторы (граверы)</t>
-  </si>
-  <si>
-    <t>2017-09-12 12:19:16</t>
-  </si>
-  <si>
-    <t>2023-11-09 23:28:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;strong style="color: rgb(0, 0, 0); font-family: Arial;"&gt;Многофункциональные инструменты&lt;/strong&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial;"&gt;&amp;nbsp;(по другому - реноваторы) от всех прочих отличает большое количество производимых операций и разнообразие материалов, с которыми они могут работать. Они нужны при выполнении различных слесарных и столярных работ, как в домашних условиях, так и в мастерской или в цеху. Каждый&amp;nbsp; многофункциональный инструмент отличает продолжительный срок службы и устойчивость к износу.&lt;/span&gt;&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px;"&gt;
-	Разновидности реноваторов&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; font-family: Arial;"&gt;
-	Одним из самых востребованных является&amp;nbsp;&lt;strong&gt;универсальный резак&lt;/strong&gt;. Это высокопроизводительное (до 21000 кол/мин) устройство, которое может работать либо от&amp;nbsp; аккумуляторных батарей, либо от сети переменного тока. Аккумуляторные универсальные резаки часто дополнительно комплектуются двумя батареями с большой емкостью. Благодаря насадкам и аксессуарам резаки универсальные используются для шлифовки, распила, и, конечно же, для резки материалов разной толщины.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; font-family: Arial;"&gt;
-	&lt;strong&gt;Универсальные стамески&lt;/strong&gt;, помимо своего основного назначения, могут заменять шлифовальные машинки, пилы&amp;nbsp;и резаки, благодаря вибрации, распространяющейся под углом 1,4° или 2,8°, а не механическим колебаниям. Электронная регулировка числа оборотов (5000-21000 кол/мин) позволяет стамескам работать с материалами разной твердости.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; font-family: Arial;"&gt;
-	&lt;strong&gt;Набор многофункционального инструмента&lt;/strong&gt;, благодаря различным насадкам, применяется при шлифовании, полировании, обрезке болтов&amp;nbsp;и винтов, удалении ржавчины, лакокрасочных покрытий, распиливания и многих других операциях. Он позволяет работать с деревом, металлом, стекловолокном и пластмассой. Частота колебаний (5000-35000 кол/мин) просто регулируется для разных материалов. В комплектацию набора многофункционального инструмента входят непосредственно насадки (до 45 шт.) и дополнительные аксессуары (цанги, шлифовальные круги, фрезерные циркули, сверла и пр.).&lt;br /&gt;
-	&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/instrument/mnogofunktsionalnyj/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=Instrymenti_Msk_8_A%2fB&amp;amp;utm_content=3322691473&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:2|DT:desktop|RI:213|CI:23258227|GI:2207326131|PI:8058762014|AI:3322691473|RT:|KW:%D0%BC%D0%BD%D0%BE%D0%B3%D0%BE%D1%84%D1%83%D0%BD%D0%BA%D1%86%D0%B8%D0%BE%D0%BD%D0%B0%D0%BB%D1%8C%D0%BD%D1%8B%D0%B5%20%D0%B8%D0%BD%D1%81%D1%82%D1%80%D1%83%D0%BC%D0%B5%D0%BD%D1%82%D1%8B|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить мультитулы,реноваторы (граверы) в Москве</t>
-  </si>
-  <si>
-    <t>Мультитулы (реноваторы): универсальные решения для любых задач. Откройте новые возможности с мультитулами от Бренд-Инструмент!</t>
-  </si>
-  <si>
-    <t>Пилы аллигаторные</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/ada9e894bce8fd17da638a877ce81a30.jpeg</t>
-  </si>
-  <si>
-    <t>2017-10-13 19:08:41</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:38:07</t>
-  </si>
-  <si>
-    <t>Купить пилы аллигаторные по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Пилы аллигаторные: В ассортименте нашего магазина представлены пилы аллигаторные от надежных производителей. Обеспечьте быстрое и качественное выполнение работ!</t>
-  </si>
-  <si>
-    <t>Пирометры</t>
-  </si>
-  <si>
-    <t>2017-10-15 18:14:17</t>
-  </si>
-  <si>
-    <t>2021-09-11 13:14:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;div&gt;
-	Назначение&lt;/div&gt;
-&lt;div&gt;
-	Пирометры применяют для дистанционного определения температуры объектов в промышленности, быту, сфере ЖКХ, на предприятиях, где большое значение приобретает контроль температур на различных технологических этапах производства (сталелитейная промышленность, нефтеперерабатывающая отрасль). Пирометры могут выступать в роли средства безопасного дистанционного измерения температур раскаленных объектов, что делает их незаменимыми для обеспечения должного контроля в случаях, когда физическое взаимодействие с контролируемым объектом невозможно из-за высоких температур. Их можно применять в качестве теплолокаторов (усовершенствованные модели), для определения областей критических температур в различных производственных сферах.&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	История&lt;/div&gt;
-&lt;div&gt;
-	Один из первых пирометров изобрёл Питер ван Мушенбрук. Изначально термин использовался применительно к приборам, предназначенным для измерения температуры визуально, по яркости и цвету сильно нагретого (раскалённого) объекта. В настоящее время смысл несколько расширен, в частности, некоторые типы пирометров (такие приборы правильнее называть инфракрасные радиометры) измеряют достаточно низкие температуры (0°C и даже ниже).&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Развитие современной пирометрии и портативных пирометров началось с середины 60-х годов прошлого столетия и продолжается до сих пор. Именно в это время были сделаны важнейшие физические открытия, позволившие начать производство промышленных пирометров с высокими потребительскими характеристиками и малыми габаритными размерами. Первый портативный пирометр был разработан и произведен американской компанией Wahl в 1967 году. Новый принцип построения сравнительных параллелей, когда вывод о температуре тела производился на основе данных инфракрасного приемника, определяющего количество излучаемой телом тепловой энергии, позволил существенно расширить границы измерения температур твердых и жидких тел.&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Классификация пирометров&lt;/div&gt;
-&lt;div&gt;
-	Пирометры можно разделить по нескольким основным признакам:&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Оптические. Позволяют визуально определять, как правило, без использования специальных устройств, температуру нагретого тела, путём сравнения его цвета с цветом эталонной нити.&lt;/div&gt;
-&lt;div&gt;
-	Радиационные. Оценивают температуру посредством пересчитанного показателя мощности теплового излучения. Если пирометр измеряет в широкой полосе спектрального излучения, то такой пирометр называют пирометром полного излучения.&lt;/div&gt;
-&lt;div&gt;
-	Цветовые (другие названия: мультиспектральные, спектрального отношения) — позволяют делать вывод о температуре объекта, основываясь на результатах сравнения его теплового излучения в различных спектрах.&lt;/div&gt;
-&lt;div&gt;
-	Температурный диапазон&lt;/div&gt;
-&lt;div&gt;
-	Низкотемпературные. Обладают способностью показывать температуры объектов, обладающих даже отрицательными значениями этого параметра.&lt;/div&gt;
-&lt;div&gt;
-	Высокотемпературные. Оценивают лишь температуру сильно нагретых тел, когда определение «на глаз» не представляется возможным. Обычно имеют сильное смещение в пользу «верхнего» предела измерения.&lt;/div&gt;
-&lt;div&gt;
-	Исполнение&lt;/div&gt;
-&lt;div&gt;
-	Переносные. Удобны в эксплуатации в условиях, когда необходима высокая точность измерений, в совокупности с хорошими подвижными свойствами, например для оценки температуры труднодоступных участков трубопроводов. Обычно снабжены небольшим дисплеем, отображающим графическую или текстово-цифровую информацию.&lt;/div&gt;
-&lt;div&gt;
-	Стационарные. Предназначены для более точной оценки температуры объектов. Используются в основном в крупной промышленности, для непрерывного контроля технологического процесса производства расплавов металлов и пластиков.&lt;/div&gt;
-&lt;div&gt;
-	Визуализация величин&lt;/div&gt;
-&lt;div&gt;
-	Текстово-цифровой метод. Измеряемая температура выражается в градусах на цифровом дисплее. Попутно можно видеть дополнительную информацию.&lt;/div&gt;
-&lt;div&gt;
-	Графический метод. Позволяет видеть наблюдаемый объект в спектральном разложении областей низких, средних и высоких температур, выделенных различными цветами.&lt;/div&gt;
-&lt;div&gt;
-	Вне зависимости от классификации, пирометры могут снабжаться дополнительными источниками питания, а также средствами передачи информации и связи с компьютером или специализированными устройствами (обычно через шину RS-232).&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Основные источники погрешности пирометров&lt;/div&gt;
-&lt;div&gt;
-	Самыми важными характеристиками пирометра, определяющими точность измерения температуры, являются оптическое разрешение и настройка степени черноты объекта[1].&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Иногда оптическое разрешение называют показателем визирования. Этот показатель рассчитывается как отношение диаметра пятна (круга) на поверхности, излучение с которого регистрируется пирометром, к расстоянию до объекта. Чтобы правильно выбрать прибор, необходимо знать сферу его применения. Если необходимо проводить измерения температуры с небольшого расстояния, то лучше выбрать пирометр с небольшим разрешением, например, 4:1. Если температуру необходимо измерять с расстояния в несколько метров, то рекомендуется выбирать пирометр с большим разрешением, чтобы в поле зрения не попали посторонние предметы. У многих пирометров есть лазерный целеуказатель для точного наведения на объект.&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Коэффициент эмиссии ε (коэффициент излучения, степень черноты) - способность материала отражать падающее излучение. Данный показатель важен при измерении температуры поверхности с помощью инфракрасного термометра (пирометра). Этот показатель определяется как отношение энергии, излучаемой данной поверхностью при определенной температуре к энергии излучения абсолютно чёрного тела при той же температуре. Он может принимать значения от 0 до 1[2]. Применение неверного коэффициента эмиссии — один из основных источников возникновения погрешности измерений для всех пирометрических методов измерения температуры. На коэффициент излучения сильно влияет окисленность поверхности металлов. Так, если для стали окисленной коэффициент составляет примерно 0,85, то для полированной стали он снижается до 0,075.&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Применения&lt;/div&gt;
-&lt;div&gt;
-	Теплоэнергетика — для быстрого и точного контроля температуры на участках не доступных или мало доступных для другого вида измерения.&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Электроэнергетика — контроль и пожарная безопасность, эксплуатация объектов (железнодорожный транспорт — контроль температуры букс и ответственных узлов грузовых и пассажирских вагонов).&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Лабораторные исследования — при проведении исследований активных веществ в активных средах, а также в тех случаях, при которых контактный метод нарушает чистоту эксперимента (например, тело настолько мало что при измерении контактным методом потеряет существенную часть теплоты, или просто слишком хрупкое для такого типа измерения). Применяется в космонавтике (контроль, опыты)&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Строительство — пирометры применяют для определения теплопотерь в зданиях жилого и промышленного назначения, на теплотрассах, для эффективного нахождения прорывов теплоизоляционной оболочки.&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Бытовое применение — измерение температуры тела, пищи при приготовлении, и многое другое.&lt;/div&gt;
-&lt;div&gt;
-	&amp;nbsp;&lt;/div&gt;
-&lt;div&gt;
-	Отдельная большая область применения пиросенсоров - датчики движения в системах охраны зданий. Датчики реагируют на изменение инфракрасного излучения в помещении.&lt;/div&gt;
-</t>
-  </si>
-  <si>
-    <t>Пилы монтажные</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/95d22526422346cdf0e812fbb8852c1e.jpeg</t>
-  </si>
-  <si>
-    <t>2017-10-20 16:23:24</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:41:01</t>
-  </si>
-  <si>
-    <t>Пилы монтажные | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Пилы монтажные: В нашем магазине представлены пилы монтажные различных типов и размеров. Выберите подходящий инструмент для качественного выполнения монтажных работ!</t>
-  </si>
-  <si>
-    <t>Пилы ленточные</t>
-  </si>
-  <si>
-    <t>2017-10-21 15:40:13</t>
-  </si>
-  <si>
-    <t>2021-09-10 14:15:19</t>
-  </si>
-  <si>
-    <t>Пилы погружные</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/32f37b1a4980627ff8b4f55750ff1847.jpeg</t>
-  </si>
-  <si>
-    <t>2017-10-21 15:40:53</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:41:57</t>
-  </si>
-  <si>
-    <t>Купить пилы погружные по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Пилы погружные: отличный выбор погружных пил для точных пропилов. Профессиональные и бытовые модели от известных производителей.</t>
-  </si>
-  <si>
-    <t>Минипилы</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/pila_diskovaya_keys_worx_wx427_1415361_7.jpeg</t>
-  </si>
-  <si>
-    <t>2017-10-21 16:23:54</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:36:12</t>
-  </si>
-  <si>
-    <t>Купить минипилы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Минипилы - компактные и удобные в использовании пилы для резки различных материалов. Выберите минипилу из нашего каталога и получайте качественный результат.</t>
-  </si>
-  <si>
-    <t>Трубогибы,труборезы, струбцины, тиски</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/b61dcee3aa642dc5567a40c6aea3c3f3.jpeg</t>
-  </si>
-  <si>
-    <t>2017-10-22 17:44:50</t>
-  </si>
-  <si>
-    <t>2023-09-04 16:46:06</t>
-  </si>
-  <si>
-    <t>Купить трубогибы,труборезы, струбцины по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Трубогибы, труборезы, струбцины: надежные и прочные инструменты для работы с трубами и крепежными элементами. Высокое качество и доступные цены.</t>
-  </si>
-  <si>
-    <t>Трубогибы,труборезы, струбцины</t>
-  </si>
-  <si>
-    <t>Расходные материалы</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/7a54a4cd43384344f7dc90c5f11eb0c9_JDbbZe5.jpeg</t>
-  </si>
-  <si>
-    <t>2017-10-23 11:05:56</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:31:10</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;b&gt;Какие расходники
-необходимы для полноценной работы перфоратора&lt;o:p&gt;&lt;/o:p&gt;&lt;/b&gt;&lt;/h2&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;Выход из строя или отсутствие расходных материалов не позволяет инструменту
-выполнять свои функции.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;Для полноценной работы перфоратора необходимы:&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- буры, коронки, зубила;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; - удлинители для буров;&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; - клинья для коронок;&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; - сверла и фрезы;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- патроны и бойки;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- переходники и адаптеры для патронов;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; - хвостовики для патронов с резьбой;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- держатели трамбовочных пластин;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; - плоские долото и в виде пики;&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; - ограничители глубины;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- насадки для пылеудаления;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- основания боковых рукояток;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- пылесборники и фильтры;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; - ремонтные комплекты;&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; - резьбовые шпильки для установки насадок.&lt;/p&gt;&lt;ul type="disc"&gt;&lt;span style="font-size: 14px;"&gt;
-&lt;/span&gt;&lt;/ul&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;Часто заменяемый расходник для перфоратора – бур. Это насадка или рабочая
-часть изделия, которую закрепляют в патрон. Бур предназначен для проделывания
-отверстий в поверхностях из твердых строительных материалов, среди которых –
-камень, бетон, гранит, кирпич и другие. Бур оснащен хвостовиком для крепления в
-патрон. Дополнительными приспособлениями являются пылесборники, фильтры,
-насадки для пылеудаления. Режущая часть бура изготавливается из твердых
-сплавов. Поскольку такие насадки заточке не подлежат, то их заменяют новыми
-бурами. Не менее важным расходным элементом является адаптер, расширяющий
-технологические возможности перфоратора.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Где купить
-расходники для перфораторов&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;
-&lt;/p&gt;&lt;p&gt;Весь необходимый расходный материал для перфоратора вы сможете найти в нашем
-каталоге. Мы сотрудничаем напрямую с производителями, поэтому вы сможете
-подобрать все необходимое с учетом модели и особенностей инструмента. Заявки
-обрабатываются сразу после поступления, поэтому ваш заказ будет доставлен в
-ближайшее время любым удобным для вас способом (курьер, транспортная компания,
-самовывоз). Оплатить товар вы можете наличными или через безналичный расчет. По
-любым вопросам всегда можно обратиться к менеджерам, которые окажут вам
-квалифицированную помощь.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить расходные материалы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Расходные материалы - широкий ассортимент расходных материалов для инструментов различных производителей. Выбирайте из нашего каталога и получайте качественные товары по выгодным ценам.</t>
-  </si>
-  <si>
-    <t>Принадлежности</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/DK-32-WEKA.jpeg</t>
-  </si>
-  <si>
-    <t>2017-10-23 11:15:51</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:16:54</t>
-  </si>
-  <si>
-    <t>Купить принадлежности для алмазного бурения по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Принадлежности: В нашем магазине представлен широкий ассортимент принадлежностей для различных видов инструментов. Выбирайте качественные аксессуары для работы!</t>
-  </si>
-  <si>
-    <t>Вальцовки</t>
-  </si>
-  <si>
-    <t>2017-10-23 12:24:22</t>
-  </si>
-  <si>
-    <t>2021-08-30 10:04:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;br&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Вальцовки - купить в Москве по лучшим ценам | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Купить набор вальцовок в Москве по самым лучшим ценам с гарантией. ✔Большой выбор электроинструментов на нашем сайте ✔Доставка по Москве и области</t>
-  </si>
-  <si>
-    <t>Винтоверты</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/DCF850N-XJ.jpeg</t>
-  </si>
-  <si>
-    <t>2017-10-23 12:28:54</t>
-  </si>
-  <si>
-    <t>2023-07-24 22:59:32</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Винтоверты&lt;/h2&gt;
-&lt;p&gt;Винтоверты – это мощные и универсальные инструменты, которые используются во многих отраслях: от строительства до мелкого ремонта. Они обеспечивают быструю и точную работу с винтами и шурупами. Изделия могут быть разного размера и мощности. Можно купить винтоверты в Москве с доставкой и по отличной цене в нашем интернет-магазине.&lt;/p&gt;
-&lt;p&gt;Существуют пневматические, сетевые и аккумуляторные винтоверты, которые стали очень популярны в сфере автомеханики. Они отличаются типом источника питания, мощностью, скоростью вращения, уровнем шума и другими параметрами. Важной характеристикой является момент вращения, который определяет силу винтоверта. Другие ключевые параметры включают регулировку крутящего момента, функцию ударного сверления и наличие светового индикатора работы. Можно заказать инструменты в Москве по выгодным условиям в нашем каталоге с доставкой и гарантией.&lt;/p&gt;
-&lt;p&gt;Винтоверты широко используются в строительстве и ремонте для монтажа мебели, установки гипсокартонных стен, монтажа полов и кровель. Они также используются в автомобильной отрасли для сборки и ремонта автомобилей. В области производства и обработки древесины винтоверты помогают в работе с деревянными деталями и мебелью.&lt;/p&gt;
-&lt;p&gt;При выборе винтоверта следует учитывать его предполагаемое использование. Для профессионального использования предпочтительны мощные модели с высоким крутящим моментом и большой скоростью вращения. Для домашнего использования подойдут менее мощные, но более легкие и компактные модели. Важно также обратить внимание на уровень шума, время работы от аккумулятора и наличие дополнительных функций.&lt;/p&gt;
-&lt;p&gt;Винтоверты, отличная стоимость которых позволяет оснастить всю мастерскую, это незаменимый инструмент в любой мастерской. Понимание основных характеристик и применений винтовертов позволяет сделать правильный выбор при покупке и использовать инструмент максимально эффективно.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить винтоверты по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Винтоверты: В нашем магазине представлены винтоверты различных типов и мощности. Найдите подходящий инструмент для своих нужд и обеспечьте комфортную работу!</t>
-  </si>
-  <si>
-    <t>Дозаторы</t>
-  </si>
-  <si>
-    <t>2017-10-23 13:55:50</t>
-  </si>
-  <si>
-    <t>2023-07-24 23:03:19</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Дозаторы&lt;/h2&gt;
-&lt;p&gt;Дозаторы для клеев и герметиков играют ключевую роль в обеспечении точного и эффективного нанесения этих материалов. Их использование помогает контролировать количество применяемого материала, упрощает работу и улучшает конечный результат. Они помогают экономить составы. Современные дозаторы можно приобрести по выгодной цене в нашем каталоге.&lt;/p&gt;
-&lt;p&gt;Дозаторы позволяют равномерно и точно нанести клей или герметик, предотвращая излишнее использование материала и повышая эффективность работы. Они предлагают решение для широкого спектра задач, от бытовых до промышленных, включая сборку мебели, автомобильный ремонт и строительство зданий. Можно купить дозаторы в Москве сразу в нескольких экземплярах.&lt;/p&gt;
-&lt;p&gt;Вместимость дозатора определяет количество материала, которое он может вмещать. Выбор должен основываться на объеме работы: для крупных задач потребуется дозатор с большей вместимостью.&lt;/p&gt;
-&lt;p&gt;Материал конструкции влияет на прочность и долговечность дозатора. Металлические дозаторы обычно более прочные, но пластиковые могут быть более легкими и экономичными. Их можно заказать по выгодным условиям в любом количестве.&lt;/p&gt;
-&lt;p&gt;Системы дозирования могут быть механическими или пневматическими. Механические системы обычно более просты и дешевы, в то время как пневматические могут обеспечивать более точное и равномерное нанесение материала.&lt;/p&gt;
-&lt;p&gt;Не все дозаторы совместимы со всеми видами клеев и герметиков. При выборе дозатора важно убедиться, что он подходит для используемого материала. А отличная цена на такие изделия позволяет заказать несколько моделей на каждый тип клея.&lt;/p&gt;
-&lt;p&gt;Дозаторы для клеев и герметиков являются важным инструментом, обеспечивающим точное и эффективное нанесение этих материалов. Учитывая вместимость, материал конструкции, систему дозирования и совместимость с материалами, можно выбрать наиболее подходящий дозатор для конкретных задач.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить дозаторы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Дозаторы: широкий ассортимент дозаторов для клея, герметика и других материалов. Выбирайте лучшие модели по доступным ценам.</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/51056978.jpeg</t>
-  </si>
-  <si>
-    <t>2017-10-23 14:05:20</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:42:54</t>
-  </si>
-  <si>
-    <t>Купить принадлежности для пил по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Принадлежности для пил - широкий выбор принадлежностей для пил разных типов и производителей. У нас вы найдете все необходимое для эффективной работы с пилами.</t>
-  </si>
-  <si>
-    <t>Камнерезные станки</t>
-  </si>
-  <si>
-    <t>2017-10-23 14:11:39</t>
-  </si>
-  <si>
-    <t>2020-07-25 19:00:13</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/rolikrezhushchdlyaplitkoreza220kh105kh20mmmtx0_5utr-86.jpeg</t>
-  </si>
-  <si>
-    <t>2017-10-23 14:50:05</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:47:27</t>
-  </si>
-  <si>
-    <t>Купить расходные материалы для плиткорезов по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Расходные материалы для плиткорезов: поддерживайте свои плиткорезы в отличном состоянии с нашими качественными расходными материалами. Экономия и надежность гарантированы!</t>
-  </si>
-  <si>
-    <t>Наборы ключей и инструментов</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/79ea28a36c57bc2bbaa9bb78d2a26ad8.jpeg</t>
-  </si>
-  <si>
-    <t>2017-10-23 14:54:21</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:56:30</t>
-  </si>
-  <si>
-    <t>Купить наборы ключей и инструментов по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Наборы ключей и инструментов - необходимые комплекты для ремонта и обслуживания автомобилей, мотоциклов и другой техники. У нас вы найдете наборы ключей и инструментов различных производителей.</t>
-  </si>
-  <si>
-    <t>Грузоподъемные устройства</t>
-  </si>
-  <si>
-    <t>2017-11-04 17:42:42</t>
-  </si>
-  <si>
-    <t>2023-07-24 23:02:30</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Грузоподъемные устройства&lt;/h2&gt;
-&lt;p&gt;Грузоподъемные устройства являются неотъемлемыми помощниками во многих отраслях промышленности и быту, облегчая перемещение и подъем различных грузов. Лебедки, домкраты и вакуумные присоски представляют собой основные типы такого оборудования. Они используются во всех предприятиях, где нужен безопасный подъем грузов. Покупать грузоподъемные устройства важно в надежных магазинах.&lt;/p&gt;
-&lt;p&gt;Лебедки используются для подъема или перемещения тяжелых грузов на расстояние. Они особенно актуальны в строительстве, логистике и автомобильной отрасли. При выборе лебедки важно учитывать ее грузоподъемность, тип привода (ручной, электрический или гидравлический) и длину троса. Можно купить грузоподъемные устройства в Москве с электрическим приводом.&lt;/p&gt;
-&lt;p&gt;Домкраты необходимы для поднятия тяжелых объектов, например, автомобилей при замене колес или проведении ремонтных работ. Выбор домкрата зависит от его грузоподъемности, высоты подъема и типа механизма (бутылочные, подкатные, стойки).&lt;/p&gt;
-&lt;p&gt;Вакуумные присоски используются для безопасного перемещения гладких и непористых предметов, таких как стекло, керамика или металл. Важными параметрами выбора являются диаметр присоски, грузоподъемность и материал изготовления. Чтобы правильно выбрать и купить в Москве такие изделия, важно посоветоваться с консультантом. Их цена может достигать несколько десятков тысяч.&lt;/p&gt;
-&lt;p&gt;Тельферы – это тип грузоподъемного оборудования, который применяется для поднятия, опускания и перемещения грузов в промышленности. Они могут быть как ручными, так и электрическими, а их грузоподъемность может достигать нескольких тонн. Можно заказать изделия по выгодным условиям в нашем каталоге.&lt;/p&gt;
-&lt;p&gt;Лебедки, домкраты и вакуумные присоски, отличная стоимость которых позволяет закупить все комплектом, это незаменимые грузоподъемные устройства, каждое из которых предназначено для решения своих специфических задач. Правильный выбор оборудования делается исходя из требуемой грузоподъемности, типа механизма и специфики предполагаемой работы, позволит обеспечить эффективность и безопасность проводимых работ.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить грузоподъемные устройства по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Грузоподъемные устройства: надежные и безопасные решения для перемещения и подъема грузов различной массы. Гарантия качества и надежности.</t>
-  </si>
-  <si>
-    <t>Пистолеты для вязки арматуры</t>
-  </si>
-  <si>
-    <t>catalog/slides/8166large-dtr180z.jpeg</t>
-  </si>
-  <si>
-    <t>2017-11-14 18:43:49</t>
-  </si>
-  <si>
-    <t>2023-11-11 21:53:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	Преимущества и недостатки вязки арматуры проволокой&lt;/p&gt;
-&lt;p&gt;
-	Преимущества:&lt;/p&gt;
-&lt;p&gt;
-	скорость работы — вязать арматуру проволокой просто и быстро, но при ручном способе вязке арматуры процесс становится весьма трудоемким;&lt;/p&gt;
-&lt;p&gt;
-	легко устранить недочеты — каркас для фундамента не должен быть идеально ровным, но все же небольшое отклонение или поломка при сварочном соединение и придется прибегнуть к дополнительным операциям, например к использованию болгарки для снятия треснувшей сварки, а в случае вязки проволокой обломившуюся проволоку можно даже не снимать, намотав поверх ее новую;&lt;/p&gt;
-&lt;p&gt;
-	вязку можно производить прямо в опалубке;&lt;/p&gt;
-&lt;p&gt;
-	низкая стоимость в сравнение со сварочными работами;&lt;/p&gt;
-&lt;p&gt;
-	К основным недостаткам вязки арматуры проволокой относится шаткость получаемой конструкции.&lt;/p&gt;
-&lt;p&gt;
-	Собранная конструкция имеет хорошую прочность, но при перемещении, например, при погружении в опалубку прочность теряется, этот эффект особо ощутим на стеклопластиковой арматуре. Дело в том, что арматура прогибаясь изменяет силу натяжки в местах вязки, поэтому вся структура начинает гулять, а установка арматуры становится непростым делом.&lt;/p&gt;
-&lt;p&gt;
-	Инструмент для вязки арматуры&lt;/p&gt;
-&lt;p&gt;
-	Вязку арматуры проволокой можно производить по разной технике и с помощью разных инструментов.&lt;/p&gt;
-&lt;p&gt;
-	Инструменты и приспособления для вязки:&lt;/p&gt;
-&lt;p&gt;
-	крючок;&lt;/p&gt;
-&lt;p&gt;
-	подручные средств:&lt;/p&gt;
-&lt;p&gt;
-	самодельные крючки;&lt;/p&gt;
-&lt;p&gt;
-	шуруповерт с крючком;&lt;/p&gt;
-&lt;p&gt;
-	стальной пруток диаметром примерно 50 мм и длиной 250 мм;&lt;/p&gt;
-&lt;p&gt;
-	вязальный пистолет;&lt;/p&gt;
-&lt;p&gt;
-	плоскогубцы или пассатижи.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить пистолеты для вязки арматуры в Москве</t>
-  </si>
-  <si>
-    <t>Кромкорезы</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/6e687e610704fca187d210d16e440ec4.jpeg</t>
-  </si>
-  <si>
-    <t>2017-11-20 17:18:21</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:33:21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	Фаскосниматель, кромкорез, кромкоскалывающая машина - все это - одно название машин, необходимых для подготовки поверхности металлической заготовки под сварку.&lt;/p&gt;
-&lt;p&gt;
-	Рассмотрим все по порядку. Что же такое сварка и почему для нее надо подготавливать поверхность?&lt;/p&gt;
-&lt;p&gt;
-	Сварка - это технологический процесс соединения твёрдых материалов в результате действия межатомных сил, которое происходит при местном сплавлении или совместном пластическом деформировании свариваемых частей.&lt;/p&gt;
-&lt;p&gt;
-	Сварку в основном используют при работе с&amp;nbsp; изделиями&amp;nbsp; из металла, но можно&amp;nbsp; применять и при работе с деталями&amp;nbsp; из неметаллических материалов, такими как стекло, керамика, пластмасса и др. Изменяя режимы сварки, можно наплавлять слои металла различной толщины и различного состава. На специальном оборудовании в определенных условиях можно осуществлять процессы, противоположные по своей сущности процессу соединения, например огневую, или термическую, резку металлов.&lt;/p&gt;
-&lt;p&gt;
-	Виды сварных соединений и швов:&lt;/p&gt;
-&lt;p&gt;
-	типа сварных соединений&lt;/p&gt;
-&lt;p&gt;
-	При сварке элементов строительных конструкций встык наиболее часто встречаются кромки (фаски) с V- и Х-образными симметричными разделками, а также кромки без разделки (рисунок&amp;nbsp; «без скоса кромок», значительно реже применяются чашеобразная (рисунок «с криволинейным скосом кромок»).&lt;/p&gt;
-&lt;p&gt;
-	Стыковые швы без разделки кромок имеют наименьший объем наплавленного металла и могут быть применены при ручной сварке для деталей толщиной до 6—8 мм, при полуавтоматической сварке в углекислом газе до 10 мм, а при автоматической сварке под флюсом — до 30 мм. При электрошлаковой сварке кромки деталей любой толщины не обрабатывают и варят при зазоре 20—30 мм.&lt;/p&gt;
-&lt;p&gt;
-	V-образную разделку кромок рекомендуется применять при ручной сварке деталей толщиной от 8 до 30 мм, при сварке деталей в среде углекислого газа толщиной 12—24 мм и при автоматической сварке под флюсом толщиной более 30 мм Х-образная разделка является двухсторонней.&lt;/p&gt;
-&lt;p&gt;
-	X-образная разделка применяется для стыков, которые в процессе сварки можно кантовать. При Х-образной разделке стыковые швы имеют меньший объем наплавленного металла, а обработка таких кромок требует больших затрат труда, чем при V-образной разделке.&lt;/p&gt;
-&lt;p&gt;
-	Для чего необходима обработка кромки заготовки(фаска)?&lt;/p&gt;
-&lt;p&gt;
-	В процессе сварки происходит проплавление металла, что в последствие обеспечивает соединение краев друг с другом. Если же толщина металла больше 3-5 мм, получение полного и качественного соединения становится затруднительным. Для получения качественного провара и проводится этот вид обработки: он позволяет создать так называемую сварочную ванну, которая заполняется сварочным составом в процессе сварки. Важно помнить, что подготовленная под сварку кромка — это кромка с фаской и притуплением&lt;/p&gt;
-&lt;p&gt;
-	Снятие фаски (разделка кромки) – это процесс тонкий и очень простой, если используется качественный инструмент (фаскосниматель, кромкоскалывающую машину).&lt;/p&gt;
-&lt;p&gt;
-	В нем предусматривается возможность настраивать нужную скорость, с которой будет вращаться головка. Установленные в нее пластины можно заменять, большой выбор предусматривает работу с самыми различными материалами. То есть вы самостоятельно и очень быстро настраиваете ваш фаскосниматель, решаете поставленную изначально задачу и экономите время.&lt;/p&gt;
-&lt;p&gt;
-	Виды машин для снятия фаски подразделяются по:&lt;/p&gt;
-&lt;p&gt;
-	способу работы: ручные фаскосниматели, фаскосниматели с автоматической подачей&lt;/p&gt;
-&lt;p&gt;
-	применению: фаскосниматели для труб, фаскосниматель для листовых заготовок&lt;/p&gt;
-&lt;p&gt;
-	принципу действия: фрезерные, кромкоскалывающие&lt;/p&gt;
-&lt;p&gt;
-	К фрезерным фаскоснимателям поставляемым нашей компанией относятся:&lt;/p&gt;
-&lt;p&gt;
-	Фаскосниматели серии МФ&lt;/p&gt;
-&lt;p&gt;
-	Фаскосниматели серии СМФ&lt;/p&gt;
-&lt;p&gt;
-	Агрегат для снятия фаски AMBL 0307&lt;/p&gt;
-&lt;p&gt;
-	Агрегат для снятия фаски EKF300/450 или EKF452&lt;/p&gt;
-&lt;p&gt;
-	К кромкоскалывающим станкам относятся:&lt;/p&gt;
-&lt;p&gt;
-	Агрегаты серии СНР - кромкорез СНР-7, кромкорез СНР-12, мобильный кромкорежущий станок СНР-12G, большой кромкорежущий станок СНР-21G&lt;/p&gt;
-&lt;p&gt;
-	Фаскосниматель (кромкорез, кромкофрезерный станок), позволяет достаточно быстро и просто снять необходимый слой с кромки, за один проход он обрабатывает срез сразу по всей его ширине, подготовив поверхность самым наилучшим образом для наложения качественного и прочного шва. Для этого не нужно прилагать усилий. Небольшие размеры предлагаемых нами фаскоснимателей станков дают возможность перемещать их на объекте работы в любом направлении, а также пользоваться ими в ограниченных пространствах.&lt;/p&gt;
-&lt;p&gt;
-	Фаскосниматели серии МФ отлично зарекомендовали себя как в работе на промышленных объектах, так и при прокладке трубопроводов и их ремонте, за счет возможности использования специального трубного крепления, позволяющего быстро и эффективно снимать фаску на трубе&lt;/p&gt;
-&lt;p&gt;
-	Станок для снятия фасок – помощник, экономящий ваше время&lt;/p&gt;
-&lt;p&gt;
-	Самое главное, что после того, как фаскосниматель обработал поверхность, она станет идеально ровной, гладкой, соответственно подготавливать ее дополнительно не требуется, и можно накладывать сварные швы.&lt;/p&gt;
-&lt;p&gt;
-	Те агрегаты, которые предлагает наша компания, можно с легкостью использовать как при работе непосредственно в цеху, так и на открытых объектах. Их надежность и качество – это обязательное условие нашей работы.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить кромкорезы в Москве по выгодным ценам | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Кромкорезы: качественные кромкорезы для аккуратной обработки кромок. Профессиональные и бытовые модели в наличии.</t>
-  </si>
-  <si>
-    <t>Пресс-клещи механические</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/spk-10-press-kleshchi-dlya-mednykh-nakonechnikov-i-gilz-0-5-10-mm-kv-stayer-professional-art-45440.jpeg</t>
-  </si>
-  <si>
-    <t>2017-11-22 08:55:49</t>
-  </si>
-  <si>
-    <t>2023-11-09 23:34:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Пресс-клещи механические&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;Одним из видов профессиональных инструментов являются ручные пресс-клещи, или&amp;nbsp;&lt;/span&gt;&lt;strong style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;кримперы&lt;/strong&gt;&lt;span style="color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;. Они предназначены для работ по обжимке кабелей и проводов.&lt;/span&gt;&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Виды пресс-клещей&lt;/h3&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;strong&gt;Ручной обжимник&lt;/strong&gt;&amp;nbsp;используется для опрессовки неизолированных наконечников кабеля, контактных разъемов, клейм и контактных гильз разного размера. Если у ручного обжимника есть специальные лезвия (обычно они располагаются в месте крепления ручек), то этот инструмент можно применять еще и для разрезания кабелей и проводов.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;strong&gt;Электропассатижи&lt;/strong&gt;&amp;nbsp;– это многофункциональный инструмент для профессионального использования. Им можно выполнить практически любые работы с проводами. В основном электропассатижи применяется для резки и снятия изоляции с проводов, но также ими можно обжимать неизолированные и изолированные наконечники &amp;nbsp;кабелей.&lt;/p&gt;
-&lt;p style="margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;strong&gt;Кримпер&lt;/strong&gt;&amp;nbsp;– это инструмент для обжима наконечников проводов, для обжима витой пары, коннекторов. Он имеет две длинные рукоятки (подвижной может быть одна или обе) и массивную рабочую часть в виде металлических губок, в которых предусмотрены отверстия для кабелей. При сведении рукоятей смыкаются губки, и методом силового вдавливания осуществляется обжим кабельного наконечника. У некоторых моделей на рабочей части есть лезвие, что упрощает работы – для отрезания кабеля не требуется дополнительного инструмента.&lt;/p&gt;
-&lt;h3 style="font-family: arial; font-size: 14px; margin: 0px; color: rgb(0, 0, 0);"&gt;
-	Как выбрать пресс-клещи?&lt;/h3&gt;
-&lt;ul style="padding-left: 15px; margin-top: 5px; margin-bottom: 5px; color: rgb(0, 0, 0); font-family: Arial; font-size: 12px;"&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Диапазон опрессовки&lt;/strong&gt;. Эта характеристика показывает максимальные и минимальные сечения кабелей, которые ручные пресс-клещи способны опрессовать. Если предстоит работать с кабелями небольших сечений, то стоит выбрать пресс-клещи с диапазоном от 0,5 до 6 мм2, а для толстых кабелей нужно приобретать инструмент с диапазоном 10 - 25 мм2.&lt;/li&gt;
-	&lt;li style="margin-bottom: 5px;"&gt;
-		&lt;strong&gt;Изоляция ручек&lt;/strong&gt;. Обычно ручки пресс-клещей изготавливаются из пластика, но у некоторых моделей кримперов есть специальные прорезиненные вставки. Резина не проводит электрический ток, поэтому если кабель, с которым&amp;nbsp; работают ручными пресс-клещами, окажется под напряжением, человеку не будет грозить опасность поражения током.&lt;br /&gt;
-		&lt;span id="hidden-copy" style="transform: scale(0, 0); display: inline-block; vertical-align: top; width: 0px; height: 0px; clip: rect(0px 0px 0px 0px);"&gt;Данная информация скопирована со страницы: http://www.vseinstrumenti.ru/ruchnoy_instrument/elektromontazhnyj/ruchnye_press-kleschi/?utm_source=yandex&amp;amp;utm_medium=cpc&amp;amp;utm_campaign=vch_ruchnoj_instrument_msk_a_b&amp;amp;utm_content=4963653090&amp;amp;utm_term=ST:search|S:none|AP:no|PT:premium|P:3|DT:desktop|RI:213|CI:31024587|GI:3013237315|PI:11424329744|AI:4963653090|RT:|KW:%D0%9F%D1%80%D0%B5%D1%81%D1%81-%D0%BA%D0%BB%D0%B5%D1%89%D0%B8|RN:%d0%9c%d0%be%d1%81%d0%ba%d0%b2%d0%b0&amp;amp;yclid=6937198468612756364&lt;/span&gt;&lt;/li&gt;
-&lt;/ul&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить Пресс-клещи механические в Москве</t>
-  </si>
-  <si>
-    <t>Новости</t>
-  </si>
-  <si>
-    <t>2017-12-16 13:01:10</t>
-  </si>
-  <si>
-    <t>2019-06-18 10:31:44</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>Расходные материалы и оснастка</t>
-  </si>
-  <si>
-    <t>2018-01-13 09:23:21</t>
-  </si>
-  <si>
-    <t>2023-07-04 16:12:57</t>
-  </si>
-  <si>
-    <t>Купить расходные материалы и оснастка по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Расходные материалы и оснастка - широкий ассортимент расходных материалов и оснастки для инструментов различных производителей. Выбирайте из нашего каталога и получайте качественные товары по выгодным ценам.</t>
-  </si>
-  <si>
-    <t>Пневмоинструменты</t>
-  </si>
-  <si>
-    <t>2018-01-16 18:49:44</t>
-  </si>
-  <si>
-    <t>2023-06-22 18:28:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	Пневмоинструменты работают на сжатом воздухе. Поток подается по резиновому шлангу, который присоединяют к штуцеру инструмента. Принцип работы тот же, что и с электрическими моделями.&lt;/p&gt;
-&lt;p&gt;
-	Как это функционирует&lt;/p&gt;
-&lt;p&gt;
-	От пользователя не требуются специальные навыки. В некоторых случаях работать пневмоинструментами легче. При высокой мощности они мало весят (сказывается отсутствие электродвигателя). Их компактность ценится при использовании в труднодоступных местах.&lt;/p&gt;
-&lt;p&gt;
-	В основе конструкции — пневматический двигатель, в котором энергия сжатого воздуха преобразуется в механическую работу поршневой машины. От нее движение предается на редуктор, а затем на шпиндель.&lt;/p&gt;
-&lt;p&gt;
-	В большинстве случаев пневматические инструменты — профессиональные. Пневмоинструменты используются в автосервисах, на промышленных предприятиях, в столярных и слесарных мастерских. Так как они рассчитаны на интенсивную работу, их внутренние детали выполняют из высококачественной стали, с высокими требованиями к точности изготовления.&lt;/p&gt;
-&lt;p&gt;
-	Преимущества пневматических инструментов&lt;/p&gt;
-&lt;p&gt;
-	устойчивы к перегрузкам;&lt;/p&gt;
-&lt;p&gt;
-	нет опасности заклинивания;&lt;/p&gt;
-&lt;p&gt;
-	выше уровень по пожаро- и электробезопасности;&lt;/p&gt;
-&lt;p&gt;
-	могут использоваться в условиях повышенной влажности и запыленности;&lt;/p&gt;
-&lt;p&gt;
-	низкий вес техники — меньшая утомляемость работника;&lt;/p&gt;
-&lt;p&gt;
-	длительный период непрерывной работы.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить пневмоинструменты по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Пневмоинструменты: мощные и надежные пневмоинструменты для различных задач. Выбирайте лучшие модели по выгодным ценам.</t>
-  </si>
-  <si>
-    <t>Теодолиты</t>
-  </si>
-  <si>
-    <t>2018-01-27 11:04:44</t>
-  </si>
-  <si>
-    <t>2021-08-23 11:44:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p style="color: rgb(0, 0, 0); font-family: Arial;"&gt;
-	Незаменимым&amp;nbsp;&lt;a href="http://www.vseinstrumenti.ru/instrument/izmeritelnyj/" style="color: rgb(18, 128, 188);"&gt;измерительным инструментом&lt;/a&gt;&amp;nbsp;для строителя и геодезиста является&amp;nbsp;&lt;a href="http://www.vseinstrumenti.ru/instrument/izmeritelnyj/teodolity/" style="color: rgb(18, 128, 188);"&gt;теодолит&lt;/a&gt;. Его название происходит от греческого theomai - «смотрю, вижу» и dolichos – «длинный, далеко». Он нужен при работе с масштабными объектами: при составлении планов местности, монтаже воздушных линий электропередач для измерения необходимого угла между временными вехами (веха — прямая жердь для обозначения точки на местности), для измерения углов между стенами при конструировании фундамента. В настоящее время известны три наиболее востребованных вида теодолитов –&amp;nbsp;&lt;strong&gt;оптические&lt;/strong&gt;,&amp;nbsp;&lt;strong&gt;электронные&lt;/strong&gt;&amp;nbsp;и&amp;nbsp;&lt;strong&gt;лазерные&lt;/strong&gt;.&lt;/p&gt;
-&lt;p style="color: rgb(0, 0, 0); font-family: Arial;"&gt;
-	Первые электронные теодолиты появились в 70-е годы прошлого столетия и очень быстро завоевали популярность, потому что значительно упростили процесс замера. В них ведущая роль отведена микропроцессору, который обрабатывает всю информацию и помогает произвести настройки точнее. Более того, с ним не нужно иметь диплом специалиста, чтобы успешно пользоваться такой техникой – это отличительная особенность и один из несомненных плюсов электронных теодолитов.&lt;/p&gt;
-&lt;p style="color: rgb(0, 0, 0); font-family: Arial;"&gt;
-	Но не будет лишним уточнить, что профессиональные строители и геодезисты часто отдают предпочтение оптическим теодолитам. И для этого есть причины: такие приборы исправно работают при любых погодных условиях, при грамотной настройке они выдают максимально точные результаты измерений, даже при очень низких или высоких температурах.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Теодолиты ☛ Купить теодолит в Москве по низким ценам | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Купить теодолиты в интернет-магазине БРЕНД-Инструмент по доступным ценам ☛ оформить доставку и самовывоз ☛ получить профессиональную консультацию.</t>
-  </si>
-  <si>
-    <t>Снегоуборочные машины</t>
-  </si>
-  <si>
-    <t>2018-02-05 14:30:48</t>
-  </si>
-  <si>
-    <t>2021-08-23 12:00:51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	Современная снегоуборочная техника предназначена для расчистки дорожек и подъездных путей у дома, придомовых территорий, тропинок на даче или в парке, зоны на автостоянке, около магазина.&lt;/p&gt;
-&lt;p&gt;
-	&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;
-	&lt;span style="font-size:14px;"&gt;&lt;strong&gt;Снегоуборочная техника для дачи и дома&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
-&lt;p&gt;
-	Принцип работы прост: снег собирается ковшом и вращающимся шнеком. Поток воздуха от крыльчатки выталкивает его через выбрасыватель и откидывает на расстояние до 18 м. Такие снегоуборочные машины перемещаются на колесах или гусеницах, управление - при помощи рукояток. Применять значительные физические усилия при этом не требуется.&lt;/p&gt;
-&lt;p&gt;
-	&amp;nbsp;&lt;/p&gt;
-&lt;p&gt;
-	Виды и особенности снегоуборщиков&lt;/p&gt;
-&lt;p&gt;
-	1. По конструкции:&lt;/p&gt;
-&lt;p&gt;
-	Шнековые одноступенчатые — отсутствует крыльчатка, выброс до 5 м. Шнек гладкий. Рекомендуются для уборки свежевыпавшего снега. Имеют небольшие габариты, вес и стоимость,&lt;/p&gt;
-&lt;p&gt;
-	Шнеково-роторные двухступенчатые снегоуборщики — бензиновые, с зубчатыми шнеками и крыльчаткой, мощность от 5 л. с., расчищают свежий и слежавшийся снег.&lt;/p&gt;
-&lt;p&gt;
-	2. По типу двигателя:&lt;/p&gt;
-&lt;p&gt;
-	Электрический — подойдёт для ежедневной уборки рядом с домом или магазином.&lt;/p&gt;
-&lt;p&gt;
-	Бензиновый — дачный, для территорий вокруг домов, коттеджей. Имеет ручной или электрический стартер.&lt;/p&gt;
-&lt;p&gt;
-	3. По наличию привода на колеса&lt;/p&gt;
-&lt;p&gt;
-	Несамоходные снегоуборочные машины перемещаются за счет усилий пользователя. Для дорожек с ровной поверхностью.&lt;/p&gt;
-&lt;p&gt;
-	Самоходные — пользователь только направляет снегоуборщик.&lt;/p&gt;
-&lt;p&gt;
-	Что значат характеристики?&lt;/p&gt;
-&lt;p&gt;
-	Мощность: до 5 л. с. - расчистка дорожек, 5-8 л. с. - снегоуборочная техника для дома (уборка подъездных путей), более 8 л. с. - обслуживание поселка.&lt;/p&gt;
-&lt;p&gt;
-	Рабочая ширина: это размер ковша. Чем он больше, тем быстрее убирается снег. Учитывайте возможности маневрирования.&lt;/p&gt;
-&lt;p&gt;
-	Рабочая высота: толщина снежного покрова, с которой справится снегоуборочная машина.&lt;/p&gt;
-&lt;p&gt;
-	Вес: оценивается, если снегоуборочная техника для дачи потребует частой перевозки.&lt;/p&gt;
-&lt;p&gt;
-	&amp;nbsp;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Снегоуборочные машины для дачи и дома ☛купить в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Снегоуборочные машины для дачи и дома ➤ купить в интернет-магазине БРЕНД-Инструмент ➤ Самовывоз и доставка по Москве и России</t>
-  </si>
-  <si>
-    <t>Щеточная шлифмашина</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/wetochnaya_shlifoval_naya_mashinka_wortex_ws_1014_s.jpeg</t>
-  </si>
-  <si>
-    <t>2018-02-06 10:45:33</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:52:52</t>
-  </si>
-  <si>
-    <t>Купить щеточные шлифмашины по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Щеточные шлифмашины: обработка поверхностей станет проще с нашим выбором б/у и новых щеточных шлифмашины от лучших производителей.</t>
-  </si>
-  <si>
-    <t>Кусторезы</t>
-  </si>
-  <si>
-    <t>2018-02-10 18:05:16</t>
-  </si>
-  <si>
-    <t>2022-09-28 16:09:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	Кусторез (садовые ножницы) – устройство для обработки, придания формы кустарникам и деревьям, аккуратного среза больных или поломанных ветвей, придания растениям ухоженного вида. Этот наиболее востребованный среди всех инструментов ландшафтной техники, также часто применяется для обработки газонов.&lt;/p&gt;
-&lt;p&gt;
-	В зависимости от способа управления выделяют&lt;/p&gt;
-&lt;p&gt;
-	Кусторез ручной: имеет малые габариты, невысокую мощность. К этому же виду относятся ручные электроножницы.&lt;/p&gt;
-&lt;p&gt;
-	Кусторез навесной: выпускается как дополнительное оборудование к мотоблокам и мотокультиваторам.&lt;/p&gt;
-&lt;p&gt;
-	По типу двигателя аппараты делятся на&lt;/p&gt;
-&lt;p&gt;
-	Топливные. Работают на бензине.&lt;/p&gt;
-&lt;p&gt;
-	Сетевые. Требуют наличия в непосредственной близости от места работы точки питания электросети или генератора.&lt;/p&gt;
-&lt;p&gt;
-	Аккумуляторные. Портативный класс кусторезов для мобильного использования там, где нет источника тока. Имеет лимитированное время работы в зависимости от емкости аккумулятора. Однако, он является альтернативой бензиновым и электрическим аппаратам – ему не нужен шнур питания и двигатель не создает много шума.&lt;/p&gt;
-&lt;p&gt;
-	Мощность двигателей ранжируется от 0,4 до 3 кВт. К аппаратам малой мощности относятся электрические и аккумуляторные модели. Кусторезы особо высокой мощности выпускает Husqvarna. Они имеют рекордные 1900 оборотов в минуту&lt;/p&gt;
-&lt;p&gt;
-	&amp;nbsp;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Фальцеосадочные машины</t>
-  </si>
-  <si>
-    <t>2018-04-06 19:18:59</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:31:36</t>
-  </si>
-  <si>
-    <t>Купить фальцеосадочные машины по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Фальцеосадочные машины - необходимые инструменты для производства кровельных и фасадных работ. У нас вы найдете фальцеосадочные машины различных производителей.</t>
-  </si>
-  <si>
-    <t>Болгарки (УШМ) регулятором оборотов</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/70240e69f4f423b65a3e915fe11ef452.jpeg</t>
-  </si>
-  <si>
-    <t>2018-05-28 12:54:45</t>
-  </si>
-  <si>
-    <t>2023-05-03 23:43:08</t>
-  </si>
-  <si>
-    <t>&lt;div class="category_bottom"&gt;
-&lt;h2&gt;Назначение и сфера использования&lt;/h2&gt;
-&lt;p&gt;Угловые шлифовальные машины используются в области строительства и ремонта. Удобные болгарки с регулятором оборотов применяют для резки, полировки, шлифовки. Регулировка скорости вращения дает возможность выбрать оптимальный режим для выполнения каждой из этих задач. В интернет-магазине Бренд-Инструмент можно купить болгарки с регулятором оборотов по привлекательной цене.&lt;/p&gt;
-&lt;h2&gt;Устройство УШМ&lt;/h2&gt;
-&lt;p&gt;Инструмент состоит из корпуса, в котором находится электрический или пневматический двигатель. Он передает вращение через редуктор к стержню, на который крепится рабочий диск. Защитный кожух предохраняет оператора от попадания искр, частиц металла. Его использование позволяет избежать травм в том случае, если диск разлетается во время работы на куски. Для включения и выключения инструмента имеется кнопка пуска. Обороты регулируются с помощью колеса, которое имеется на корпусе. Простая конструкция обеспечивает долговечность болгарок.&lt;/p&gt;
-&lt;h2&gt;Преимущественные особенности&lt;/h2&gt;
-&lt;p&gt;Поставляемые заказчикам угловые шлифовальные машинки с регулятором оборотов характеризуются следующими плюсами:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;высокая производительность;&lt;/li&gt;
-&lt;li&gt;соответствие стандартам качества и надежности;&lt;/li&gt;
-&lt;li&gt;привлекательная стоимость, обусловленная отсутствием посредников;&lt;/li&gt;
-&lt;li&gt;универсальность, так как регулировка оборотов позволяет эксплуатировать УШМ для резки металла, полировки древесины, шлифовки полимерных деталей и выполнения прочих задач;&lt;/li&gt;
-&lt;li&gt;плавный запуск вращения;&lt;/li&gt;
-&lt;li&gt;небольшой уровень шума;&lt;/li&gt;
-&lt;li&gt;удобство использования.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;При выборе подходящей болгарки рекомендуется учитывать ее мощность, диапазон вращения оборотов, размер дисков, на которые рассчитана УШМ.&lt;/p&gt;
-&lt;h2&gt;Плюсы заказа в интернет-магазине Бренд-Инструмент&lt;/h2&gt;
-&lt;p&gt;Клиенты пользуются предложением этого поставщика по ряду причин. В магазине можно заказать инструмент ведущих производителей (Hilti, Makita, Metabo, Bosch и др.). По Москве организована быстрая доставка с помощью курьеров при заказе товаров на сумму от 10 000 рублей. В регионы инструмент отправляют через транспортные компании. Сотрудники магазина оказывают покупателям хорошую поддержку. Они помогают выбрать инструменты, оперативно выполняют заказы. Обращайтесь к представителям интернет-магазина, чтобы получить больше информации и купить качественные болгарки с регулировкой оборотов по привлекательной цене!&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Купить болгарки (ушм) с регулятором оборотов по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Болгарки (УШМ) регулятором оборотов - выбирайте болгарки с регулятором оборотов для более точной работы. В нашем магазине вы найдете болгарки разных марок и мощностей.</t>
-  </si>
-  <si>
-    <t>Настольные пилы</t>
-  </si>
-  <si>
-    <t>2018-06-07 10:12:14</t>
-  </si>
-  <si>
-    <t>2021-09-10 14:11:54</t>
-  </si>
-  <si>
-    <t>Упаковщики</t>
-  </si>
-  <si>
-    <t>2018-08-07 12:57:48</t>
-  </si>
-  <si>
-    <t>2023-07-06 16:23:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	Упаковщики&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить упаковщики по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Упаковщики: В категории "Упаковщики" вы найдете разнообразие моделей упаковочного оборудования для эффективной и надежной упаковки товаров. Высокое качество, доступные цены и быстрая доставка по всей стране.</t>
-  </si>
-  <si>
-    <t>Сантехника</t>
-  </si>
-  <si>
-    <t>2018-08-26 11:14:54</t>
-  </si>
-  <si>
-    <t>2023-07-06 16:01:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;
-	&lt;span style="color: rgb(51, 51, 51); font-family: CalibriRegular, sans-serif; font-size: 14px; text-align: justify;"&gt;Сантехническое оборудование – это специальная группа механизмов и средств, которые так или иначе используются человеком для отопления, канализации, вентиляции, тепло-, газо- и водоснабжения жилища. Иными словами, сантехника обеспечивает соблюдение санитарно-гигиенических норм в помещении, а также создает дополнительные условия для комфортного проживания.&lt;/span&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Купить сантехнику по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Сантехника: все для ремонта и установки сантехники в одном месте. Качественные товары от проверенных производителей!</t>
-  </si>
-  <si>
-    <t>Комплекты инструментов</t>
-  </si>
-  <si>
-    <t>2018-10-26 20:20:04</t>
-  </si>
-  <si>
-    <t>2021-09-10 11:50:43</t>
-  </si>
-  <si>
-    <t>Купить комплекты разных инструментов в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Предлагаем купить комплекты разных инструментов для строительства ➣Большой выбор, быстрая доставка всех электроинструментов нашего каталога</t>
-  </si>
-  <si>
-    <t>Ножи и пневматические пистолеты</t>
-  </si>
-  <si>
-    <t>2018-12-02 09:46:52</t>
-  </si>
-  <si>
-    <t>2019-07-29 20:21:18</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Бетоносмесители</t>
-  </si>
-  <si>
-    <t>2019-05-23 13:00:52</t>
-  </si>
-  <si>
-    <t>2023-07-24 22:55:50</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Бетоносмесители&lt;/h2&gt;
-&lt;p&gt;Бетоносмесители являются основой любого строительного проекта, где используется бетон. Этот тип оборудования обеспечивает равномерное смешивание компонентов бетона, что критично для обеспечения прочности и долговечности бетонных конструкций. Понимание особенностей машин и критериев их выбора помогает обеспечить высокое качество выполненных работ. Качественные бетоносмесители можно купить в Москве по выгодной цене в нашем интернет-магазине.&lt;/p&gt;
-&lt;p&gt;Эти машины предназначены для перемешивания разных элементов, входящих в состав бетона. Внутри изделия находится вращающийся барабан, который обеспечивает равномерное смешивание ингредиентов. Агрегаты могут быть мобильными или стационарными, в зависимости от требований проекта. Можно купить бетоносмесители в Москве по выгодным условиям и цене для дачи или строительного объекта.&lt;/p&gt;
-&lt;p&gt;Выбор изделия зависит от ряда параметров. Важными факторами являются объем барабана, его мощность, тип питания (электрическое, дизельное или бензиновое) и вес. Для больших задач выбирают большие стационарные модели, тогда как для меньших проектов или работ на объектах с ограниченным доступом подойдут мобильные варианты. Что именно заказать – зависит от задач и предпочтений владельца.&lt;/p&gt;
-&lt;p&gt;Необходимо учитывать материал, из которого изготовлен барабан, поскольку это влияет на срок службы оборудования. Барабаны из высококачественной стали обычно более долговечны и легче чистятся. Приобрести оборудование по отличной стоимости можно с доставкой.&lt;/p&gt;
-&lt;p&gt;Бетоносмесители играют ключевую роль в процессе строительства, обеспечивая отличное перемешивание составов. Правильный выбор изделия позволяет обеспечить высокую производительность работы и продлить срок службы оборудования. Учет основных характеристик и спецификаций является основой для выбора эффективного и надежного бетоносмесителя.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить бетоносмесители по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Бетоносмесители б/у и новые: экономьте время и силы с нашими бетоносмесителями. Отличное качество по доступным ценам!</t>
-  </si>
-  <si>
-    <t>Двигатели</t>
-  </si>
-  <si>
-    <t>2019-06-06 13:39:00</t>
-  </si>
-  <si>
-    <t>2021-08-30 10:40:50</t>
-  </si>
-  <si>
-    <t>Двигатели для инструментов - купить в Москве недорого | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Купить двигатели электрические в Москве по доступным ценам ✔Предлагаем большой выбор электроинструментов ✔Фото, особенности и характеристики на нашем сайте</t>
-  </si>
-  <si>
-    <t>Телефоны</t>
-  </si>
-  <si>
-    <t>catalog/brendkontact/iconki/iconki_menu/smartphone.png</t>
-  </si>
-  <si>
-    <t>2019-01-31 15:47:40</t>
-  </si>
-  <si>
-    <t>2019-02-25 16:44:34</t>
-  </si>
-  <si>
-    <t>Телефоны - купить в интернет-магазине.</t>
-  </si>
-  <si>
-    <t>Телефоны - каталог, характеристики, отзывы, цены.</t>
-  </si>
-  <si>
-    <t>Телефоны, купить, продажа, выбор, цена, стоимость, описание, характеристики, отзывы, интернет магазин.</t>
-  </si>
-  <si>
-    <t>1:</t>
-  </si>
-  <si>
-    <t>Компьютерная техника</t>
-  </si>
-  <si>
-    <t>catalog/brendkontact/iconki/iconki_menu/pc-monitor.png</t>
-  </si>
-  <si>
-    <t>2019-01-31 15:50:42</t>
-  </si>
-  <si>
-    <t>2020-03-19 19:37:39</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Хотите &lt;strong&gt;купить компьютерную технику&lt;/strong&gt; по демократичной
-стоимости и не пожалеть в будущем о принятом решении? Тогда комиссионный
-интернет-магазин «Бренд-Контакт» – идеальный вариант! Здесь вы найдете широкий
-ассортимент профильной продукции хорошего качества по разумным ценам, с
-возможностью оперативной доставки прямо в точку назначения!&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Вся компьютерная
-техника в одном месте!&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Не секрет, что в век финансового кризиса многие обладают скромным кошельком
-и желают сэкономить на расходах. Но, несмотря на ограниченный бюджет,
-стремление улучшить компьютерный потенциал всегда присутствует. Тем более что современная
-техника постоянно обновляется, повышаются требования к оборудованию в офисе и
-дома, без которого работа, игры и общение в Интернете не представляется
-возможным. &lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Магазин «Бренд-Контакт» – самый простой, удобный и доступный способ
-осуществить мечту и обновить компьютер! Здесь вы можете &lt;strong&gt;купить любые
-компьютерные комплектующие&lt;/strong&gt;, начиная от системного блока, монитора и
-МФУ и заканчивая мышью и клавиатурой.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Каждая совершенная сделка абсолютно безопасна по сравнению, например, с
-приобретением аналогичного товара с рук. Ведь вся техника перед размещением в
-каталоге тщательно проверяется на работоспособность, отсутствие механических
-повреждений и т.п.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Преимущества
-сервиса&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Мы ежедневно трудимся над улучшением качества оказания услуг, учитываем
-пожелания каждого отдельного клиента и формируем каталог согласно актуальным
-требованиям компьютерного мира. Поэтому перечень продукции, что содержится на
-витрине сайта, регулярно обновляется и дополняется новыми наименованиями.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Бренд-Контакт – это лучший &lt;strong&gt;интернет-магазин техники и электроники&lt;/strong&gt;
-в Москве с позиции ценовой политики. Для постоянных покупателей мы предлагаем
-акции и скидки. А для тех, у кого возникают проблемы с использованием сервиса –
-бесплатные консультации грамотного и коммуникабельного менеджера!&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Перед заказом б/у компьютеров и периферии рекомендуем зарегистрироваться и
-создать Личный Кабинет, после чего вам станут доступны сразу несколько способов
-оплаты. Метод доставки приобретенного товара также напрямую зависит от
-предпочтений покупателя.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;
-&lt;/p&gt;&lt;p&gt;Желаем вам удачи!&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Компьютерная техника в магазине «Бренд-Контакт»</t>
-  </si>
-  <si>
-    <t>Системные блоки, мониторы, МФУ, клавиатуры, мыши и другая компьютерная техника б/у по доступным ценам с возможностью доставки по Москве. Большой выбор товара, бесплатные консультации менеджера, постоянным клиентам - скидки!</t>
-  </si>
-  <si>
-    <t>Компьютерная техника, купить, продажа, выбор, цена, стоимость, описание, характеристики, отзывы, интернет магазин.</t>
-  </si>
-  <si>
-    <t>Игры и приставки</t>
-  </si>
-  <si>
-    <t>catalog/brendkontact/193191.jpg</t>
-  </si>
-  <si>
-    <t>2019-01-31 20:14:56</t>
-  </si>
-  <si>
-    <t>2020-03-19 19:44:50</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Магазин настольных игр в Москве предлагает вам на пару часов стать
-спасителем всего человечества, создателем новой цивилизации или крутым
-миллионером, совершающим успешные сделки!&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;&lt;b&gt;Текст статьи: &lt;/b&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;&lt;strong&gt;Магазин настольных игр в Москве&lt;/strong&gt; предлагает вам на пару
-часов стать спасителем всего человечества, создателем новой цивилизации или
-крутым миллионером, совершающим успешные сделки! &lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;С игровыми приставками и различными настольными играми можно испытать
-нешуточные страсти и отлично провести время с друзьями. И для этого
-понадобиться совсем немного – просто &lt;strong&gt;купить игры и приставки&lt;/strong&gt; в
-нашем интернет магазине по доступным ценам с оперативной доставкой по городу. А
-если вы любите играть в нарды, в каталоге на сайте магазина вас ждет большой
-ассортимент наборов игровых нард. Это: &lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
- &lt;li class="MsoNormal"&gt;нарды Джокер ручной работы,&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;нарды резные ручной работы «Пират»&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;Нарды + шахматы и другие варианты. &lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;p&gt;Каждая настольная игра отличается уникальностью, создает свою атмосферу,
-темп и развитие непредсказуемых событий. Преимуществом настольных игр, включая
-нарды, является их способность объединять людей, развивать коммуникативные
-навыки, весело проводить время в кругу семьи, друзей, коллег. &lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Кроме этого, &lt;strong&gt;купить нарды в Москве&lt;/strong&gt; можно в качестве
-подарка. В нашем магазине можете приобрести популярную игру в оригинальном
-стильном оформлении. Широкий ассортимент позволяет выбрать нарды на любой вкус.
-&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Изготовленные из дерева, выполненные руками талантливых мастеров игровые
-элементы являются настоящим произведением искусства, и кроме азарта вызывают
-эстетическое наслаждение.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;
-&lt;/p&gt;&lt;p&gt;Купить понравившуюся игру вы можете в один клик в нашем интернет магазине.
-Вам не нужно ходить по городу в поисках нужного товара, просто зайдите на сайт,
-выберите в каталоге товар, оплатите покупку удобным способом, и уже совсем
-скоро игра будет у вас дома. А пока будет осуществляться доставка, вы можете
-сказать родственникам или позвонить друзьям, что их ждет интересная игра и
-отличное времяпровождение!&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Лучшие настольные игры в Москве в нашем магазине</t>
-  </si>
-  <si>
-    <t>Магазин настольных игр в Москве предлагает вам на пару часов стать спасителем всего человечества, создателем новой цивилизации или крутым миллионером, совершающим успешные сделки!</t>
-  </si>
-  <si>
-    <t>Игры и приставки, купить, продажа, выбор, цена, стоимость, описание, характеристики, отзывы, интернет магазин.</t>
-  </si>
-  <si>
-    <t>Сотовые телефоны</t>
-  </si>
-  <si>
-    <t>2019-01-31 20:35:10</t>
-  </si>
-  <si>
-    <t>Сотовые телефоны - купить в интернет-магазине.</t>
-  </si>
-  <si>
-    <t>Сотовые телефоны - каталог, характеристики, отзывы, цены.</t>
-  </si>
-  <si>
-    <t>Сотовые телефоны, купить, продажа, выбор, цена, стоимость, описание, характеристики, отзывы, интернет магазин.</t>
-  </si>
-  <si>
-    <t>Товары для дома</t>
-  </si>
-  <si>
-    <t>catalog/brendkontact/home-comfort.jpg</t>
-  </si>
-  <si>
-    <t>2019-01-31 20:43:26</t>
-  </si>
-  <si>
-    <t>2019-02-26 20:21:39</t>
-  </si>
-  <si>
-    <t>Товары для дома - купить в интернет-магазине.</t>
-  </si>
-  <si>
-    <t>Товары для дома - каталог, характеристики, отзывы, цены.</t>
-  </si>
-  <si>
-    <t>Товары для дома, купить, продажа, выбор, цена, стоимость, описание, характеристики, отзывы, интернет магазин.</t>
-  </si>
-  <si>
-    <t>Авто</t>
-  </si>
-  <si>
-    <t>catalog/brendkontact/avtomobil_kolesa_diski_shinyi_tsvet.jpg</t>
-  </si>
-  <si>
-    <t>2019-01-31 20:44:25</t>
-  </si>
-  <si>
-    <t>2023-06-17 17:54:50</t>
-  </si>
-  <si>
-    <t>Авто - купить в интернет-магазине.</t>
-  </si>
-  <si>
-    <t>Авто - каталог, характеристики, отзывы, цены.</t>
-  </si>
-  <si>
-    <t>Авто, купить, продажа, выбор, цена, стоимость, описание, характеристики, отзывы, интернет магазин.</t>
-  </si>
-  <si>
-    <t>Фото и видеотехника</t>
-  </si>
-  <si>
-    <t>catalog/brendkontact/u5vqd.jpg</t>
-  </si>
-  <si>
-    <t>2019-01-31 20:45:47</t>
-  </si>
-  <si>
-    <t>2019-02-26 20:02:35</t>
-  </si>
-  <si>
-    <t>Фото и видеотехника - купить в интернет-магазине.</t>
-  </si>
-  <si>
-    <t>Фото и видеотехника - каталог, характеристики, отзывы, цены.</t>
-  </si>
-  <si>
-    <t>Фото и видеотехника, купить, продажа, выбор, цена, стоимость, описание, характеристики, отзывы, интернет магазин.</t>
-  </si>
-  <si>
-    <t>Личные вещи</t>
-  </si>
-  <si>
-    <t>catalog/brendkontact/vyzhivanie-v-lesu-tajge-dikoj-prirode-last-day-club-7.jpg</t>
-  </si>
-  <si>
-    <t>2019-01-31 21:21:05</t>
-  </si>
-  <si>
-    <t>2019-02-26 20:10:32</t>
-  </si>
-  <si>
-    <t>Личные вещи - купить в интернет-магазине.</t>
-  </si>
-  <si>
-    <t>Личные вещи - каталог, характеристики, отзывы, цены.</t>
-  </si>
-  <si>
-    <t>Личные вещи, купить, продажа, выбор, цена, стоимость, описание, характеристики, отзывы, интернет магазин.</t>
-  </si>
-  <si>
-    <t>Хобби и отдых</t>
-  </si>
-  <si>
-    <t>catalog/brendkontact/podarki-dlya-hobbi-na-novyj-god-2019.jpg</t>
-  </si>
-  <si>
-    <t>2019-01-31 21:22:24</t>
-  </si>
-  <si>
-    <t>2019-02-26 20:24:27</t>
-  </si>
-  <si>
-    <t>Хобби и отдых - купить в интернет-магазине.</t>
-  </si>
-  <si>
-    <t>Хобби и отдых - каталог, характеристики, отзывы, цены.</t>
-  </si>
-  <si>
-    <t>Хобби и отдых, купить, продажа, выбор, цена, стоимость, описание, характеристики, отзывы, интернет магазин.</t>
-  </si>
-  <si>
-    <t>Аудиотехника</t>
-  </si>
-  <si>
-    <t>catalog/brendkontact/9a2ed0cff1873b8f87d62bdf2b6e29d8_1424252497_800_535.jpg</t>
-  </si>
-  <si>
-    <t>2019-01-31 21:24:21</t>
-  </si>
-  <si>
-    <t>2019-02-26 20:20:41</t>
-  </si>
-  <si>
-    <t>Аудиотехника - купить в интернет-магазине.</t>
-  </si>
-  <si>
-    <t>Аудиотехника - каталог, характеристики, отзывы, цены.</t>
-  </si>
-  <si>
-    <t>Аудиотехника, купить, продажа, выбор, цена, стоимость, описание, характеристики, отзывы, интернет магазин.</t>
-  </si>
-  <si>
-    <t>ТВ и Видео</t>
-  </si>
-  <si>
-    <t>catalog/brendkontact/telfot.png</t>
-  </si>
-  <si>
-    <t>2019-01-31 21:26:07</t>
-  </si>
-  <si>
-    <t>2019-02-26 20:04:06</t>
-  </si>
-  <si>
-    <t>ТВ и Видео - купить в интернет-магазине.</t>
-  </si>
-  <si>
-    <t>ТВ и Видео - каталог, характеристики, отзывы, цены.</t>
-  </si>
-  <si>
-    <t>ТВ и Видео, купить, продажа, выбор, цена, стоимость, описание, характеристики, отзывы, интернет магазин.</t>
-  </si>
-  <si>
-    <t>Товары для детей</t>
-  </si>
-  <si>
-    <t>catalog/brendkontact/s1200.jpg</t>
-  </si>
-  <si>
-    <t>2019-01-31 21:27:18</t>
-  </si>
-  <si>
-    <t>2019-02-26 20:23:42</t>
-  </si>
-  <si>
-    <t>Товары для детей - купить в интернет-магазине.</t>
-  </si>
-  <si>
-    <t>Товары для детей - каталог, характеристики, отзывы, цены.</t>
-  </si>
-  <si>
-    <t>Товары для детей, купить, продажа, выбор, цена, стоимость, описание, характеристики, отзывы, интернет магазин.</t>
-  </si>
-  <si>
-    <t>Мониторы</t>
-  </si>
-  <si>
-    <t>2019-02-25 23:26:50</t>
-  </si>
-  <si>
-    <t>2019-02-25 23:27:39</t>
-  </si>
-  <si>
-    <t>Часы</t>
-  </si>
-  <si>
-    <t>catalog/brendkontact/5059239587.jpg</t>
-  </si>
-  <si>
-    <t>2019-02-26 09:40:20</t>
-  </si>
-  <si>
-    <t>2019-02-26 19:56:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&amp;nbsp;Часы в Москве и области от мировых брендов стоят дорого. Особенно это касается элитных марок. Однако если желание берет верх, а средств пока нет, лучшее решение — купить наручные часы б/у.&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t> Часы в Москве и области от мировых брендов стоят дорого. Особенно это касается элитных марок. Однако если желание берет верх, а средств пока нет, лучшее решение — купить наручные часы б/у.</t>
-  </si>
-  <si>
-    <t>Телевизоры</t>
-  </si>
-  <si>
-    <t>2019-02-26 10:01:59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Телевизоры&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Видеокамера</t>
-  </si>
-  <si>
-    <t>2019-02-28 16:44:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Видеокамера&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Фотоаппараты</t>
-  </si>
-  <si>
-    <t>2019-02-28 16:47:54</t>
-  </si>
-  <si>
-    <t>2019-02-28 16:50:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Фотоаппараты&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Видео</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:03:23</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:04:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Видео&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Аксессуары для ТВ и видео</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:05:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Аксессуары для ТВ и видео&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Ноутбуки</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:12:39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Ноутбуки&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Системные блоки</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:13:16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Системные блоки&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Планшетные пк</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:15:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Планшетные пк&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Электронные книги</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:16:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Электронные книги&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Устройства ввода</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:17:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Устройства ввода&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Аксессуары для компьютеров</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:18:15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Аксессуары для компьютеров&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Принтеры и МФУ</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:19:04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Принтеры и МФУ&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Настольные игры</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:20:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Настольные игры&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Игровые приставки</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:23:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Игровые приставки&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Аксессуары для игровых приставок</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:24:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Аксессуары для игровых приставок&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Игры для приставок</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:25:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Игры для приставок&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Товары для кухни</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:26:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Товары для кухни&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Спортивный инвентарь</t>
-  </si>
-  <si>
-    <t>2019-03-04 13:29:37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Спортивный инвентарь&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>MP3 плееры</t>
-  </si>
-  <si>
-    <t>2019-03-04 21:32:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;MP3 плееры&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Домашние кинотеатры</t>
-  </si>
-  <si>
-    <t>2019-03-04 21:33:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Домашние кинотеатры&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Колонки</t>
-  </si>
-  <si>
-    <t>2019-03-04 21:34:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Колонки&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Музыкальные центры</t>
-  </si>
-  <si>
-    <t>2019-03-04 21:35:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Музыкальные центры&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Ресиверы</t>
-  </si>
-  <si>
-    <t>2019-03-04 21:36:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Ресиверы&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Усилители</t>
-  </si>
-  <si>
-    <t>2019-03-04 21:37:41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Усилители&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Проекторы</t>
-  </si>
-  <si>
-    <t>2019-03-04 21:39:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Проекторы&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Музыкальные инструменты</t>
-  </si>
-  <si>
-    <t>2019-03-04 21:41:44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Музыкальные инструменты&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Коллекционирование</t>
-  </si>
-  <si>
-    <t>2019-03-04 21:43:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Коллекционирование&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>Мультиварки</t>
-  </si>
-  <si>
-    <t>2019-03-04 22:01:31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h2&gt;Мультиварки&lt;/h2&gt;
-</t>
-  </si>
-  <si>
-    <t>2019-03-05 14:34:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;Пылесосы&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>Оргтехника</t>
-  </si>
-  <si>
-    <t>2019-03-14 19:44:03</t>
-  </si>
-  <si>
-    <t>2019-09-10 18:32:49</t>
-  </si>
-  <si>
-    <t>Объективы</t>
-  </si>
-  <si>
-    <t>2019-03-18 11:47:06</t>
-  </si>
-  <si>
-    <t>Бинокли</t>
-  </si>
-  <si>
-    <t>2019-03-18 14:13:27</t>
-  </si>
-  <si>
-    <t>2019-03-28 11:54:07</t>
-  </si>
-  <si>
-    <t>Холодильники</t>
-  </si>
-  <si>
-    <t>2019-03-19 13:21:00</t>
-  </si>
-  <si>
-    <t>2019-09-09 16:57:33</t>
-  </si>
-  <si>
-    <t>Туризм и рыбалка</t>
-  </si>
-  <si>
-    <t>2019-03-28 11:49:39</t>
-  </si>
-  <si>
-    <t>Инструменты</t>
-  </si>
-  <si>
-    <t>2019-04-11 17:54:12</t>
-  </si>
-  <si>
-    <t>2021-08-29 19:45:38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;div class="container"&gt;
-&lt;div class="row"&gt;
-&lt;div class="col-sm-3"&gt;&lt;a href="https://brendinstrument.ru/"&gt;&lt;img src="/catalog/view/theme/revolution/image/brend.png" /&gt;&lt;/a&gt;&lt;br /&gt;
-&lt;a href="https://www.avito.ru/brend" style="font-size: 14px; color: #0081e5;" target="_blank"&gt;&lt;span style="color:#000000;font-size: 16px;"&gt;&lt;strong&gt;&lt;span style=" display: inline-block; padding-top: 5px;"&gt;&lt;span style="background-color:#FFFFFF;"&gt;Наш магазин на&amp;nbsp;&amp;nbsp;&lt;/span&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/span&gt;&lt;span style="font-size:18px;"&gt;&lt;img height="20" src="https://www.avito.st/s/cc/resources/35f5a0d67b53.svg" style="
-    width: 140px;
-    height: 50px;
-" /&gt;&lt;/span&gt;&lt;/a&gt;&lt;/div&gt;
-&lt;div class="col-sm-9"&gt;
-&lt;h3&gt;&lt;strong&gt;&lt;span style="font-size:16px;"&gt;&lt;a class="end-but" href="https://brendinstrument.ru/" style="background-color: rgba(58, 74, 166, 0.28);"&gt;&lt;span style="color:#000000;"&gt;БРЕНД-Инструмент.РУ&lt;/span&gt;&lt;/a&gt;&lt;/span&gt;&lt;/strong&gt;&lt;/h3&gt;
-&amp;nbsp;
-&lt;p&gt;– это сервис по скупке и продаже строительного инструмента бывшего в употреблении. Если у Вас стройка, работа в цеху, или просто мелкий ремонт в доме или квартире, то ручной и электроинструмент будет для Вас главным помощником.&lt;/p&gt;
-&amp;nbsp;
-&lt;p&gt;В ассортименте нашего магазина представлены ведущие марки строительного оснащения, такие как: Makita, Hilti, Bosch из Германии, Италии и Японии и д.р.&lt;/p&gt;
-&amp;nbsp;
-&lt;p&gt;Доступные цены, склад в Москве, возможность консультаций – это главные преимущества нашего сервиса. Просто прикрутить саморез, просверлить отверстие или проштробить стену, теперь не будет для Вас большой проблемой. Не надо часами выбирать магазин для покупки инструмента – всё необходимое есть у нас.&lt;/p&gt;
-Вам ни к чему лишние затраты при ремонте, и строительстве, тогда Вы понимаете почему покупать бывший в упортеблении электроинструмент выгодно! Мы помогаем людям уменьшить свои затраты во время проведения стройки или ремонта!&lt;/div&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-</t>
-  </si>
-  <si>
-    <t>Красота и здрововье</t>
-  </si>
-  <si>
-    <t>2019-04-15 14:13:56</t>
-  </si>
-  <si>
-    <t>2019-04-15 14:14:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;p&gt;&lt;strong&gt;Красота и здрововье&lt;/strong&gt;&lt;/p&gt;
-</t>
-  </si>
-  <si>
-    <t>КНИГИ</t>
-  </si>
-  <si>
-    <t>2019-04-29 17:21:54</t>
-  </si>
-  <si>
-    <t>Оборудование для бизнеса</t>
-  </si>
-  <si>
-    <t>2019-05-16 19:44:46</t>
-  </si>
-  <si>
-    <t>2019-08-11 15:42:37</t>
-  </si>
-  <si>
-    <t>Пневматика</t>
-  </si>
-  <si>
-    <t>2019-07-20 18:36:40</t>
-  </si>
-  <si>
-    <t>2019-07-29 20:21:55</t>
-  </si>
-  <si>
-    <t>Навигатор</t>
-  </si>
-  <si>
-    <t>2019-08-06 10:43:41</t>
-  </si>
-  <si>
-    <t>2019-09-02 17:04:59</t>
-  </si>
-  <si>
-    <t>Слесарный инструмент</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/crkt-2746-freyr-04.png</t>
-  </si>
-  <si>
-    <t>2019-08-06 18:55:46</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:57:53</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Слесарный инструмент&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить слесарный инструмент по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Слесарный инструмент: все необходимое для работы слесаря в одном месте. Ключи, головки, отвертки и многое другое. Высокое качество и доступные цены.</t>
-  </si>
-  <si>
-    <t>Обувь, одежда, аксессуары</t>
-  </si>
-  <si>
-    <t>2019-08-11 13:26:56</t>
-  </si>
-  <si>
-    <t>Сантехника и сауна</t>
-  </si>
-  <si>
-    <t>2019-08-11 13:44:00</t>
-  </si>
-  <si>
-    <t>Стиральные машины</t>
-  </si>
-  <si>
-    <t>2019-08-11 13:44:10</t>
-  </si>
-  <si>
-    <t>2019-09-09 16:53:17</t>
-  </si>
-  <si>
-    <t>Климатическое оборудование</t>
-  </si>
-  <si>
-    <t>2019-08-11 17:36:50</t>
-  </si>
-  <si>
-    <t>Весы</t>
-  </si>
-  <si>
-    <t>2019-08-11 17:37:01</t>
-  </si>
-  <si>
-    <t>2019-09-09 17:01:21</t>
-  </si>
-  <si>
-    <t>Герметизатор</t>
-  </si>
-  <si>
-    <t>2019-08-15 14:32:05</t>
-  </si>
-  <si>
-    <t>2021-09-11 09:57:22</t>
-  </si>
-  <si>
-    <t>Уличный светильник</t>
-  </si>
-  <si>
-    <t>2019-08-16 16:14:59</t>
-  </si>
-  <si>
-    <t>Ножи</t>
-  </si>
-  <si>
-    <t>2019-08-25 14:46:09</t>
-  </si>
-  <si>
-    <t>Авто-Мото</t>
-  </si>
-  <si>
-    <t>2019-09-02 17:15:36</t>
-  </si>
-  <si>
-    <t>Аксессуары</t>
-  </si>
-  <si>
-    <t>2019-09-02 17:17:38</t>
-  </si>
-  <si>
-    <t>Мечи, сабли, катаны</t>
-  </si>
-  <si>
-    <t>2019-09-10 15:51:20</t>
-  </si>
-  <si>
-    <t>Разное</t>
-  </si>
-  <si>
-    <t>2019-09-10 18:43:34</t>
-  </si>
-  <si>
-    <t>Сварочные аппараты</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/7d1760d9232328bfef0a699335ebad65.jpeg</t>
-  </si>
-  <si>
-    <t>2020-01-22 12:00:55</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:01:34</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Сварочные аппараты&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить сварочные аппараты по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Сварочные аппараты: качественное сварочное оборудование для профессионалов и любителей. Большой выбор моделей и производителей. Сваривайте с уверенностью!</t>
-  </si>
-  <si>
-    <t>Пилы цепные аккумуляторные</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/pila_tsepnaya_makita_duc302z_1291960_2.jpeg</t>
-  </si>
-  <si>
-    <t>2020-01-30 11:48:13</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:37:20</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Пилы цепные аккумуляторные&lt;/b&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить пилы цепные аккумуляторные по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Пилы цепные аккумуляторные - удобные и мощные инструменты для резки древесины и других материалов. В нашем интернет-магазине вы найдете широкий выбор пил цепных аккумуляторных различных производителей.</t>
-  </si>
-  <si>
-    <t>Перфораторы аккумуляторные</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/M12_H-0-1.jpeg</t>
-  </si>
-  <si>
-    <t>2020-02-01 09:55:19</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:30:15</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;strong&gt;Выбираем
-аккумуляторные перфораторы в «БРЕНД Инструмент»: что нужно учесть &lt;/strong&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Конструкция аккумуляторного перфоратора напоминает дрель. Основное отличие
-этих инструментов – у перфоратора рабочая часть не только высверливает
-отверстия, но и способна разрушать стены из твердых строительных материалов.
-Это обеспечивает ударный механизм. Его рабочей частью является бур с особой
-заточкой. В каталоге представлены электрические и аккумуляторные перфораторы.
-Второй вариант подойдет для автономных работ, а также для объектов, где нет
-доступа к электросети, поскольку они предназначены для автономной работы.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;На что обратить
-внимание при выборе&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;При выборе перфоратора большое значение имеет вес и мощность изделия.
-Перфоратор мощностью 600 ватт легко проделывает отверстия в бетонной стене и
-кирпичной кладке. Минимальный вес такого аппарата составляет 2 кг, максимальный
-– 13 кг. Вся внутренняя оснастка спрятана в корпусе из ударопрочного пластика.
-В зависимости от модели электромотор может быть установлен в рукоятке или в
-верхней части перфоратора. Двигатель расположен вертикально и получает
-эффективное охлаждение. В данной модели вибрация снижена до минимума и почти
-незаметна. Изделия такой формы характеризуются высокой мощностью и надлежащей
-ударной силой.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Преимущества
-покупки перфораторов в нашем магазине&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;
-&lt;/p&gt;&lt;p&gt;Мы гарантируем качество инструмента, поскольку сотрудничаем с проверенными
-российскими и зарубежными производителями напрямую. У нас работает служба
-доставки по Москве другим регионам России, возможен самовывоз. Форма оплаты
-любая. Компания заинтересована в длительном сотрудничестве с клиентами, поэтому
-разработала программу лояльности, предлагая выгодные условия сотрудничества.
-Цены на аккумуляторные перфораторы в нашем магазине ниже, чем у конкурентов. У
-нас также можно приобрести расходные материалы на любой электроинструмент.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить перфораторы аккумуляторные по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Перфораторы аккумуляторные: мощь и удобство в одном инструменте. Отличные модели в магазине "Бренд-Инструмент".</t>
-  </si>
-  <si>
-    <t>Перфораторы сетевые</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/600000807340b0.jpeg</t>
-  </si>
-  <si>
-    <t>2020-02-01 09:55:46</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:32:33</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;&lt;strong&gt;Что учесть
-при выборе сетевых перфораторов на сайте компании «БРЕНД Инструмент»&lt;/strong&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;Если источником питания автономного перфоратора является аккумуляторная
-батарея, то сетевой перфоратор работает от стационарной электросети. Такие
-изделия немного мощнее аккумуляторных моделей и применяются не везде. При
-отсутствии сетей общего назначения потребуется генератор.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;Выбирая перфоратор, следует учитывать основные параметры:&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- максимальную силу удара;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- тип патрона. Идеальным вариантом является
-     быстрозажимной патрон;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- максимальный диаметр сверления;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- режимы работы;&lt;/span&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;&amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp; &amp;nbsp;- наличие реверса и регулировки частоты вращения вала.&lt;/span&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
-&lt;/ul&gt;&lt;h2&gt;Принцип работы
-перфоратора&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Электрический ток поступает в электромотор и активирует вращение редуктора,
-который раскручивает шестерни. Одна вращает патрон с насадкой, другая
-обеспечивает возвратно-поступательные движения бойка или бура и начинаются
-ударные функции. Другой вариант – электропневматическое устройство приводит в
-движение поршень, воздействующий на боёк. В итоге сила удара бойка передается
-на бур, который при частых соприкосновениях с твердой поверхностью, разрушает
-ее. Если переключить аппарат в режим сверления, значит, можно высверливать
-отверстия в любом строительном материале.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Где купить
-перфораторы с гарантией&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;
-&lt;/p&gt;&lt;p style="text-align:justify"&gt;В нашем интернет-магазине вы можете купить
-сетевые перфораторы профессионального или бытового назначения (новы и б/у).
-Оборудование бывшее в употреблении перед поступлением в продажу проходит
-диагностику, при необходимости вышедшие из строя детали заменяются на новые
-оригинальные. При необходимости вы можете получить видеообзор на выбранный
-инструмент. Оформить заказ можно на сайте с доставкой по всей территории РФ.
-Уточните у менеджера возможность предоставления скидки, так как мы всегда
-готовы заинтересовать клиента выгодным предложением. Оплата за товар
-осуществляется любым удобным для клиента способом.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить перфораторы сетевые по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Перфораторы сетевые - мощные и надежные перфораторы для любых задач. Быстро и качественно пробейте отверстия с нашими сетевыми перфораторами.</t>
-  </si>
-  <si>
-    <t>Шуруповерты пневматические</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/small_pnevmoshyrypovert_frosp_p7220_3.jpeg</t>
-  </si>
-  <si>
-    <t>2020-08-19 10:52:29</t>
-  </si>
-  <si>
-    <t>2022-06-16 17:37:34</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Шуруповерты пневматические&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Шуруповерты пневматические - купить в Москве по выгодным ценам | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Где купить  пневматические шуруповерты по лучшей цене? приобрести шуруповерты в Москве можно в магазине БРЕНД-Инструмент ☛ у нас самые низкие цени на электроинструменты </t>
-  </si>
-  <si>
-    <t>Дрели пневматические</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/pnevmodrel-min.png</t>
-  </si>
-  <si>
-    <t>2020-08-19 11:08:23</t>
-  </si>
-  <si>
-    <t>2022-06-16 17:33:21</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Приобретайте
-прямые, угловые и пистолетные пневматические дрели в «БРЕНД Инструмент»&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Пневматическая дрель используется при ремонтных работах и при сверлении
-большого количества отверстий продолжительное время. Инструмент немного весит и
-не греется при работе. Это объясняется отсутствием электрического мотора.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;В каталоге представлены различные виды пневмодрелей:&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
- &lt;li class="MsoNormal"&gt;пистолетные. Наиболее распространены;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;прямые. Удобны для сверления небольших отверстий;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;угловые. Удобны для сверления отверстий в
-     труднодоступных местах.&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;p&gt;Угловая пневматическая дрель применяется в профессиональной деятельности при
-создании отверстий и закручивания саморезов там, куда трудно попасть обычным
-инструментом.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Этот инструмент очень надёжный, имеет сверхпрочный корпус и защищённый
-стальной оболочкой редуктор, благодаря чему обеспечивается защита устройства от
-внешних воздействий.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;В устройстве с угловым редуктором патрон расположен под 90 ° к корпусу.
-Наиболее часто такие дрели используют при производстве мебели или в специальном
-производстве.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Достоинства
-пневмодрелей&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;К преимуществам пневмодрелей относится:&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
- &lt;li class="MsoNormal"&gt;маленький вес и габариты. Устройство мобильно;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;приемлемая стоимость;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;прочная и надёжная конструкция, подходящая частому
-     использованию;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;долговечность;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;ремонтопригодность. Производители предлагают большой
-     выбор запчастей;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;возможность работать там, где есть высокая
-     взрывоопасность.&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;h2&gt;Где в Москве купить
-пневматическую дрель&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;
-&lt;/p&gt;&lt;p&gt;В интернет-магазине «БРЕНД Инструмент», специализирующимся на продаже всех
-видов строительных инструментов, вы можете купить пневматическую дрель от
-российских и зарубежных производителей. Вся представленная продукция имеет
-доступные цены и отличное качество. Организована доставка в любой регион
-Российской Федерации.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить дрели пневматические от лучших производителей в интернет-магазине «БРЕНД Инструмент»</t>
-  </si>
-  <si>
-    <t>Интернет-магазин «БРЕНД Инструмент» предлагает большой выбор пистолетных, прямых и угловых пневмодрелей от российских и зарубежных производителей. Они имеют небольшой вес, поэтому ими легко работать.</t>
-  </si>
-  <si>
-    <t>Микрометры</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/mikrometr-zubr-ekspert-gladkiy-tsifrovoy-mkts-50-diapazon-25-50mm-shag-izmereniya-0-001mm-art-34482-.jpeg</t>
-  </si>
-  <si>
-    <t>2020-10-16 18:50:01</t>
-  </si>
-  <si>
-    <t>2023-11-28 18:58:50</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;В сфере прецизионных измерений, где каждый микрон играет решающую роль, микрометры выступают как ключевой инструмент для профессионалов в различных отраслях. Эти измерительные устройства, предназначенные для точного определения внешних размеров, таких как диаметры или толщина, необходимы в областях, где требуется высокая точность, включая машиностроение и металлообработку. Можно купить точные микрометры в Москве с доставкой.&lt;/p&gt;
-&lt;p&gt;Наш ассортимент микрометров характеризуется высокой точностью, надежностью и удобством в эксплуатации. Они подходят как для сложных профессиональных задач в промышленной среде, так и для детальных измерений в научных лабораториях или на производстве. Многообразие представленных моделей позволяет каждому специалисту выбрать инструмент, который идеально соответствует его специфическим потребностям.&lt;/p&gt;
-&lt;p&gt;Эти микрометры, предложенные по отличной стоимости, доступны для широкого круга пользователей. Удобство покупки усиливается возможностью оформления кредита непосредственно в магазине. Каждый инструмент в этой категории разработан с учетом максимальной точности и долговечности, что делает его ценным активом для тех, кто занимается точными измерениями. Их долгий срок службы порадует каждого владельца.&lt;/p&gt;
-&lt;p&gt;Выбирая микрометр из нашего ассортимента, вы делаете ставку на точность и надежность. Эти инструменты станут незаменимыми в любых операциях, где критична высокая точность внешних измерений. Познакомьтесь с миром точных измерений через наши микрометры и убедитесь в их выдающихся качествах. В магазине «Бренд-Инструмент» всегда можно заказать инструмент по выгодным ценам и в кредит. У нас всегда выгодная стоимость и быстрая доставка по городу. Наши консультанты готовы ответить на все вопросы.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить микрометры по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Микрометры: точные измерения с микрометрами от ведущих производителей. Выбирайте качественные инструменты для своих задач.</t>
-  </si>
-  <si>
-    <t>Штангенциркули</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/302deec12ae171ada2b4522e77f3c780.jpeg</t>
-  </si>
-  <si>
-    <t>2020-10-16 19:03:45</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:07:48</t>
-  </si>
-  <si>
-    <t>Купить штангенциркули по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Штангенциркули: точность измерений и удобство использования. Выбирайте лучшие модели в интернет-магазине "Бренд-Инструмент".</t>
-  </si>
-  <si>
-    <t>Клещи</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/IMG968bf065b488477035010089a2098784-720x720.jpeg</t>
-  </si>
-  <si>
-    <t>2020-10-16 19:46:15</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:04:53</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Преимущества
-покупки и задачи токоизмерительных клещей&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Изначально клещи выступали в роли дополнительного приспособления, которое
-прилагалось к профессиональным измерительным приборам. Но позже клещи
-токоизмерительные стали рядовым инструментом, используемым в быту, а также для
-выполнения профессиональных задач.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Такое оборудование становится очень популярным и используется в разных
-сферах для решения многих задач:&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
- &lt;li class="MsoNormal"&gt;измерить силу тока в проводнике, который взят отдельно.
-     Он не будет отсоединяться от общей схемы и дальше будет расположен под
-     определенным напряжением;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;определить фактические показатели мощности
-     электрических приборов (отмечаются в различное время). Также учитываются
-     показатели в зависимости от созданной нагрузки;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;определить фактические показатели нагрузки, которая
-     осуществляется на электрическую сеть квартиры или частного дома в
-     конкретный момент;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;проверить электрическую сеть, а именно возможности
-     несанкционированного подключения к ней;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;заказать и проверить, не вытекает ли ток на корпус
-     электрического прибора.&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;p&gt;Перед тем как клещи токоизмерительные купить, необходимо ознакомиться с их
-преимуществами:&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
- &lt;li class="MsoNormal"&gt;устройство отличается простотой, точностью измерений,
-     компактными размерами. Стоимость токоизмерительных клещей доступна для
-     каждого клиента, также их можно переносить в специальной сумке;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;их можно использовать с целью замеров микротоков, в
-     высоковольтных цепях;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;можно создавать устройства, отличающиеся разным
-     функционалом и дизайном (достигается благодаря принципу работы клещей);&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;допустима интеграция с другими приборами, которые
-     специализируются на измерениях. Например, можно сочетать токовые клещи и
-     мультиметр. Такая комбинация показывает эффективность. Благодаря
-     дополнительным приборам можно гарантировать расширение функционала клещей.&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;p&gt;Токоизмерительными цифровыми клещами легко пользоваться, освоить их может
-любой человек. Токовые клещи могут использовать даже те люди, которые не очень
-разбираются в электротехнике.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Где купить токовые
-клещи&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;
-&lt;/p&gt;&lt;p&gt;В интернет-магазине «БРЕНД-Инструмент» представлен широкий выбор позиций с
-токовыми клещами от разных брендов, которые вы можете купить по доступной цене.
-В карточке товара можно изучить характеристики, стоимость. При необходимости
-можно проконсультироваться с менеджерами, которые предложат нужный инструмент
-для конкретных задач по выгодной цене.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить токоизмерительные клещи по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Токоизмерительные клещи: измеряйте ток безопасно и точно с нашими клещами. Высокое качество, надежность и доступные цены. Необходимый инструмент для каждого электрика.</t>
-  </si>
-  <si>
-    <t>Нутромеры</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/1-450x450.jpeg</t>
-  </si>
-  <si>
-    <t>2020-10-16 19:56:20</t>
-  </si>
-  <si>
-    <t>2023-11-28 18:51:11</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;В мире, где каждый миллиметр имеет значение, особенно в таких сферах, как точная механика, машиностроение и контроль качества, нутромеры выступают как незаменимые инструменты для специалистов. Эти измерительные приборы, специализированные на определении внутренних размеров объектов, таких как диаметры отверстий или ширины пазов, обеспечивают высокую точность и надежность в измерениях. Их отличная стоимость и долгий срок службы будут отличными преимуществами.&lt;/p&gt;
-&lt;p&gt;Наш ассортимент нутромеров включает в себя разные модели, каждая из которых отличается своими уникальными характеристиками и предназначена для конкретных задач. Современные датчики, встроенные в эти приборы, гарантируют быстрое и точное измерение, а четкие дисплеи и простые интерфейсы упрощают процесс считывания и интерпретации данных. Эти инструменты разработаны так, чтобы быть доступными как для профессионалов, так и для начинающих пользователей. Можно купить качественные нутромеры в Москве с доставкой.&lt;/p&gt;
-&lt;p&gt;Мы понимаем разнообразие потребностей наших клиентов и поэтому предлагаем широкий выбор нутромеров. Независимо от того, требуется ли вам инструмент для сложных промышленных задач или для более простых измерений в мастерской, у нас есть подходящий нутромер для каждой ситуации. Предлагаемые по доступным ценам инструменты можно заказать с опцией кредитования, что делает их приобретение еще более удобным.&lt;/p&gt;
-&lt;p&gt;У нас вы не только приобретаете надежный инструмент, но и получаете надежного партнера, готового предложить оптимальные решения для ваших измерительных задач. Мы постоянно следим за инновациями в области измерительной техники, чтобы наш ассортимент всегда включал в себя самые передовые и эффективные инструменты. В магазине «Бренд-Инструмент» всегда можно заказать инструмент по выгодным ценам и в кредит. У нас всегда выгодная стоимость и быстрая доставка по городу. Наши консультанты готовы ответить на все вопросы.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить зарядные устройства по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Нутромеры: точные измерения с нутромерами от ведущих производителей. Выбирайте надежные инструменты для своих задач.</t>
-  </si>
-  <si>
-    <t>Мультиметры</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/4841f802279526cdd93344956517a1a7.jpeg</t>
-  </si>
-  <si>
-    <t>2020-10-16 19:58:37</t>
-  </si>
-  <si>
-    <t>2023-11-28 18:55:40</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Мультиметры&lt;/h2&gt;
-&lt;p&gt;В эпоху технологических достижений и повсеместной электрификации мультиметры стали незаменимым инструментом в арсенале как профессионалов, так и любителей. Эти универсальные измерительные приборы, предназначенные для измерения различных электрических параметров, таких как напряжение, сила тока и сопротивление, находят свое применение в самых разнообразных сферах: от бытовой электроники до промышленных электротехнических систем. Можно купить качественные мультиметры в Москве с доставкой.&lt;/p&gt;
-&lt;p&gt;Мультиметры, представленные в нашем ассортименте, отличаются высокой точностью измерений, надежностью и удобством в использовании. Они идеально подходят как для выполнения профессиональных задач в области электротехники, так и для домашних нужд, связанных с электроникой. Благодаря разнообразию моделей каждый специалист или энтузиаст сможет найти инструмент, соответствующий его потребностям и требованиям. А долгий срок службы товара порадует каждого владельца.&lt;/p&gt;
-&lt;p&gt;Изделия по отличной стоимости подойдут для широкого круга потребителей. Возможность оформления кредита прямо в магазине делает покупку еще более удобной. Каждый инструмент в этой категории создан для обеспечения максимальной точности и долговечности, что делает их ценным приобретением для любого, кто работает с электроникой.&lt;/p&gt;
-&lt;p&gt;Покупка мультиметра – это выбор надежности и точности. Эти инструменты станут незаменимыми помощниками в любых задачах, где требуется точное измерение электрических параметров. Откройте для себя мир точных измерений с устройствами, представленными в нашем ассортименте, и убедитесь в их несомненных преимуществах. В магазине «Бренд-Инструмент» всегда можно заказать инструмент по выгодным ценам и в кредит. У нас всегда выгодная стоимость и быстрая доставка по городу. Наши консультанты готовы ответить на все вопросы.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить мультиметры по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Мультиметры "Бренд-Инструмент" – это полный ассортимент цифровых, авто- и ультразвуковых мультиметров, само-калибрующихся, сканерных, связанных с PC. Только надежные, качественные, удобные, удобо-используемыe!</t>
-  </si>
-  <si>
-    <t>Сканеры, тестеры</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/carman-scan-vci.jpeg</t>
-  </si>
-  <si>
-    <t>2020-10-16 20:02:03</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:08:36</t>
-  </si>
-  <si>
-    <t>Купить сканеры, тестеры по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Сканеры, тестеры - незаменимый инструмент для проверки электрооборудования и других систем. Выберите сканер или тестер из нашего каталога и получайте точный результат.</t>
-  </si>
-  <si>
-    <t>Детекторы</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/52593057.jpeg</t>
-  </si>
-  <si>
-    <t>2020-10-16 20:04:16</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:03:23</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Детектор напряжения – это устройство, благодаря которому специалист или
-обычный человек узнает о наличии электрического заряда на конкретном объекте.
-Звуковой детектор напряжения может выглядеть как стандартная ручка, где
-демонстрируется наличие электричества. Предлагаются и более усовершенствованные
-варианты.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;В детекторах напряжения, стоимость которых является приемлемой, используются
-звуковые, визуальные сигналы. Они сообщают об уровне напряжения. На некоторых
-приборах есть цифры, индикаторы, которые указывают уровень напряжения. Более
-простые модели просто подают звук. Это свидетельствует о наличии напряжения.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Где и кем
-используются детекторы напряжения&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Детекторы напряжения необходимо купить электрикам, начиная со специалистов
-по внутренним работам и заканчивая рабочими, которые работают с опорами линиями
-электропередач. Они применяют технику для определения напряжения на конкретной
-части энергосистемы. Детекторы могут обладать разными размерами, формами. Все
-зависит от того, зачем будут тестировать объект.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Работники применяют прибор, находясь высоко на опоре линии электропередачи.
-С его помощью специалист определяет, какие из них находятся под напряжением.
-Качественный звуковой детектор обеспечивает эффективную и точную работу, а
-также безопасность самому работнику.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Электрик, проводимый внутренние работы, применяет детекторы для отдельных
-манипуляций. Например, он вставляет аппарат в розетки для определения наличия
-электричества в них. При наличии неполадок детекторы, реализуемые по выгодной
-цене, способствуют их устранению, налаживанию питания. Также приборы дают
-возможность проверить электрическую установку либо отремонтировать систему
-электричества.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;В областях, отличающихся особой влажностью, электрикам довольно трудно
-работать. Есть специальный детектор звукового сигнала, который может стабильно
-функционировать в таких условиях. Приборы рассчитаны на конкретный уровень
-напряжения (диапазон). При применении аппарата с более высокими показателями
-напряжения результат может быть неточным. Также это может быть опасно для
-сотрудника. Электричество может отсутствовать в системе, но вне зависимости от
-этого важно для измерений заказать модель, которая имеет соответствующий
-диапазон напряжения.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Где купить звуковой
-детектор напряжения&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;
-&lt;/p&gt;&lt;p&gt;В интернет-магазине «БРЕНД-Инструмент» можно подобрать оптимальный детектор
-напряжения по доступной цене, который поможет выполнить все замеры, проверки,
-связанные с электричеством.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить детекторы напряжения по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Детекторы напряжения - надежный инструмент для обнаружения напряжения в электрооборудовании. Выберите детектор напряжения из нашего каталога и получайте точный результат.</t>
-  </si>
-  <si>
-    <t>Измерители</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/8be229f422e7b9b8843368fba93de3ee.jpeg</t>
-  </si>
-  <si>
-    <t>2020-10-16 20:07:53</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:04:17</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Какие купить
-измерительные приборы&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;В продаже представлены устройства неразрушающего контроля, измерители
-физических параметров, а также электроизмерительные инструменты. Перед покупкой
-необходимо более подробно рассмотреть наиболее популярные и распространенные
-измерители (цифровой измеритель мощности, динамометры, рулетки и другие
-приспособления).&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Толщиномеры&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Они используются во время строительства, при приобретении подержанных машин
-или их ремонте. С помощью данных устройств можно определить толщину покрытия,
-которое наносится, а также степень поражения металла коррозией.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Анемометры&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Активно используются в области метеорологии, спортивных школах, где
-занимаются виндсерфингом, яхтингом. С их помощью определяют скорость, с которой
-движутся воздушные потоки. Анемометры позволяют контролировать ветровые
-нагрузки, дать оценку эффективности функционирования системы вентиляции. На
-некоторых моделях могут быть установлены термометры. Измерители могут
-отличаться погрешностью измерений, температурным диапазоном, скоростью потока
-воздуха, типом питания.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;В продаже помимо вышеупомянутых установок также представлены цифровые
-измерители напряжения.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Динамометр&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Это приборы, с помощью которых измеряется сила тяги, реза, другие параметры.
-Они всегда учитываются в производственных сферах, строительстве,
-промышленности. Динамометры позволяют проверить устройства, стенды,
-предназначенные для тестовых испытаний, протестировать силовые приборы и др.
-Разделяют механические, трансмиссионные, тормозные силомеры.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Газоанализаторы&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Это приборы, позволяющие выполнить количественный, качественный анализ
-воздушной смеси. Используя аппарат, то можно определить количество веществ,
-которые содержатся в массах воздуха. На нем установлены датчики, способные
-реагировать на отклонения от нормы. Это очень важно в случае аварийных
-ситуаций, проведения замеров в рабочих цехах. Газоанализаторы используют в
-санитарно-эпидемиологических службах, нефтяной отрасли, медицине, металлургии,
-пищевой отрасли.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Цифровая рулетка&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Цифровые приспособления позволяют получить точные показатели, к ним
-относятся рулетка, цифровой измеритель температуры и т. д.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Рулетка – это инструмент, без которого не обойтись при проведении
-строительных и ремонтных работ. С ее помощью делают замеры на улице, внутри
-помещений. Датчик одометра делает подсчеты вращений барабана, когда
-вытаскивается лента. И эти данные потом преобразовываются в миллиметры либо
-сантиметры. Они демонстрируются на отдельном экране. Цифровая рулетка
-отличается простым, удобным управлением и высокой скоростью работы.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Где приобрести
-измерительные приборы&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;
-&lt;/p&gt;&lt;p&gt;В магазине «БРЕНД-Инструмент» вы можете купить цифровые измерители по
-выгодной цене. Стоимость измерительных приборов ниже, чем у конкурентов, так
-как магазина напрямую сотрудничает с производителями. Оборудование отличается
-отличными эксплуатационными характеристиками и способно облегчить множество
-рабочих процессов. На сайте можно просмотреть все доступные предложения, цены и
-условия сотрудничества.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить измерительные приборы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Измерительные приборы - необходимые инструменты для точного измерения различных параметров. У нас вы найдете широкий выбор измерительных приборов различных производителей.</t>
-  </si>
-  <si>
-    <t>Видеоинспекции</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/12464.jpeg</t>
-  </si>
-  <si>
-    <t>2020-10-17 17:38:55</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:09:33</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Преимущества
-приобретения оборудование для видеодиагностики канализации&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Благодаря современным технологиям можно облегчить разные манипуляции.
-Например, провести диагностику труб, их исследование. Для этого задействуются
-специальные приборы для видеодиагностики канализации. Процедура позволяет
-определить состояние системы, обнаружить неисправности. В трубу запускают
-устройство, оснащенное камерой, а затем начинается исследование.
-Видеодиагностика дает возможность проверить работоспособность системы
-канализации, при этом цена на оборудование вполне приемлемая.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Высокую точность определения проблемных участков гарантирует качественная
-видеодиагностика купить оборудование для нее необходимо, чтобы:&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
- &lt;li class="MsoNormal"&gt;найти участки канализации, труб, которые являются
-     аварийными и разрушенными. Также техника позволяет определить характер
-     этих разрушений (расстыковка, смещение, перелом, трещина и др.);&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;найти места, где на внутренних стенах канализации
-     имеются отложения, засоры. Также определяется причина, почему они
-     развились;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;увидеть посторонние присоединения, инородные предметы,
-     которые присутствуют в трубах и канализационной системе в целом;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;определить, в каком состоянии находится канализация,
-     насколько развились в ней коррозийные процессы, насколько она износилась.&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;p&gt;При определении проблемного участка с помощью видеодиагностики скважин
-гарантируется минимальные затраты в плане сил и времени. Те результаты, которые
-получает специалист после исследований, задействуются и помогают разработать
-план действий. Наличие прибора позволяет подобрать необходимый метод, с помощью
-которого будет проводиться очистка, ремонтные работы.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Когда понадобится
-видеоинспекция&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Видеодиагностику труб проводят по отношению к вентиляционным каналам,
-тепловым сетям, газопроводам, системам водоснабжения, канализационным сетям и
-другим системам. Также с помощью этого метода можно определить состояние
-трубопровода, необходимость проведения промывки и ремонтных работ.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;p&gt;Где проводят видеоинспекцию труб? Часто проводят диагностику каналов, их
-обследование на объектах промышленного типа, предприятиях. Метод отличается
-высокой точностью, поэтому может применяться даже для реконструированных, новых
-систем. Может также использоваться метод с целью проверки качества
-установленных канализационных систем. Он поможет вовремя определить проблемные
-места, обнаружить возможные недостатки. Это актуально во время проведения
-строительно-монтажных работ.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Где купить
-оборудование для видеодиагностики&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;
-&lt;/p&gt;&lt;p&gt;В интернет-магазине «БРЕНД-Инструмент» представлен широкий выбор
-оборудования для видеодиагностики. Купить его можно по выгодной цене.
-Сотрудники помогут вам выбрать и заказать необходимую модель, которая подойдет
-вам по стоимости и характеристикам.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить оборудование для видеодиагностики по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Оборудование для видеодиагностики: В нашем ассортименте представлено оборудование для видеодиагностики различных систем. Обеспечьте точность и надежность диагностики!</t>
-  </si>
-  <si>
-    <t>Шлифмашины по дереву</t>
-  </si>
-  <si>
-    <t>2021-01-17 17:24:14</t>
-  </si>
-  <si>
-    <t>2021-09-23 10:59:54</t>
-  </si>
-  <si>
-    <t>Пилы цепные</t>
-  </si>
-  <si>
-    <t>2021-01-30 19:38:35</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:38:55</t>
-  </si>
-  <si>
-    <t>Купить пилы цепные по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Пилы цепные: В нашем магазине представлены пилы цепные различной мощности и длины шины. Надежность и качество работы гарантированы!</t>
-  </si>
-  <si>
-    <t>Запчасти</t>
-  </si>
-  <si>
-    <t>2021-02-04 16:41:55</t>
-  </si>
-  <si>
-    <t>2023-07-24 23:05:18</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Запчасти для инструментов&lt;/h2&gt;
-&lt;p&gt;Любой инструмент, будь то бензопила, фрезер, угловая шлифовальная машина (УШМ), дрель или шуруповерт, является сложной системой, состоящей из множества компонентов. Регулярное техническое обслуживание и замена изношенных деталей критически важны для поддержания их производительности и долговечности. Всегда стоит иметь важные элементы в запасе. Покупать запчасти для инструмента лучше в одном месте.&lt;/p&gt;
-&lt;p&gt;Для бензопил критически важными компонентами являются цепь и пильная шина, которые испытывают сильный износ в процессе работы. Детали двигателя, такие как свеча зажигания, карбюратор и фильтры, также требуют периодической проверки и замены. Выгоднее купить запчасти для инструмента в Москве в одном месте.&lt;/p&gt;
-&lt;p&gt;У фрезеров основными элементами, требующими замены, являются режущие головки. Важными компонентами являются подшипники, которые обеспечивают плавное вращение и могут изнашиваться со временем. Купить их по выгодным условиям в Москве можно в нашем каталоге.&lt;/p&gt;
-&lt;p&gt;Для УШМ ключевыми элементами являются диск, щетки двигателя и пусковой переключатель. Также следует учитывать состояние защитного кожуха и рукоятки для безопасной работы. Заказать его по отличной стоимости лучше с комплектом защитных перчаток и очков. Выгодная цена позволит все приобрести комплектом.&lt;/p&gt;
-&lt;p&gt;Для дрелей и шуруповертов важным элементом является бита или сверло, которые подвержены износу. Необходимо обращать внимание на состояние аккумулятора (для аккумуляторных инструментов), двигателя и кнопки включения/выключения.&lt;/p&gt;
-&lt;p&gt;Наличие и своевременная замена запчастей для инструментов является ключевым фактором, обеспечивающим их долгую и эффективную работу. Регулярное техническое обслуживание поможет избежать неожиданных простоев и увеличит срок службы вашего инструмента. Важно помнить, что замена запчастей должна производиться в соответствии с инструкциями производителя и с соблюдением всех мер безопасности.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Запчасти для электроинструментов - купить в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Запчасти: огромный выбор запчастей для различных инструментов. Восстановите работоспособность своего оборудования с нашей помощью.</t>
-  </si>
-  <si>
-    <t>Осветительное оборудование</t>
-  </si>
-  <si>
-    <t>2021-02-12 09:30:30</t>
-  </si>
-  <si>
-    <t>2021-09-10 11:58:57</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Осветительное оборудование&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Вентиляция</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/15761416_image_large.jpeg</t>
-  </si>
-  <si>
-    <t>2021-02-12 09:33:31</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:58:28</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Вентиляция&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить вентиляция по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Вентиляция: обеспечьте свежий воздух и комфорт в помещении. Качественное оборудование в "Бренд-Инструмент".</t>
-  </si>
-  <si>
-    <t>Электроприводы</t>
-  </si>
-  <si>
-    <t>2021-02-12 09:35:57</t>
-  </si>
-  <si>
-    <t>2021-09-08 17:37:54</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Электроприводы&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Электрооборудование и автоматика</t>
-  </si>
-  <si>
-    <t>2021-02-12 09:44:15</t>
-  </si>
-  <si>
-    <t>2023-07-06 15:58:18</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;ИБП, контроллеры&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить электрооборудование и автоматика по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Электрооборудование и автоматика: В нашем магазине представлен широкий ассортимент электрооборудования и автоматики от ведущих производителей. Выбирайте качественные и надежные решения для вашего дома и бизнеса. Быстрая доставка по всей стране.</t>
-  </si>
-  <si>
-    <t>Станки для заточки</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/Ministanok_dlya_zatochki_tsepey_Patriot_MG_220_85_Vt_1.jpeg</t>
-  </si>
-  <si>
-    <t>2021-02-12 09:58:43</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:14:33</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Станки для заточки&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить станки для заточки по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Станки для заточки - точите свои инструменты с легкостью и точностью. Выбирайте станки для заточки от проверенных производителей.</t>
-  </si>
-  <si>
-    <t>Паяльные станции</t>
-  </si>
-  <si>
-    <t>2021-02-12 10:54:47</t>
-  </si>
-  <si>
-    <t>2021-09-10 13:56:06</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Паяльные станции&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Мотокультиваторы</t>
-  </si>
-  <si>
-    <t>2021-02-12 11:15:50</t>
-  </si>
-  <si>
-    <t>2021-09-10 17:09:17</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Мотокультиваторы&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить мотокультиваторы в Москве - цены, фото | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Предлагаем купить мотокультиваторы в Москве по выгодным ценам ☛ Фото, особенности, назначение товаров в нашем каталоге ☎ 8-800-550-78-85</t>
-  </si>
-  <si>
-    <t>Тепловизоры</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/be3111ad6784426ac97def3d03356a77.jpeg</t>
-  </si>
-  <si>
-    <t>2021-02-17 12:13:08</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:09:00</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Тепловизоры&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить тепловизоры по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Тепловизоры - незаменимый инструмент для обнаружения тепловых утечек и неисправностей в электрооборудовании. Выберите тепловизор из нашего каталога и получайте точный результат.</t>
-  </si>
-  <si>
-    <t>Болгарки (УШМ) аккумуляторные</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/slider-notícia-rebarbadora-metabo-1.jpeg</t>
-  </si>
-  <si>
-    <t>2021-03-05 10:43:09</t>
-  </si>
-  <si>
-    <t>2023-05-03 23:45:04</t>
-  </si>
-  <si>
-    <t>&lt;div class="category_bottom"&gt;
-&lt;h2&gt;Назначение и сфера применения&lt;/h2&gt;
-&lt;p&gt;Строители, монтажники, отделочники, сантехники используют в своей работе болгарки аккумуляторные. Они применяются для резки, шлифовки, полировки разнообразных материалов от металла до древесины. Аккумуляторные болгарки, реализуемые по выгодной цене, удобны тем, что их можно использовать на площадках, к которым не подведено электричество. Мощные батареи обеспечивают функционирование инструмента в течение рабочей смены.&lt;/p&gt;
-&lt;h2&gt;Особенности конструкции&lt;/h2&gt;
-&lt;p&gt;Интернет-магазин Бренд-Инструмент предлагает купить угловые шлифмашинки, изготовленные ведущими производителями. Инструмент состоит из двигателя, в котором находится электрический мотор. Он запускается по нажатию кнопки и передает вращение угловому редуктору, который приводит в движение вал с диском для резки или шлифования. У болгарок предусмотрено наличие защиты, предотвращающей травмы в случае раскалывания диска во время работы. Ряд моделей оснащается регулятором оборотов, так как для шлифования и резки материалов нужна разная скорость вращения. Болгарки оснащены эргономичными рукоятками с резиновыми вставками, которые облегчают использование инструмента.&lt;/p&gt;
-&lt;h2&gt;Преимущественные характеристики&lt;/h2&gt;
-&lt;p&gt;В каталоге Бренд-Инструмент можно купить по выгодной цене аккумуляторные УШМ, у которых имеются следующие преимущества:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;небольшой вес и габариты, облегчающие эксплуатацию на высоте;&lt;/li&gt;
-&lt;li&gt;длительный срок использования без необходимости ремонта;&lt;/li&gt;
-&lt;li&gt;легкость обслуживания;&lt;/li&gt;
-&lt;li&gt;привлекательная для заказчиков стоимость благодаря отсутствию посредников;&lt;/li&gt;
-&lt;li&gt;безопасность, обеспечиваемая защитой;&lt;/li&gt;
-&lt;li&gt;удобство использования;&lt;/li&gt;
-&lt;li&gt;стойкость к повышенным нагрузкам.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Обращайтесь к представителям магазина, чтобы они помогли выбрать и заказать подходящие аккумуляторные болгарки. При покупке учитывают мощность инструмента, скорость вращения диска, напряжение и емкость аккумулятора и прочие характеристики.&lt;/p&gt;
-&lt;p&gt;Плюсы магазина заключаются в большом ассортименте нового и бывшего в эксплуатации инструмента. Качественная и быстрая доставка по Москве осуществляется курьерской службой при заказе товаров на сумму от 10 000 рублей. Поставки в другие города России выполняются через транспортные компании. Из других плюсов можно выделить удобные способы оплаты, гарантированное качество инструментов, наличие программы лояльности для постоянных клиентов с приятными скидками. Сотрудники кибермаркета окажут хорошую поддержку и ответят на вопросы, оперативно выполнят заказ.&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Купить болгарки (ушм) аккумуляторные по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Болгарки (УШМ) аккумуляторные: портативность и мощь в одном инструменте – откройте для себя аккумуляторные болгарки. </t>
-  </si>
-  <si>
-    <t>Болгарки (УШМ)  пневматические</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/1133_pnevmaticheskaya-ushm-airon-ag5109m-.jpeg</t>
-  </si>
-  <si>
-    <t>2021-03-05 10:52:12</t>
-  </si>
-  <si>
-    <t>2023-05-03 23:46:38</t>
-  </si>
-  <si>
-    <t>&lt;div class="category_bottom"&gt;
-&lt;h2&gt;Назначение и область применения&lt;/h2&gt;
-&lt;p&gt;Угловые шлифмашины используют для очистки и шлифования металлических, деревянных, полимерных поверхностей. С их помощью можно удалять ржавчину, краску, лак, заусенцы. Еще болгарки пневматические применяют для быстрой резки заготовок. Для выполнения этих задач они оснащаются специальными дисками. Шлифмашины, которые предлагает купить интернет-магазин Бренд-Инструмент, подходят для эксплуатации в области строительства и ремонта. Болгарка пригодится на стройплощадке, в гараже, на даче, в производственном цехе.&lt;/p&gt;
-&lt;h2&gt;Особенности конструкции&lt;/h2&gt;
-&lt;p&gt;Представленные в ассортименте болгарки пневматические состоят из прочных корпусов со штуцерами для подключения шланга, через который подается сжатый воздух от винтового или поршневого компрессора. Внутри инструмента имеется пневматический ротационный двигатель. Вращение от него передается через угловой редуктор к валу, на который крепится диск для шлифовки или резки заготовок. Дополнительно инструмент оснащается механизмами блокировки вращения, изменения скорости, пуска и остановки. Простая конструкция, отсутствие электронных компонентов делают болгарки пневматические надежными и долговечными устройствами для эксплуатации в сложных условиях.&lt;/p&gt;
-&lt;h2&gt;Ключевые преимущества&lt;/h2&gt;
-&lt;p&gt;В интернет-магазине Бренд-Инструмент предлагается заказать болгарки пневматические, для которых характерны следующие преимущества:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;длительный срок эксплуатации без необходимости замены комплектующих;&lt;/li&gt;
-&lt;li&gt;устойчивость к высоким нагрузкам;&lt;/li&gt;
-&lt;li&gt;удобство использования благодаря эргономичным рукояткам;&lt;/li&gt;
-&lt;li&gt;гарантированное производителем качество;&lt;/li&gt;
-&lt;li&gt;привлекательная для заказчиков стоимость инструмента;&lt;/li&gt;
-&lt;li&gt;легкость обслуживания;&lt;/li&gt;
-&lt;li&gt;надежность в применении;&lt;/li&gt;
-&lt;li&gt;быстрая смена дисков;&lt;/li&gt;
-&lt;li&gt;защита оператора;&lt;/li&gt;
-&lt;li&gt;небольшие размеры и вес.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Клиенты пользуются услугами компании Бренд-Инструмент, так как в ней представлен большой ассортимент болгарок. Доступная цена обусловлена отсутствием посредников. Заказчики могут расплатиться за инструмент наличными, банковской картой, переводом. Быстрая доставка, хорошая поддержка, помощь в выборе устройств – вот лишь несколько плюсов, которые есть у кибермаркета. Рекомендуется связаться с представителями интернет-магазина, чтобы получить больше информации и заказать пневматические болгарки для профессионального использования.&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Купить болгарки (ушм) пневматические по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Болгарки (УШМ) пневматические: легкие, компактные и мощные болгарки для профессионального использования. Большой выбор моделей и производителей. Работайте с комфортом!</t>
-  </si>
-  <si>
-    <t>Спецодежда и СИЗ</t>
-  </si>
-  <si>
-    <t>2021-04-06 10:09:51</t>
-  </si>
-  <si>
-    <t>2021-09-10 11:48:16</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;&lt;span style="font-size: 18px;"&gt;Спецодежда, аксессуары и средства индивидуальной защиты.&lt;/span&gt;&lt;/b&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Гидравлический инструмент</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/123.jpeg</t>
-  </si>
-  <si>
-    <t>2021-05-06 14:58:20</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:42:37</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Гидравлический инструмент&amp;nbsp;&amp;nbsp;&lt;/b&gt;это вид инструментов, движение рабочих частей которых осуществляется благодаря различным системам, силовым элементом в которых являются те или иные жидкости. Их состав, состав остальных деталей механизма, конструкционные особенности зависят в первую очередь от области применения агрегата.&lt;br&gt;&lt;/p&gt;&lt;p&gt;&amp;nbsp;В основном инструменты на основе гидравлических систем используются для поднятия и транспортировки различных грузов или рабочих частей более сложных механизмов, для прессовки или резки каких-либо материалов.&lt;/p&gt;&lt;p&gt;&amp;nbsp;Область применения таких инструментов просто огромна – от сельскохозяйственных работ, использования в автосервисах, ремонтных мастерских, до работ на крупных заводах, предприятиях. Гидравлическое оборудование, инструменты и приспособления стали незаменимыми для аварийно-спасательных служб, подводных монтажных работ и технологических операций в условиях невесомости. Они находят применение и в условиях жарких пустынь и в зонах полярного климата.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить гидравлический инструмент по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Гидравлический инструмент: Огромный выбор гидравлического инструмента от ведущих производителей. Обеспечьте мощь и точность при выполнении работ!</t>
-  </si>
-  <si>
-    <t>Пневматические гайковерты</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/ip-3131-sboku1.jpeg</t>
-  </si>
-  <si>
-    <t>2021-05-06 15:11:23</t>
-  </si>
-  <si>
-    <t>2023-11-09 23:30:35</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Пневматические гайковерты&lt;/b&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить пневматические гайковерты в Москве</t>
-  </si>
-  <si>
-    <t>Аккумуляторные гайковерты</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/00028600_1.jpeg</t>
-  </si>
-  <si>
-    <t>2021-05-06 15:12:04</t>
-  </si>
-  <si>
-    <t>2023-11-09 23:31:02</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Аккумуляторные гайковерты&lt;/b&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить Аккумуляторные гайковерты в Москве</t>
-  </si>
-  <si>
-    <t>Электрические гайковерты</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/prrprp.jpeg</t>
-  </si>
-  <si>
-    <t>2021-05-06 15:12:40</t>
-  </si>
-  <si>
-    <t>2023-11-09 23:31:38</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Электрические гайковерты&lt;/b&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить Электрические гайковерты в Москве</t>
-  </si>
-  <si>
-    <t>Гидравлические гайковерты</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/s22567611.jpeg</t>
-  </si>
-  <si>
-    <t>2021-05-06 15:13:37</t>
-  </si>
-  <si>
-    <t>2023-11-09 23:36:29</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Гидравлические гайковерты&lt;/b&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить Гидравлические гайковерты в Москве</t>
-  </si>
-  <si>
-    <t>Механические гайковерты</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/gaykovert_ruchnoy_evrika_er_83320_6800_n_m_s_reduktorom_komplekt_golovok_32_33mm_dlina_320mm_1293672_1.jpeg</t>
-  </si>
-  <si>
-    <t>2021-05-06 15:26:24</t>
-  </si>
-  <si>
-    <t>2023-11-09 23:32:03</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Механические гайковерты&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить Механические гайковерты в Москве</t>
-  </si>
-  <si>
-    <t>От производителя</t>
-  </si>
-  <si>
-    <t>2021-05-31 16:12:43</t>
-  </si>
-  <si>
-    <t>2021-05-31 16:14:56</t>
-  </si>
-  <si>
-    <t>Makita</t>
-  </si>
-  <si>
-    <t>2021-05-31 16:14:35</t>
-  </si>
-  <si>
-    <t>Кабелерезы</t>
-  </si>
-  <si>
-    <t>catalog/03.07.2020/000/k118.png</t>
-  </si>
-  <si>
-    <t>2021-06-12 18:27:21</t>
-  </si>
-  <si>
-    <t>2023-11-11 21:57:52</t>
-  </si>
-  <si>
-    <t>Купить кабелерезы и наборы для разделки кабеля по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Кабелерезы и наборы для разделки кабеля - незаменимые инструменты для работы с кабелями. Мы предлагаем вам только качественные кабелерезы и наборы для разделки кабеля.</t>
-  </si>
-  <si>
-    <t>Запчасти для перфораторов</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/2-24stvol-720x720.jpeg</t>
-  </si>
-  <si>
-    <t>2021-06-22 11:00:13</t>
-  </si>
-  <si>
-    <t>2023-11-28 20:32:23</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Большой выбор запчастей для перфораторов в Москве&lt;/h2&gt;
-&lt;p&gt;Ваш перфоратор — это не просто инструмент, но и ключ к успешному выполнению множества строительных и ремонтных работ. Понимая это, мы предлагаем широкий выбор запчастей для перфораторов, которые помогут вам поддерживать ваше оборудование в идеальном состоянии. Наш ассортимент включает в себя всё необходимое: от бойков в сборе до быстросъемных патронов. Детали обеспечат вашему инструменту долгую и эффективную работу.&lt;/p&gt;
-&lt;p&gt;Мы знаем, насколько важно иметь надежный и функциональный перфоратор. Наши запчасти подобраны таким образом, чтобы соответствовать самым высоким стандартам качества. Будь то замена внутреннего переключателя для оборудования Bosch или обновление патрона для Makita — каждый элемент в нашем каталоге способствует улучшению производительности и увеличению срока службы вашего инструмента. Можно купить качественные запчасти для перфораторов в Москве с доставкой.&lt;/p&gt;
-&lt;p&gt;Наша цель – предоставить вам запчасти, которые не только восстановят функциональность вашего перфоратора, но и улучшат его характеристики. В ассортименте вы найдете запчасти, подходящие для широкого спектра моделей перфораторов, что делает нас одним из самых предпочтительных поставщиков в этой области. Наши изделия имеют долгий срок службы, а их отличная стоимость станет дополнительным преимуществом.&lt;/p&gt;
-&lt;p&gt;Выбирая запчасти для перфораторов у нас, вы выбираете качество и надежность. Мы гарантируем, что каждая деталь поможет вам достичь максимальной эффективности в работе, будь то профессиональное строительство или домашний ремонт. Ознакомьтесь с нашим ассортиментом и убедитесь в том, что мы предлагаем именно то, что нужно для вашего перфоратора. В магазине «Бренд-Инструмент» всегда можно заказать инструмент по выгодным ценам и в кредит. У нас всегда выгодная стоимость и быстрая доставка по городу. Наши консультанты готовы ответить на все вопросы.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить запчасти для перфораторов по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Запчасти для перфораторов: качественные запчасти для ремонта и обслуживания перфораторов. Все необходимые комплектующие в одном месте.</t>
-  </si>
-  <si>
-    <t>Запчасти для шуруповертов и дрелей</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/629900-1-1205x1205.jpeg</t>
-  </si>
-  <si>
-    <t>2021-06-22 11:00:51</t>
-  </si>
-  <si>
-    <t>2023-05-03 23:36:04</t>
-  </si>
-  <si>
-    <t>&lt;div class="category_bottom"&gt;
-&lt;h2&gt;Назначение и сфера применения&lt;/h2&gt;
-&lt;p&gt;Шуруповерты представляют собой ручной инструмент, использующийся для вкручивания винтов, саморезов. Они применяются при проведении строительных и ремонтных работ. Шуруповерты используют при сборке предметов мебели, деревянной тары, конструкций из бруса и др.&lt;/p&gt;
-&lt;p&gt;Эти инструменты надежны, но со временем им может потребоваться замена деталей. Заказать запчасти для шуруповертов для выполнения этой задачи предлагает интернет-магазин "Бренд-Инструмент". Они продаются по доступной для заказчиков цене. Область применения запасных деталей – это ремонт и обслуживание профессиональных и бытовых шуруповертов.&lt;/p&gt;
-&lt;h2&gt;Виды запчастей&lt;/h2&gt;
-&lt;p&gt;В каталоге "Бренд-Инструмент" предлагается купить двигатели. Они производятся в Китае и соответствуют стандартам качества и надежности. Новые двигатели продлят срок эксплуатации шуруповерта и дадут возможность сэкономить на покупке нового инструмента. Эти запчасти предлагается заказать оптом или в розницу по доступной цене.&lt;/p&gt;
-&lt;p&gt;Кроме того, в интернет-магазине "Бренд-Инструмент" имеются якоря для шуруповертов Makita. Они характеризуются полной совместимостью с двигателем инструмента. Новые якоря надежны в эксплуатации, характеризуются долговечностью. Их стоимость доступна для клиентов. На электромоторы и якоря установлена гарантия завода-изготовителя.&lt;/p&gt;
-&lt;h2&gt;Преимущественные характеристики&lt;/h2&gt;
-&lt;p&gt;Поставляемые заказчикам запчасти для шуруповертов обладают следующими плюсами:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;большой эксплуатационный ресурс;&lt;/li&gt;
-&lt;li&gt;соответствие нормам качества, действующим в России;&lt;/li&gt;
-&lt;li&gt;износостойкость, обусловленная использованием надежных и прочных материалов для производства деталей;&lt;/li&gt;
-&lt;li&gt;устойчивость к механическим и температурным нагрузкам;&lt;/li&gt;
-&lt;li&gt;легкость замены с минимальным сроком простаивания инструмента.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Новые запасные части полностью совместимы с распространенными моделями шуруповертов.&lt;/p&gt;
-&lt;h2&gt;Плюсы интернет-магазина "Бренд-Инструмент"&lt;/h2&gt;
-&lt;p&gt;Клиенты выбирают сотрудничество с компанией, так как в ней созданы и поддерживаются выгодные условия. Несомненный плюс – это быстрая доставка заказанных комплектующих. Для удобства клиентов имеется несколько способов оплаты запчастей. Обращайтесь к представителям интернет-магазина, чтобы получить больше информации о деталях и сделать заказ. Сотрудники помогут выбрать подходящие товары. Клиентам оказывают хорошую поддержку, поэтому они повторно пользуются услугами компании, когда им требуется заказать детали для шуруповертов!&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Купить запчасти для шуруповертов и дрелей по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Запчасти для шуруповертов и дрелей: продлите жизнь своим инструментам с нашими запчастями. Быстрая доставка и гарантия качества!</t>
-  </si>
-  <si>
-    <t>Запчасти для болгарок</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/a0cc53-1000x1000.jpeg</t>
-  </si>
-  <si>
-    <t>2021-06-22 11:01:34</t>
-  </si>
-  <si>
-    <t>2023-07-24 23:06:30</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Запчасти для болгарок&lt;/h2&gt;
-&lt;p&gt;Угловая шлифовальная машина (УШМ), часто называемая болгаркой, является важным инструментом в строительстве и ремонтных работах. УШМ состоит из ряда компонентов, которые могут изнашиваться и требовать замены. Их замена требует покупки новых элементов. Приобретать запчасти для болгарок лучше комплектом и в одном месте.&lt;/p&gt;
-&lt;p&gt;Диск является ключевым элементом УШМ, непосредственно участвующим в работе. Существует широкий спектр дисков, различающихся по материалу и назначению, включая абразивные диски для резки металла, камня или керамики, шлифовальные диски для обработки поверхностей.&lt;/p&gt;
-&lt;p&gt;Защитный кожух играет важную роль в безопасности работы с УШМ. Он оберегает пользователя от летящих осколков и искр при резке и шлифовке материалов. Щетки двигателя необходимы для передачи электрического тока на коммутатор, обеспечивая работу электродвигателя. Это расходные материалы, которые со временем изнашиваются и требуют замены. Можно купить запчасти для болгарок в Москве в нашем каталоге.&lt;/p&gt;
-&lt;p&gt;Шпиндель — это ось, на которую устанавливается диск. В процессе работы он подвергается значительным нагрузкам, поэтому должен быть изготовлен из качественных материалов. Рукоятка обеспечивает удобный и безопасный хват при работе. Некоторые модели УШМ предусматривают возможность регулировки рукоятки для удобства пользователя. Можно заказать такие элементы в нашем каталоге по выгодной цене и с доставкой.&lt;/p&gt;
-&lt;p&gt;Подшипники обеспечивают плавное вращение двигателя и шпинделя. Они могут изнашиваться из-за постоянных нагрузок и трения, что потребует их замены. Пусковой переключатель отвечает за включение и выключение устройства. Как и любая электрическая компонента, он может выйти из строя и требовать замены. Заказать его можно по отличной стоимости и по выгодным условиям в нашем каталоге.&lt;/p&gt;
-&lt;p&gt;Уход и техническое обслуживание УШМ, включая своевременную замену изношенных запчастей, являются ключом к продолжительной и безопасной работе оборудования. При замене компонентов следует следовать инструкциям производителя и соблюдать технику безопасности.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить запчасти для болгарок по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Запчасти для болгарок: В нашем магазине вы найдете запчасти для болгарок различных производителей и моделей. Большой ассортимент, доступные цены и быстрая доставка по всей стране. Всегда в наличии оригинальные и совместимые запчасти.</t>
-  </si>
-  <si>
-    <t>Запчасти для бензопил</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/1000017-600x600.jpeg</t>
-  </si>
-  <si>
-    <t>2021-06-22 11:02:05</t>
-  </si>
-  <si>
-    <t>2023-07-24 23:05:53</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Запчасти для бензопил&lt;/h2&gt;
-&lt;p&gt;Бензопила является незаменимым инструментом для многих работников сферы лесного хозяйства, строительства и садоводства. Данный вид техники, как и любой другой, требует регулярного обслуживания и замены запчастей при их износе. Все комплектующие к ней всегда выгоднее и надежнее покупать в одном месте. Качественные запчасти для бензопил можно заказать в нашем каталоге.&lt;/p&gt;
-&lt;p&gt;Цепь бензопилы — это рабочий элемент, который непосредственно взаимодействует с обрабатываемым материалом. За счет интенсивной нагрузки и износа элементы требуются регулярной замены или заточки. Лучше купить цепь вместе со смазкой.&lt;/p&gt;
-&lt;p&gt;Пильная шина поддерживает цепь и направляет ее во время работы. Она может изнашиваться и требовать замены, особенно при частом использовании пилы. Можно заказать сразу несколько изделий про запас, их цена не ударит по бюджету.&lt;/p&gt;
-&lt;p&gt;Карбюратор отвечает за смешение воздуха с топливом, подготавливая смесь для воспламенения в цилиндре двигателя. Он может нуждаться в регулировке или замене в случае неисправности. Купить изделий по выгодным условиям можно в нашем каталоге с доставкой.&lt;/p&gt;
-&lt;p&gt;Свеча зажигания инициирует процесс горения топлива в цилиндре, обеспечивая работу двигателя. Это одна из расходных деталей бензопилы и может требовать периодической замены. Большой выбор свечей в Москве всегда есть в нашем интернет-магазине.&lt;/p&gt;
-&lt;p&gt;Фильтры воздуха и топлива служат для очистки воздуха и топлива от примесей и частиц пыли перед их поступлением в двигатель. Периодическая замена или очистка таких элементов необходима для обеспечения долгосрочной работы бензопилы. Их отличная стоимость позволяет приобрести сразу несколько комплектов.&lt;/p&gt;
-&lt;p&gt;Стартер используется для запуска двигателя бензопилы. Он может нуждаться в замене, если стало заметно, что бензопила трудно запускается или вообще не запускается. Можно купить все запчасти для бензопил в Москве с гарантией на них.&lt;/p&gt;
-&lt;p&gt;Правильное обслуживание и своевременная замена запчастей обеспечивают продолжительную и эффективную работу бензопилы. Важно помнить, что все работы по замене запчастей должны проводиться в соответствии с руководством по эксплуатации и с учетом всех мер безопасности.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить запчасти для бензопил по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Запчасти для бензопил: огромный выбор оригинальных и совместимых запчастей для бензопил различных марок и моделей. Быстрая доставка.</t>
-  </si>
-  <si>
-    <t>Запчасти для сварочного оборудования</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/qhlnm1y4pflcn6kvmrp4zd0dt741vc8q.jpeg</t>
-  </si>
-  <si>
-    <t>2021-06-22 11:03:58</t>
-  </si>
-  <si>
-    <t>2023-11-28 20:07:51</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Запчасти для сварочного оборудования в Москве&lt;/h2&gt;
-&lt;p&gt;Для профессионалов и любителей сварки поддержание сварочного оборудования в идеальном рабочем состоянии является ключевым аспектом успешной работы. В нашем ассортименте запчастей для сварочного оборудования вы найдете все необходимое для этого. Мы предлагаем широкий выбор качественных запчастей: от вилок и розеток кабельных для сварочных аппаратов до профессиональных сварочных горелок и электрододержателей.&lt;/p&gt;
-&lt;p&gt;Каждый элемент в этой категории тщательно отобран для обеспечения высокой производительности и надежности вашего сварочного оборудования. Наши изделия подходят как для профессионального использования, так и для личных сварочных проектов, где требуется точность и долговечность. У них долгий срок службы, что позволит сэкономить на покупке новых комплектующих.&lt;/p&gt;
-&lt;p&gt;Наши запчасти для сварочного оборудования предлагаются по отличной стоимости, что делает их доступными для всех категорий покупателей. В ассортименте нашего магазина вы найдете качественные компоненты, которые способствуют поддержанию вашего сварочного оборудования в идеальном рабочем состоянии, тем самым продлевая его эксплуатационный срок и повышая производительность. Можно купить качественные запчасти для сварочного оборудования в Москве с доставкой.&lt;/p&gt;
-&lt;p&gt;Покупая запчасти для сварочного оборудования в нашем магазине, вы обеспечиваете себе уверенность в качестве и надежности каждого сварочного соединения. Эти компоненты станут незаменимыми в вашем арсенале инструментов, обеспечивая стабильность и точность в каждом проекте. Ознакомьтесь с нашими запчастями для сварочного оборудования и убедитесь в их важности для вашей работы или хобби. В магазине «Бренд-Инструмент» всегда можно заказать инструмент по выгодным ценам и в кредит. У нас всегда выгодная стоимость и быстрая доставка по городу. Наши специалисты готовы ответить на все вопросы и помочь с выбором оборудования для любых задач.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить запчасти для сварочного оборудования по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Запчасти для сварочного оборудования - широкий выбор запчастей для сварочных аппаратов разных производителей. У нас вы найдете все необходимое для ремонта и обслуживания сварочного оборудования.</t>
-  </si>
-  <si>
-    <t>Запчасти для пил и фрезеров</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/439984.750x0.jpg</t>
-  </si>
-  <si>
-    <t>2021-06-22 11:20:00</t>
-  </si>
-  <si>
-    <t>2023-11-28 20:25:22</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Комплектующие для пил с доставкой и самовывозом в Москве&lt;/h2&gt;
-&lt;p&gt;Обновите и усовершенствуйте вашу пилу с нашим разнообразным ассортиментом запчастей. Мы предлагаем широкий выбор комплектующих, включая якоря для известных моделей Makita, чтобы ваш инструмент работал без сбоев и с максимальной эффективностью. Мы знаем, насколько важно быть уверенным в своем оборудовании. Особенно в тех случаях, когда оно эксплуатируется каждый день. Наша продукция специально подобрана для улучшения производительности и увеличения срока службы пил. Ассортимент постоянно обновляется и пополняется.&lt;/p&gt;
-&lt;p&gt;В нашем каталоге вы найдете запчасти, которые не только восстановят функциональность вашей пилы, но и повысят ее эффективность. Мы понимаем, что надежная пила – это основа успешной работы. Поэтому наш ассортимент ориентирован на предоставление качественных и долговечных компонентов. У нас всегда можно купить качественные запчасти для пил в Москве по выгодным ценам и с доставкой.&lt;br&gt;Наше предложение охватывает широкий спектр моделей пил, предоставляя вам легкий доступ к необходимым запчастям для любых задач. У нас есть подходящие компоненты для оборудования, которые помогут вам в ваших строительных и ремонтных проектах. Их долгий срок службы позволит сэкономить на покупке новых запчастей.&lt;/p&gt;
-&lt;p&gt;Выбирая запчасти для пил у нас, вы делаете ставку на качество и долговечность. Мы гарантируем, что каждый элемент нашего ассортимента способствует повышению эффективности и надежности вашего инструмента. Исследуйте наш ассортимент, чтобы найти идеальные запчасти, которые сделают вашу пилу более мощной и надежной. В магазине «Бренд-Инструмент» всегда можно заказать инструмент в кредит. У нас всегда отличная стоимость и быстрая доставка по городу. Наши консультанты готовы ответить на все вопросы.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить запчасти для пил и фрезеров по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Запчасти для пил и фрезеров: обеспечьте надежность и долговечность своего инструмента с качественными запчастями от Бренд-Инструмент. Широкий выбор и доступные цены!</t>
-  </si>
-  <si>
-    <t>Запчасти для заклепочников</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/fasty_PP1200_jaws_1600.jpeg</t>
-  </si>
-  <si>
-    <t>2021-07-01 16:11:22</t>
-  </si>
-  <si>
-    <t>2023-05-03 23:38:56</t>
-  </si>
-  <si>
-    <t>&lt;div class="category_bottom"&gt;
-&lt;h2&gt;Назначение и сфера применения&lt;/h2&gt;
-&lt;p&gt;Заклепочники используются в сфере ремонта и отделки. С их помощью соединяют разнообразные материалы при помощи заклепок. Они могут быть вытяжными или резьбовыми. Оба вида заклепок обеспечивают прочное и надежное крепление. В интернет-магазине "Бренд-Инструмент" предлагается приобрести запчасти для заклепочников. Они применяются при ремонте этого инструмента. Запасные части, имеющиеся в ассортименте, дадут возможность продлить срок эксплуатации заклепочника с минимальными затратами. Клиенты могут купить детали для универсальных инструментов, одно- и двуручных моделей и др.&lt;/p&gt;
-&lt;h2&gt;Преимущественные характеристики&lt;/h2&gt;
-&lt;p&gt;Поставляемые запчасти для заклепочников обладают следующими плюсами:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;высокий уровень прочности;&lt;/li&gt;
-&lt;li&gt;длительный срок эксплуатации;&lt;/li&gt;
-&lt;li&gt;надежность в использовании;&lt;/li&gt;
-&lt;li&gt;соответствие стандартам качества, действующим в Российской Федерации;&lt;/li&gt;
-&lt;li&gt;защищенность от негативного воздействия повышенной влажности;&lt;/li&gt;
-&lt;li&gt;привлекательная для заказчиков стоимость;&lt;/li&gt;
-&lt;li&gt;устойчивость к механическим воздействиям.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Сотрудники интернет-магазина "Бренд-Инструмент" помогут выбрать и заказать подходящие запчасти для заклепочников. В ассортименте есть как новые, так и подержанные детали.&lt;/p&gt;
-&lt;h2&gt;Плюсы магазина "Бренд-Инструмент"&lt;/h2&gt;
-&lt;p&gt;Клиенты выбирают сотрудничество с этим поставщиком благодаря тому, что он создал и поддерживает выгодные условия. В каталоге можно заказать запчасти для заклепочников, реализуемые по доступной цене. Сотрудники оказывают клиентам хорошую поддержку, помогая подобрать подходящие детали и оперативно выполняя заказы. Быстрая доставка – еще один плюс сотрудничества с интернет-магазином "Бренд-Инструмент".&lt;/p&gt;
-&lt;p&gt;Покупатели могут зарегистрировать на сайте личный кабинет. С его помощью можно быстро оставлять заявки на приобретение новых и подержанных инструментов, а также запчастей для них. Регистрация бесплатна и занимает мало времени. Постоянные клиенты участвуют в программе лояльности и получают возможность покупать инструментарий и детали со скидками. Магазин заинтересован в долгосрочном и плодотворном сотрудничестве.&lt;/p&gt;
-&lt;p&gt;Доставка по Москве осуществляется курьером при заказе товаров на сумму от 10 тысяч рублей. Доставка по регионам Российской Федерации осуществляется через транспортные компании. Обращайтесь к менеджерам интернет-магазина, чтобы получить больше информации и сделать заказ.&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Запчасти для заклепочников | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Запчасти для заклепочников - выбирайте запчасти для заклепочников из нашего каталога и обеспечьте надежную работу вашего инструмента.</t>
-  </si>
-  <si>
-    <t>Ножницы</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/img_rd786424_1.jpeg</t>
-  </si>
-  <si>
-    <t>2021-08-28 12:08:31</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:08:42</t>
-  </si>
-  <si>
-    <t>Купить ножницы аккумуляторные по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Ножницы аккумуляторные, механические, гидравлические, пневматические: широкий выбор ножниц для разных типов работ. Надежность и удобство в использовании.</t>
-  </si>
-  <si>
-    <t>Оптические нивелиры</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/f918f3a6b16962c60fe4254f8112fcce.jpeg</t>
-  </si>
-  <si>
-    <t>2021-08-30 09:37:44</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:25:05</t>
-  </si>
-  <si>
-    <t>Купить оптические нивелиры по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Оптические нивелиры: точное измерение высот и уклонов с нашими нивелирами. Высокое качество, надежность и доступные цены. Необходимый инструмент для геодезистов.</t>
-  </si>
-  <si>
-    <t>Дальномеры</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/CONDTROLXP4pro.jpeg</t>
-  </si>
-  <si>
-    <t>2021-08-30 09:44:37</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:22:54</t>
-  </si>
-  <si>
-    <t>Купить дальномеры по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Дальномеры - точность измерений и удобство использования - вот что отличает наши дальномеры. Выберите из широкого ассортимента и получайте наилучший результат.</t>
-  </si>
-  <si>
-    <t>Плазморезы</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/h9y896mlngyd4gtf1htdpio883kqkt3m.jpeg</t>
-  </si>
-  <si>
-    <t>2021-08-30 09:53:52</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:00:03</t>
-  </si>
-  <si>
-    <t>Купить плазморезы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Плазморезы - мощные и точные инструменты для резки металла. Выбирайте из нашего каталога плазморезы разных мощностей и размеров, чтобы получить идеальный результат.</t>
-  </si>
-  <si>
-    <t>Экструдеры сварочные</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/d8dbe18ed2a08009c43769010e063c62.jpeg</t>
-  </si>
-  <si>
-    <t>2021-08-30 09:57:02</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:59:25</t>
-  </si>
-  <si>
-    <t>Купить экструдеры сварочные по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Экструдеры сварочные - надежный инструмент для сварки пластмассовых изделий. Выберите экструдер из нашего каталога и получайте качественный результат.</t>
-  </si>
-  <si>
-    <t>Резаки</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/18e52f2977fd2f30c505b02f9ead4db6.jpeg</t>
-  </si>
-  <si>
-    <t>2021-08-30 09:59:50</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:00:33</t>
-  </si>
-  <si>
-    <t>Купить резаки по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Резаки - незаменимый инструмент для резки металла и других материалов. Выберите резак из нашего каталога и получайте качественный результат.</t>
-  </si>
-  <si>
-    <t>Полировальные машины</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/sturm_ag919cp_1275001_1.jpeg</t>
-  </si>
-  <si>
-    <t>2021-08-30 10:03:43</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:51:48</t>
-  </si>
-  <si>
-    <t>Купить полировальные машины по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полировальные машины: доведите поверхности до совершенства с нашим ассортиментом полировальных машин от известных брендов. </t>
-  </si>
-  <si>
-    <t>Граверы</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/168330.970.jpg</t>
-  </si>
-  <si>
-    <t>2021-08-30 10:33:16</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:20:46</t>
-  </si>
-  <si>
-    <t>Купить граверы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Граверы - незаменимый инструмент для резки и гравировки различных материалов. Выберите гравер из нашего каталога и получайте качественный результат.</t>
-  </si>
-  <si>
-    <t>Виброинструмент</t>
-  </si>
-  <si>
-    <t>2021-08-30 11:03:03</t>
-  </si>
-  <si>
-    <t>2023-07-24 22:57:08</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Виброинструменты&lt;/h2&gt;
-&lt;p&gt;Виброинструменты, включая бетонные вибраторы и виброплиты, являются неотъемлемой частью современного строительства, особенно при работе с бетоном и грунтом. Эти изделия обеспечивают эффективность и качество работ, предотвращая образование пустот и обеспечивая равномерное уплотнение. Они значительно сокращают время укладки плит или заливки бетона. Качественный виброинструмент с доставкой в Москве всегда можно купить в нашем каталоге.&lt;/p&gt;
-&lt;p&gt;Бетонные вибраторы используются для уплотнения бетонной смеси при заливке фундаментов, стен, колонн и других конструкций. Это приводит к улучшению качества бетонной поверхности, устранению воздушных пузырьков и повышению прочности бетона. Вибраторы могут быть внутренними или наружными, в зависимости от того, используются ли они внутри или снаружи бетонной формы. Можно купить виброинструмент в Москве по отличной стоимости для постройки дачи или дома.&lt;/p&gt;
-&lt;p&gt;Виброплиты – это мощные устройства, предназначенные для уплотнения грунта, песка и гравия. Они широко используются при строительстве дорог, тротуаров, фундаментов и ландшафтного дизайна. Виброплиты обеспечивают равномерное и плотное уплотнение поверхности, улучшают стабильность и снижают риск образования зазоров или провалов. Заказать такие изделия по выгодным условиям можно в нашем интернет-магазине с доставкой.&lt;/p&gt;
-&lt;p&gt;При выборе бетонного вибратора важно учитывать его тип, цену, мощность, амплитуду вибраций и длину гибкого вала. Тип вибратора определяется характером работ: для толстых слоев бетона обычно используются внутренние вибраторы, для более тонких – наружные.&lt;/p&gt;
-&lt;p&gt;Выбор виброплиты зависит от характеристик уплотняемого материала, площади обработки и требуемой глубины уплотнения. Важные параметры включают вес устройства, мощность, частоту вибраций и ширину рабочей пластины.&lt;/p&gt;
-&lt;p&gt;Бетонные вибраторы и виброплиты являются ключевыми инструментами на строительных площадках. Правильный выбор и использование этих устройств обеспечивают высокое качество работ и продлевают срок службы конструкций. Изучение их основных характеристик и принципов работы поможет строительным командам добиваться лучших результатов.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Купить виброинструмент по выгодным ценам в Москве | БРЕНД-Инструмент </t>
-  </si>
-  <si>
-    <t>Виброинструмент: широкий выбор виброинструмента для различных видов работ. От виброплит до виброрейок. Эффективность и надежность в одном месте.</t>
-  </si>
-  <si>
-    <t>Дрели ударные</t>
-  </si>
-  <si>
-    <t>2021-08-30 11:14:07</t>
-  </si>
-  <si>
-    <t>2022-06-16 17:32:12</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Выбирайте ударные
-электрические и аккумуляторные двери от «БРЕНД Инструмент»&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;Возможности сверления с применением удара значительно расширяют
-работоспособность обыкновенных дрелей. Это намного повысило их
-востребованность.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Виды ударных дрелей&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;В каталоге представлены модели ударных дрелей, различающихся источником
-питания:&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;сетевые. Отличаются повышенной мощностью, ими сверлят
-     бетон и камень;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;аккумуляторные. Аккумуляторные используются при
-     отсутствии электричества и при частых перемещениях.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 14px;"&gt;
-&lt;/span&gt;&lt;/ul&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;По напряжённости работы вы можете выбрать:&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;бытовые модели. Отличаются невысокой стоимостью и
-     небольшим весом;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;профессиональные. Отличаются высокой надёжностью и
-     могут работать продолжительное время.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;h2&gt;Использование
-ударной дрели&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;С помощью ударной дрели можно выполнять следующие работы:&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;Вкручивание и выкручивание шурупов и саморезов.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;Сверление отверстий в изделиях из камня, металла,
-     дерева.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;Нарезка резьбы в металлических предметах.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;Устройство отверстий в кирпиче или бетоне.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;h2&gt;Преимущества
-ударных дрелей&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;Этот инструмент имеет ряд преимуществ:&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;он компактный;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;многофункциональный;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;удобный в работе;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;имеет большое разнообразие образцов;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;имеет доступную стоимость и высокое качество;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;отличается повышенной работоспособностью;&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 14px;"&gt;
- &lt;/span&gt;&lt;li class="MsoNormal"&gt;&lt;span style="font-size: 14px;"&gt;может работать с различными материалами.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;&lt;span style="font-size: 14px;"&gt;
-&lt;/span&gt;&lt;/ul&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;При выборе ударной дрели в первую очередь нужно обратить внимание на мощность,
-масштаб и тип работы, для которой она предназначена, скорость вращения головки,
-наличие регулятора скоростей и отверстия каких диаметров она может сверлить.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Где купить ударную
-дрель&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;
-&lt;/p&gt;&lt;p&gt;&lt;span style="font-size: 14px;"&gt;Купить ударную дрель можно в интернет-магазине «БРЕНД Инструмент», который
-специализируется на реализации строительного оборудования и инструментов. Цена
-ударной дрели зависит от её технической характеристики, вида и
-компании-изготовителя. Оплата производится любым удобным для клиента способом.
-Доставка осуществляется доставка во все регионы России.&lt;/span&gt;&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить качественные ударные дрели от интернет-магазина «БРЕНД Инструмент»</t>
-  </si>
-  <si>
-    <t>В интернет-магазине «БРЕНД Инструмент» представлен большой выбор моделей ударных дрелей, работающих от сети или аккумулятора. При выборе вы можете воспользоваться консультацией менеджера.</t>
-  </si>
-  <si>
-    <t>Насосы</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/nasos_tsentrobejnyy_pedrollo_hf_70a.jpeg</t>
-  </si>
-  <si>
-    <t>2021-08-30 13:00:25</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:57:36</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Преимущества
-покупки насосных установок&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Под насосными установками подразумевают гидромашину, благодаря которой
-механическая энергия преобразовывается в энергию жидкостного потока. Внутри
-прибора присутствует мотор, который вращается. Именно от него передается
-энергия в жидкую среду. Цель использования оборудования – транспортировка
-жидкости. Чаще всего встречаются насосы, предназначенные для воды. Они способны
-функционировать с чистой средой, а также с загрязненной, которая содержит
-некоторые включения твердого типа. Водяной агрегат может применяться по отношению
-к горячей, холодной жидкости. Перекачивать не только воду, но и фреон,
-антифриз, другую жидкость может качественная насосная установка купить ее можно
-по доступной цене в интернет-магазине «БРЕНД-Инструмент».&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;h2&gt;Сфера применения&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;Гидравлические машины могут быть разными, их можно купить, чтобы
-использовать в различных сферах:&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
- &lt;li class="MsoNormal"&gt;сельское хозяйство. Насосы используют на земельных
-     участках. Для работ необходима вода. Например, важно вовремя поливать
-     растения, чтобы они нормально развивались. С помощью колодца или скважины
-     сложно обеспечить надлежащий уход. Здесь стоит использовать садовые
-     насосы. Электронасосы также понадобятся, чтобы подать раствор для побелки
-     деревьев, отсортировать воду, осушить подвал после подтопления;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;быт. Насосные установки позволят отвести грязную воду
-     от агрегатов сантехнического типа (дренажные), подать чистую воду из
-     скважин в систему водоснабжения (погружные), организовать движение по
-     отопительной линии (циркуляционные), осушить погреб (поверхностные). В
-     зависимости от выбранного типа будет изменяться цена насосных установок;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;другие сферы. Заказать насосы необходимо для таких
-     отраслей, как торговля, ЖКХ, строительство. Также техника поможет
-     упростить выполнение сложных решений в пищевой, машиностроительной,
-     добывающей, обрабатывающей, топливной промышленностях, во время
-     исследования земли.&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;h2&gt;Где купить насосные
-установки&lt;o:p&gt;&lt;/o:p&gt;&lt;/h2&gt;&lt;p&gt;На сайте интернет-магазина «БРЕНД-Инструмент» вы найдете много вариантов
-моделей насосов б/у, которые находятся в отличном состоянии. Каждая дизельная
-насосная установка купить которую можно на выгодных условиях, перед тем как
-попасть в каталог тщательно проверяется на работоспособность, поэтому вы можете
-не сомневаться в ее качестве. В магазине также можно приобрести все необходимые
-комплектующие по доступной стоимости. Преимущества сотрудничества с магазином:&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;&lt;ul type="disc"&gt;
- &lt;li class="MsoNormal"&gt;большой выбор продукции разных брендов, которая
-     находится в отличном состоянии;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;выгодные цены, благодаря которым каждый клиент сможет
-     приобрести все необходимое для ремонта;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;стоимость насосных установок б/у намного ниже, чем
-     новых;&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
- &lt;li class="MsoNormal"&gt;быстрое оформление заказа и возможность доставки к
-     месту назначения.&lt;o:p&gt;&lt;/o:p&gt;&lt;/li&gt;
-&lt;/ul&gt;&lt;p&gt;
-&lt;/p&gt;&lt;p&gt;При необходимости клиент может проконсультироваться со специалистом. Он
-подскажет, какая модель будет самой оптимальной для конкретного случая.&lt;o:p&gt;&lt;/o:p&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить насосные установки по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Насосные установки: Выбирайте качественные насосные установки для различных целей. Обеспечьте надежность и эффективность работы с нашими продуктами!</t>
-  </si>
-  <si>
-    <t>Мотопомпы</t>
-  </si>
-  <si>
-    <t>catalog/slides/images.jpeg</t>
-  </si>
-  <si>
-    <t>2021-08-30 13:02:22</t>
-  </si>
-  <si>
-    <t>2023-11-11 21:56:18</t>
-  </si>
-  <si>
-    <t>Купить Мотопомпы в Москве</t>
-  </si>
-  <si>
-    <t>Мотопомпы - эффективные и мощные устройства для перекачки воды. Отличный выбор для использования в домашних условиях и на производстве.</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/45d012ac9992d4bfae7caa33691a75bb.jpeg</t>
-  </si>
-  <si>
-    <t>2021-09-10 11:54:18</t>
-  </si>
-  <si>
-    <t>2023-04-26 22:49:13</t>
-  </si>
-  <si>
-    <t>Осветительное оборудование | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Осветительное оборудование: эффективные и экономичные решения для освещения рабочих зон, производственных помещений и бытовых условий.</t>
-  </si>
-  <si>
-    <t>герметизаторы</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/100024544121b0.jpeg</t>
-  </si>
-  <si>
-    <t>2021-09-11 09:55:49</t>
-  </si>
-  <si>
-    <t>2023-11-30 14:43:13</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Герметизаторы в Москве&lt;/h2&gt;
-&lt;p&gt;В строительстве и ремонте, где каждая деталь имеет значение, герметизаторы играют ключевую роль в обеспечении надежности и долговечности конструкций. Понимая это, мы предлагаем широкий ассортимент изделий, которые идеально подходят для различных задач: от бытовых до профессиональных.&lt;br&gt;&lt;/p&gt;
-&lt;p&gt;Наши герметизаторы отличаются высоким качеством и надежностью, обеспечивая превосходное сцепление и долговечное уплотнение. Будь то задачи по герметизации швов, стыков или соединений, наши продукты предоставляют идеальное решение, обеспечивая защиту от влаги, пыли и других внешних факторов. Можно купить надежные герметизаторы в Москве с доставкой.&lt;/p&gt;
-&lt;p&gt;Мы понимаем, что каждый проект уникален. Поэтому предлагаем товары различных типов и составов, чтобы удовлетворить самые разнообразные требования. Наш ассортимент включает в себя продукты, подходящие как для внутренних, так и для наружных работ, гарантируя высокую эффективность и долговечность в любых условиях. Изделия предлагаются по отличной стоимости. Они имеют долгий срок службы, что позволяет сэкономить средства на покупке новых деталей.&lt;/p&gt;
-&lt;p&gt;Выбирая герметизаторы у нас, вы выбираете продукцию, которая поможет вам достичь идеального результата в каждом проекте. Мы гарантируем, что наши изделия обеспечат надежное и долгосрочное уплотнение, улучшая общее качество и долговечность ваших работ.&lt;/p&gt;
-&lt;p&gt;Познакомьтесь с нашим ассортиментом герметизаторов и найдите идеальное решение для ваших нужд. Мы уверены, что наши продукты станут незаменимым элементом в вашем арсенале строительных и ремонтных материалов. В магазине «Бренд-Инструмент» всегда можно заказать инструмент по выгодным ценам и в кредит. У нас всегда выгодная стоимость и быстрая доставка по городу. Наши специалисты подскажут, что выбрать для определенных задач.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить герметизаторы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Герметизаторы: надежная защита от протечек и сквозняков. Широкий выбор продукции в интернет-магазине "Бренд-Инструмент".</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/9590804551dedd5b84ff6c3d89a46a92.jpeg</t>
-  </si>
-  <si>
-    <t>2021-09-11 13:11:53</t>
-  </si>
-  <si>
-    <t>2023-11-28 18:45:45</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;В ситуациях, где точное измерение температуры играет критическую роль, пирометры становятся неотъемлемым инструментом для специалистов. Эти приборы, способные измерять температуру на расстоянии, используются в широком спектре областей. Они незаменимы в промышленности для мониторинга температуры материалов, а также в строительстве и автомобильных сервисах для быстрого обнаружения тепловых аномалий и утечек, обеспечивая при этом точность и безопасность выполнения работ. У нас можно купить качественные пирометры в Москве со скидками.&lt;/p&gt;
-&lt;p&gt;Пирометры, доступные в ассортименте, отличаются высокой точностью измерений, надежностью и долговечностью. Эти устройства оснащены современными датчиками, способными быстро и точно фиксировать температурные показания, а также удобными дисплеями для легкого считывания результатов. Интуитивно понятные интерфейсы делают пирометры доступными для использования даже теми, кто впервые сталкивается с такого рода оборудованием.&lt;/p&gt;
-&lt;p&gt;Учитывая разнообразие задач, с которыми могут столкнуться пользователи, компания предлагает пирометры различных модификаций, обеспечивая выбор подходящего инструмента для конкретной задачи. Их долгий срок службы порадует владельцев. Независимо от того, нужен ли вам прибор для профессионального использования в промышленности или для периодических проверок в домашних условиях, вы найдете подходящее устройство.&lt;/p&gt;
-&lt;p&gt;Эти пирометры доступны для широкого круга потребителей. Их отличная стоимость позволяет сразу оснастить целую бригаду работников. Возможность оформления кредита прямо в магазине делает покупку еще более удобной, а квалифицированные консультанты всегда готовы помочь с выбором и ответить на любые вопросы.&lt;/p&gt;
-&lt;p&gt;Выбирая пирометр в нашем магазине, вы получаете не только качественный и надежный инструмент, но и надежного партнера, готового предложить лучшие решения для ваших измерительных задач. Наш ассортимент постоянно обновляется, чтобы предложить вам самые современные и эффективные решения в области измерительной техники. В магазине «Бренд-Инструмент» всегда можно заказать инструмент по выгодным ценам и в кредит. У нас всегда выгодная стоимость и быстрая доставка по городу. Наши консультанты готовы ответить на все вопросы.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить пирометры по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Пирометры - измеряйте температуру без контакта с поверхностью. Быстро и точно определите температуру с помощью наших пирометров.</t>
-  </si>
-  <si>
-    <t>Отвертки аккумуляторные</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/111_1.png</t>
-  </si>
-  <si>
-    <t>2021-09-15 12:36:08</t>
-  </si>
-  <si>
-    <t>2023-11-09 23:37:51</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Отвертки аккумуляторные&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить Отвертки аккумуляторные в Москве</t>
-  </si>
-  <si>
-    <t>Лазерные уровни</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/ffbc4f4ea1004ae3017c9068b293940b.jpeg</t>
-  </si>
-  <si>
-    <t>2022-04-24 16:36:43</t>
-  </si>
-  <si>
-    <t>2023-05-03 23:31:57</t>
-  </si>
-  <si>
-    <t>&lt;div class="category_bottom"&gt;
-&lt;h2&gt;Назначение и область использования&lt;/h2&gt;
-&lt;p&gt;В сфере строительства и ремонта используются лазерные уровни. Их используют для выравнивания различных объектов или строительных конструкций по отношению к вертикальной или горизонтальной плоскости. Лазерные нивелиры характеризуются повышенной точностью и удобнее в эксплуатации, чем обычные уровни. Их предлагается купить в интернет-магазине Бренд-Инструмент.&lt;/p&gt;
-&lt;h2&gt;Особенности конструкции&lt;/h2&gt;
-&lt;p&gt;Лазерный уровень состоит из корпуса, в котором имеется отсек для батареек. У нивелира присутствует окно вертикального луча, лазерного креста. На корпусе есть кнопка переключения линий. Еще у некоторых моделей имеется переключатель компенсатора. Простая конструкция обеспечивает надежность инструмента и упрощает его использование. Корпус изготавливается из прочного материала, характеризующегося стойкостью к негативному воздействию повышенной влажности. Для ухода за прибором рекомендуется использовать мягкую сухую ткань.&lt;/p&gt;
-&lt;h2&gt;Преимущественные характеристики&lt;/h2&gt;
-&lt;p&gt;В магазине Бренд-Инструмент предлагается купить лазерные уровни, которые обладают следующими плюсами:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;длительный срок эксплуатации;&lt;/li&gt;
-&lt;li&gt;привлекательная для покупателей цена;&lt;/li&gt;
-&lt;li&gt;высокая точность измерений;&lt;/li&gt;
-&lt;li&gt;безопасность в использовании при соблюдении правил, указанных производителем;&lt;/li&gt;
-&lt;li&gt;небольшие размеры и вес, облегчающие переноску нивелиров;&lt;/li&gt;
-&lt;li&gt;создание наглядных проекций;&lt;/li&gt;
-&lt;li&gt;обеспечение свободы рук;&lt;/li&gt;
-&lt;li&gt;функция автоматического выравнивания с помощью маятникового или электронного компенсатора;&lt;/li&gt;
-&lt;li&gt;большая скорость разметки, обеспечивающая экономию времени.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;На все поставляемые заказчикам лазерные уровни распространяется гарантия качества.&lt;/p&gt;
-&lt;h2&gt;Плюсы заказа в магазине Бренд-Инструмент&lt;/h2&gt;
-&lt;p&gt;Клиенты пользуются услугами этого поставщика, так как он заслужил безупречную репутацию. Среди плюсов выделяется быстрая доставка, помощь при выборе нового или бывшего в эксплуатации инструмента, хорошая поддержка. Магазин дает возможность заказать нивелиры ведущих производителей. У них доступная для клиентов стоимость. Расплатиться за продукцию предлагается одним из нескольких способов. Постоянные клиенты, зарегистрировавшие на сайте интернет-магазина личный кабинет, автоматически принимают участие в программе лояльности. Для них действуют скидки, так как компания ориентирована на долгосрочное и взаимовыгодное сотрудничество. Обращайтесь к представителям магазина, чтобы получить больше информации и купить лазерные уровни!&lt;/p&gt;&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Купить лазерные уровни по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лазерные уровни: обеспечьте точность и профессионализм в работе с нашим ассортиментом лазерных уровней от ведущих производителей. </t>
-  </si>
-  <si>
-    <t>Бензоинструмент</t>
-  </si>
-  <si>
-    <t>2022-06-11 13:12:11</t>
-  </si>
-  <si>
-    <t>2023-07-24 22:53:27</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Бензоинструменты&lt;/h2&gt;
-&lt;p&gt;Бензоинструменты, включая бензокосы, бензопилы и бензорезы, являются важными элементами оснащения для широкого круга задач: от садовых работ до промышленного строительства. Они обеспечивают мобильность, мощность и эффективность, делая их незаменимыми для многих профессий и хозяйств. К их выбору важно подходить внимательно. Можно заказать бензоинструмент по отличной стоимости в Москве в нашем интернет-магазине.&lt;/p&gt;
-&lt;p&gt;Бензокосы – это устройства, предназначенные для ухода за территориями, включая кошение травы, очистку от сорняков и обрезку кустарников. Они обладают мощностью и мобильностью, что делает их предпочтительными для больших участков и труднодоступных мест. Можно купить бензоинструмент в Москве по выгодным условиям в нашей компании с доставкой.&lt;/p&gt;
-&lt;p&gt;Бензопилы — это мощные и эффективные инструменты, используемые для резки древесины, включая деревья, бревна и доски. Они могут быть использованы в лесозаготовке, строительстве, садоводстве и других областях. Бензопилы предлагают высокую производительность и портативность, что делает их универсальным инструментом. Можно заказать их в Москве для работы на даче или для своего производства.&lt;/p&gt;
-&lt;p&gt;Бензорезы — это инструменты, используемые для резки различных материалов, включая бетон, камень, металл и стекло. Они используются в строительстве и ремонте дорог для быстрого и эффективного реза твердых материалов. Их цена может достигать нескольких десятков тысяч, но это качественный и надежный инструмент.&lt;/p&gt;
-&lt;p&gt;При выборе бензоинструмента важно учитывать его мощность, тип двигателя, вес и размеры, а также уровень шума и вибрации. Для профессионального использования обычно требуются более мощные инструменты с высокой производительностью, в то время как для домашних нужд подойдут более легкие и компактные модели.&lt;/p&gt;
-&lt;p&gt;Бензоинструменты, включая бензокосы, бензопилы и бензорезы, являются неотъемлемой частью многих профессий и бытовых операций. Их мощность, мобильность и эффективность делают их незаменимыми для выполнения множества задач, и правильный выбор этих инструментов способствует повышению продуктивности и безопасности работы.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить бензоинструмент по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Бензоинструмент - мощные и удобные инструменты для работы на открытом воздухе. У нас вы найдете бензопилы, бензокосилки, бензотриммеры и многое другое.</t>
-  </si>
-  <si>
-    <t>Металлорежущий инструмент</t>
-  </si>
-  <si>
-    <t>2022-06-11 13:42:48</t>
-  </si>
-  <si>
-    <t>2023-06-22 18:24:05</t>
-  </si>
-  <si>
-    <t>Купить металлорежущий инструмент по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Металлорежущий инструмент: высококачественные режущие инструменты для точной и быстрой обработки металлических поверхностей. Профессиональный выбор.</t>
-  </si>
-  <si>
-    <t>Крепежный инструмент</t>
-  </si>
-  <si>
-    <t>2022-06-11 13:50:30</t>
-  </si>
-  <si>
-    <t>2023-06-22 18:22:31</t>
-  </si>
-  <si>
-    <t>Купить крепежный инструмент по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Крепежный инструмент - качественные и прочные инструменты для крепления и монтажа. Упрощайте свою работу с помощью профессиональных инструментов.</t>
-  </si>
-  <si>
-    <t>Уборочная и моечная техника</t>
-  </si>
-  <si>
-    <t>2022-06-11 14:21:38</t>
-  </si>
-  <si>
-    <t>2023-04-27 00:11:33</t>
-  </si>
-  <si>
-    <t>Купить уборочная и моечная техника по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Уборочная и моечная техника: оптимальные решения для быстрой и качественной уборки помещений и территорий. Экономичность и удобство в использовании.</t>
-  </si>
-  <si>
-    <t>Компрессоры, насосы, вентиляторы</t>
-  </si>
-  <si>
-    <t>2022-06-11 15:46:31</t>
-  </si>
-  <si>
-    <t>2023-06-02 10:23:20</t>
-  </si>
-  <si>
-    <t>Купить компрессоры, насосы, вентиляторы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Компрессоры, насосы, вентиляторы: Огромный выбор компрессоров, насосов и вентиляторов различной мощности и производительности. Найдите идеальный вариант для своих нужд!</t>
-  </si>
-  <si>
-    <t>Столярно-слесарный инструмент</t>
-  </si>
-  <si>
-    <t>2022-06-11 17:30:59</t>
-  </si>
-  <si>
-    <t>2023-07-06 16:19:32</t>
-  </si>
-  <si>
-    <t>Купить столярно-слесарный инструмент по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Столярно-слесарный инструмент - все для работы с деревом и металлом. Надежные и удобные инструменты для профессионалов и начинающих мастеров.</t>
-  </si>
-  <si>
-    <t>Аккумуляторы, зарядные устройства</t>
-  </si>
-  <si>
-    <t>2022-06-12 10:13:14</t>
-  </si>
-  <si>
-    <t>2023-07-24 22:51:52</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Аккумуляторы и зарядные устройства&lt;/h2&gt;
-&lt;p&gt;Аккумуляторы и зарядные устройства являются неотъемлемыми элементами аккумуляторного инструмента, обеспечивая его автономную работу. Правильный выбор этих компонентов важен для обеспечения эффективности работы и продолжительности службы инструмента. Рынок предлагает большой выбор моделей и брендов. Качественные аккумуляторы и зарядные устройства всегда можно заказать в Москве в нашем каталоге.&lt;/p&gt;
-&lt;p&gt;Аккумуляторы для инструментов представляют собой устройства, которые накапливают и выдают электрическую энергию для работы инструмента. Существуют различные типы аккумуляторов, включая никель-кадмиевые (NiCd), никель-металл-гидридные (NiMH) и литий-ионные (Li—Ion) аккумуляторы. Они отличаются емкостью, временем работы, скоростью зарядки, весом и долговечностью. Можно купить аккумуляторы и зарядные устройства в Москве сразу нескольких типов.&lt;/p&gt;
-&lt;p&gt;Зарядные устройства, цена которых приятно удивит покупателей, необходимы для поддержания работоспособности аккумуляторов, обеспечивая их своевременную зарядку. Существуют быстрые, универсальные, автоматические и интеллектуальные зарядные устройства, которые отличаются скоростью зарядки, функциональностью и уровнем защиты от перегрузки и переразрядки. Можно заказать по выгодным условиям сразу несколько моделей. Их отличная стоимость не ударит по бюджету.&lt;/p&gt;
-&lt;p&gt;При выборе аккумулятора для инструмента важно учитывать его емкость, вес, скорость зарядки и совместимость с инструментом. Для тяжелых и длительных работ подойдут аккумуляторы большой емкости, в то время как для легких и коротких работ подойдут аккумуляторы меньшей емкости.&lt;/p&gt;
-&lt;p&gt;Выбор зарядного устройства зависит от типа аккумулятора, его емкости и требуемой скорости зарядки. Важно также учитывать функции защиты от перегрузки и переразрядки, которые помогают продлить срок службы аккумулятора. Купить изделия в Москве можно как для использования на производстве, так и для бытовых целей.&lt;/p&gt;
-&lt;p&gt;Аккумуляторы и зарядные устройства играют ключевую роль в работе аккумуляторного инструмента. Правильный выбор этих компонентов обеспечивает эффективность работы и продлевает срок службы инструмента. Понимание основных характеристик и принципов работы аккумуляторов и зарядных устройств помогает сделать правильный выбор и оптимизировать рабочий процесс.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить аккумуляторы, зарядные устройства по выгодным ценам в Москве</t>
-  </si>
-  <si>
-    <t>Аккумуляторы, Зарядные Устройства в интернет магазине Бренд Инструмент! ♕ Самые доступные цены на товары для строительства и ремонта! ✸ Звоните по телефону ☎ 8 (800) 550 78 85. Наши менеджеры проконсультируют вас по всем вопросам! ✌</t>
-  </si>
-  <si>
-    <t>Газосигнализатор</t>
-  </si>
-  <si>
-    <t>catalog/piktogrammi/6546.970.jpg</t>
-  </si>
-  <si>
-    <t>2022-06-12 14:13:37</t>
-  </si>
-  <si>
-    <t>2023-11-28 19:56:11</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Газосигнализаторы, представленные в нашем ассортименте, являются ключевым элементом в обеспечении безопасности как в домашних, так и в промышленных условиях. Эти устройства, разработанные для обнаружения утечек газа, играют важную роль в защите жизни и здоровья людей в условиях, где существует риск газовой опасности. Каждый газосигнализатор в нашем каталоге имеет долгий срок службы и отличную стоимость, что понравится любителям качественного инструмента.&lt;br&gt;&lt;/p&gt;
-&lt;p&gt;Мы предлагаем модели, которые сочетают высокую чувствительность, надежность и удобство использования. Они подходят для различных сценариев применения, от мониторинга газовых уровней на производственных объектах до обеспечения безопасности в домашних условиях. Наш широкий выбор устройств позволяет удовлетворить разнообразные потребности и требования клиентов. Можно купить качественный газосигнализатор в Москве по выгодной цене.&lt;/p&gt;
-&lt;p&gt;Приобретение газосигнализатора в нашем магазине удобно и доступно благодаря конкурентоспособным ценам и возможности оформления кредита. Каждое устройство в этой категории разработано с учетом максимальной эффективности. Это делает их важным вкладом в безопасность. Модели компактны и надежны в своей работе.&lt;/p&gt;
-&lt;p&gt;Выбор газосигнализатора из нашего ассортимента обеспечивает защиту и спокойствие. Эти устройства служат надежными охранниками вашего дома или рабочего пространства, предотвращая риски, связанные с газовыми утечками. Ознакомьтесь с нашими газосигнализаторами и убедитесь в их критической важности для вашей безопасности. В магазине «Бренд-Инструмент» всегда можно заказать инструмент по выгодным ценам и в кредит. У нас всегда выгодная стоимость и быстрая доставка по городу. Наши консультанты готовы ответить на все вопросы.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить газосигнализаторы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Газосигнализатор: В категории "Газосигнализатор" представлены надежные и качественные приборы для обнаружения утечек газа. Защитите свой дом или предприятие от возможных аварий. Выгодные цены, быстрая доставка и гарантия от производителя.</t>
-  </si>
-  <si>
-    <t>Фальцеосадочные машины,кромкорезы</t>
-  </si>
-  <si>
-    <t>2022-06-12 18:23:04</t>
-  </si>
-  <si>
-    <t>2023-07-06 15:57:08</t>
-  </si>
-  <si>
-    <t>Купить фальцеосадочные машины,кромкорезы по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Фальцеосадочные машины, кромкорезы: Улучшите качество обработки кромок с помощью наших фальцеосадочных машин и кромкорезов. Профессиональный результат гарантирован!</t>
-  </si>
-  <si>
-    <t>Дрели и шуруповерты</t>
-  </si>
-  <si>
-    <t>2022-06-12 18:40:57</t>
-  </si>
-  <si>
-    <t>2023-07-24 23:03:56</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Дрели и шуруповерты&lt;/h2&gt;
-&lt;p&gt;Дрели и шуруповерты – это ключевые инструменты, которые используются во многих отраслях: от строительства до мебельного производства. Понимание их основных характеристик, применений и критериев выбора помогает обеспечить эффективность работы и качество выполненных работ. Это дает возможность выбрать модели, которые точно подойдут под требования владельца. Качественные дрели и шуруповерты по отличной стоимости можно заказать в Москве в нашем интернет-магазине.&lt;/p&gt;
-&lt;p&gt;Дрели – это мощные инструменты, используемые для сверления отверстий в различных материалах, включая древесину, металл, пластик и бетон. Они могут быть сетевыми, аккумуляторными или пневматическими и обычно оснащены регулируемой скоростью вращения и функцией ударного сверления для работы с твердыми материалами. Можно купить дрели и шуруповерты в Москве по выгодным условиям для производства или бытовых нужд.&lt;/p&gt;
-&lt;p&gt;Шуруповерты – это устройства, предназначенные для закручивания и откручивания винтов. Они обычно бывают аккумуляторными, обеспечивают мобильность и удобство использования. Шуруповерты оснащаются регулируемым крутящим моментом и вращающимся патроном, что позволяет использовать их с различными насадками и битами. Заказать такой инструмент по отличной цене можно для мастерских или дома.&lt;/p&gt;
-&lt;p&gt;При выборе дрели важно учитывать ее мощность, скорость вращения, функцию ударного сверления и тип питания. Для профессионального использования подойдут мощные сетевые дрели, а для домашних нужд или работ в труднодоступных местах – аккумуляторные модели.&lt;/p&gt;
-&lt;p&gt;Выбор шуруповерта зависит от его мощности, регулировки крутящего момента, времени работы от аккумулятора и комплектации. Часто выбор зависит от конкретных задач: для монтажа мебели подойдет компактный шуруповерт с набором бит, а для строительных работ – мощная модель с длительным временем работы от аккумулятора.&lt;/p&gt;
-&lt;p&gt;Дрели и шуруповерты, купить которые можно в нашем интернет-магазине, это незаменимые инструменты в строительстве и ремонте. Их правильный выбор и использование помогают справиться с множеством задач и обеспечивают эффективность работы. Комплексное понимание основных характеристик и применений этих инструментов является ключом к успешной работе.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить дрели и шуруповерты по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Дрели и шуруповерты - незаменимые инструменты для работы с деревом, металлом и другими материалами. В нашем каталоге вы найдете дрели и шуруповерты разных мощностей и размеров.</t>
-  </si>
-  <si>
-    <t>Гидравлика и пресс-инструмент</t>
-  </si>
-  <si>
-    <t>2022-06-12 18:50:47</t>
-  </si>
-  <si>
-    <t>2023-07-24 23:01:34</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Гидравлика и пресс-инструмент&lt;/h2&gt;
-&lt;p&gt;Гидравлические и пресс-инструменты используются в различных областях промышленности и строительства, обеспечивая высокую эффективность и точность выполнения работы. Эти инструменты основываются на использовании силы давления для выполнения специфических задач. Они применяются в разных сферах, включая ремонт машин и тяжелую промышленность. Покупать такие изделия, как гидравлика и пресс-инструмент, стоит покупать вместе с комплектом запасных частей в одном месте.&lt;/p&gt;
-&lt;p&gt;Гидравлический инструмент работает на основе законов гидравлики, где сила передается через жидкость. Основными преимуществами таких инструментов являются их высокая мощность и способность обрабатывать тяжелые грузы. Выгодно купить гидравлику и пресс инструмент в Москве можно в нашем каталоге.&lt;/p&gt;
-&lt;p&gt;Гидравлические инструменты включают в себя гидравлические домкраты, цилиндры, насосы, гидравлические ножницы и многое другое. Они широко используются в автомобильной отрасли, строительстве, судостроении и других областях, где требуется поднять или переместить тяжелые грузы. Купить такие изделия в Москве можно с гарантией в нашем интернет-магазине. Их цена позволяет заказать все необходимое сразу.&lt;/p&gt;
-&lt;p&gt;Пресс-инструменты используются для приложения большого давления к объекту с целью его деформации или разрезания. Эти инструменты используются в широком диапазоне приложений — от металлообработки до полиграфии.&lt;/p&gt;
-&lt;p&gt;Пресс-инструменты включают в себя гидравлические прессы, пневматические прессы, механические прессы и другие. В зависимости от специфики работы они могут быть оснащены различными насадками и матрицами. Заказать такие изделия по выгодным условиям можно с доставкой. А отличная стоимость позволит приобрести все нужное для производства или мастерской.&lt;/p&gt;
-&lt;p&gt;Гидравлический и пресс-инструмент — это два вида инструментов, использующих давление для выполнения своих функций. Гидравлические инструменты используют силу жидкости для передачи давления, а пресс-инструменты используют механическое давление для деформации или разрезания материалов. Правильный выбор инструмента зависит от конкретных требований к задаче и может значительно увеличить эффективность работы.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить гидравлика и пресс-инструмент по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Гидравлика и пресс-инструмент: качественное оборудование для эффективной работы. Выбирайте из широкого ассортимента в магазине "Бренд-Инструмент".</t>
-  </si>
-  <si>
-    <t>Гайковёрты, винтовёрты</t>
-  </si>
-  <si>
-    <t>2022-06-12 18:51:56</t>
-  </si>
-  <si>
-    <t>2023-07-24 22:58:07</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Гайковерты и винтоверты&lt;/h2&gt;
-&lt;p&gt;Винтоверты и гайковерты являются неотъемлемыми инструментами в строительстве, автомобильной промышленности, мебельном производстве и ряде других областей. Понимание особенностей каждого из этих инструментов и критериев их выбора может помочь увеличить эффективность работы и продлить срок службы оборудования. Их часто покупают для гаражных работ и ремонта. Качественные гайковерты и винтоверты можно купить в Москве по отличной цене в нашем интернет-магазине.&lt;/p&gt;
-&lt;p&gt;Винтоверт — это электрический инструмент, предназначенный для работы с винтами и шурупами. Используется для установки или снятия винтов при монтаже мебели, электроники, строительстве и ремонте. Винтоверты могут быть сетевыми или аккумуляторными, что позволяет выбирать подходящий инструмент в зависимости от требований к мобильности и продолжительности работы. Можно купить гайковерты и винтоверты в Москве по выгодным условиям и цене для своего производства.&lt;/p&gt;
-&lt;p&gt;Гайковерт — это более мощный инструмент, используемый для закручивания и откручивания гаек, болтов и других крепежных элементов. Гайковерты могут быть пневматическими, электрическими или аккумуляторными и находят широкое применение в автомобильной промышленности, строительстве и тяжелой промышленности. Инструмент предлагается по отличной стоимости, что позволяет оснастить свою мастерскую без вреда для бюджета.&lt;/p&gt;
-&lt;p&gt;При выборе винтоверта следует учитывать его мощность, наличие регулировки крутящего момента, тип питания и комплектацию. Для профессионального использования предпочтительны модели с высокой мощностью и регулировкой крутящего момента, в то время как для домашних нужд подойдут более простые и легкие винтоверты.&lt;/p&gt;
-&lt;p&gt;Выбор гайковерта зависит от его мощности, максимального крутящего момента, скорости вращения и типа питания. Для тяжелых промышленных работ предпочтительнее купить более мощные модели, в то время как для более легких и точных задач подойдут менее мощные гайковерты.&lt;/p&gt;
-&lt;p&gt;Винтоверты и гайковерты, которые можно заказать в нашем каталоге, играют ключевую роль во многих профессиональных и бытовых ситуациях. Правильный выбор этих инструментов обеспечивает эффективность работы, долговечность инструмента и высокое качество выполненных работ. Изучение особенностей каждого типа инструмента и понимание требований конкретной задачи помогут сделать правильный выбор.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить гайковёрты, винтовёрты по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Гайковерты, винтоверты: эффективные и мощные инструменты для крепления и монтажа различных конструкций. Профессиональное качество и долговечность.</t>
-  </si>
-  <si>
-    <t>Заклепочники</t>
-  </si>
-  <si>
-    <t>catalog/05.07.22/1006.jpg</t>
-  </si>
-  <si>
-    <t>2022-07-05 19:26:48</t>
-  </si>
-  <si>
-    <t>2023-05-14 19:02:32</t>
-  </si>
-  <si>
-    <t>&lt;div class="category_bottom"&gt;
-&lt;h2&gt;Назначение и область применения&lt;/h2&gt;
-&lt;p&gt;В отрасли ремонта используются заклепочники. Этот инструмент дает возможность быстро устанавливать резьбовые и вытяжные заклепки. С его помощью соединяют разные виды материалов. В интернет-магазине "Бренд-Инструмент" присутствуют электрические и пневматические заклепочники, характеризующиеся надежностью и высокой производительностью, удобством в работе и безопасностью.&lt;/p&gt;
-&lt;h2&gt;Преимущественные особенности&lt;/h2&gt;
-&lt;p&gt;В интернет-магазине "Бренд-Инструмент" можно купить заклепочники, которые обладают следующими преимуществами:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;бесперебойная работа от аккумулятора, сети или компрессора;&lt;/li&gt;
-&lt;li&gt;высокая производительность, помогающая ускорить выполнение работ;&lt;/li&gt;
-&lt;li&gt;привлекательная для клиентов цена;&lt;/li&gt;
-&lt;li&gt;легкий доступ к щеткам двигателя для их замены (у электрических моделей);&lt;/li&gt;
-&lt;li&gt;надежная конструкция, обеспечивающая долговечность инструмента;&lt;/li&gt;
-&lt;li&gt;возможность работы одной рукой;&lt;/li&gt;
-&lt;li&gt;скоба для крепления заклепочника к монтажному поясу;&lt;/li&gt;
-&lt;li&gt;автоматическое выталкивание отработанных стержней;&lt;/li&gt;
-&lt;li&gt;расположение сменной оснастки на корпусе;&lt;/li&gt;
-&lt;li&gt;гарантированное производителем качество.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;h2&gt;Что учитывать при выборе&lt;/h2&gt;
-&lt;p&gt;Покупая заклепочники, во внимание принимают их производительность, габаритные размеры и вес, параметры заклепок, на которые рассчитан инструмент. Важные характеристики – это мощность, длина кабеля, емкость батареи, сила вытягивания, наличие или отсутствие реверса. Представители интернет-магазина "Бренд-Инструмент" помогут выбрать подходящие заклепочники и оперативно выполнят заказ.&lt;/p&gt;
-&lt;p&gt;Клиенты выбирают магазин, чтобы купить новый и бывший в эксплуатации инструмент по следующим причинам:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;привлекательная стоимость;&lt;/li&gt;
-&lt;li&gt;широкий ассортимент товаров;&lt;/li&gt;
-&lt;li&gt;хорошая поддержка клиентов;&lt;/li&gt;
-&lt;li&gt;быстрая доставка по Москве курьерской службой;&lt;/li&gt;
-&lt;li&gt;возможность заказать поставки в регионы через транспортные компании;&lt;/li&gt;
-&lt;li&gt;удобный личный кабинет;&lt;/li&gt;
-&lt;li&gt;привлекательная стоимость без комиссий посредников.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Рекомендуется связаться с представителями интернет-магазина "Бренд-Инструмент", чтобы получить больше информации об условиях сотрудничества и сделать заказ. Доступные цены обусловлены тем, что руководство компании ориентировано на долгосрочное и взаимовыгодное сотрудничество с клиентами. Расплатиться за заказ можно наличными в магазине, воспользоваться услугой безналичного расчета или заплатить с помощь карты.&lt;/p&gt;
-&lt;/div&gt;</t>
-  </si>
-  <si>
-    <t>Купить заклепочники по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Заклепочники: отличный выбор профессиональных и бытовых заклепочников от ведущих производителей. Надежность и удобство использования гарантированы.</t>
-  </si>
-  <si>
-    <t>Триммеры</t>
-  </si>
-  <si>
-    <t>catalog/slides/56292fed524d9b9575b053d9ec27dc7e.jpeg</t>
-  </si>
-  <si>
-    <t>2022-09-03 14:06:05</t>
-  </si>
-  <si>
-    <t>2023-11-11 22:08:02</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;b&gt;Триммеры&lt;/b&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить триммеры по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Триммеры: быстро и аккуратно ухаживайте за газонами и зелеными насаждениями. Выбирайте лучшие модели в "Бренд-Инструмент".</t>
-  </si>
-  <si>
-    <t>Автооборудование</t>
-  </si>
-  <si>
-    <t>2022-09-06 10:47:27</t>
-  </si>
-  <si>
-    <t>2023-07-24 22:48:23</t>
-  </si>
-  <si>
-    <t>&lt;h2&gt;Автооборудование&lt;/h2&gt;
-&lt;p&gt;Автооборудование стало жизненно важным элементом для всех автовладельцев и профессионалов в этой области. Это не просто набор инструментов или устройств, а реальная возможность поддерживать автомобиль в отличном состоянии, решать проблемы на месте и обеспечивать безопасность путешествий.&lt;/p&gt;
-&lt;p&gt;Аппарат для проверки цвета играет важную роль не только в автомобильной отрасли, но и во многих других, где точность цветопередачи стала ключевым элементом качества. Это устройство позволяет определить точность цветопередачи и сравнить цвета между двумя объектами. Важно заранее знать, где купить качественное автооборудование в Москве и области. Оно помогает обеспечить идеальное соответствие цвета при покраске автомобиля, что важно для сохранения его эстетической привлекательности и стоимости на рынке.&lt;/p&gt;
-&lt;p&gt;Категория инструментов для автомобилей включает широкий спектр устройств, используемых для ремонта, обслуживания и диагностики автомобилей. Их отличная стоимость позволяет купить все необходимое сразу. В этот список можно включить всё — от ключей и головок до диагностических сканеров и дошиповальных пистолетов. Они представляют собой важные инструменты для механиков и автолюбителей, которые помогают им выполнить разнообразные работы на автомобиле, от ремонта до регулярного технического обслуживания.&lt;/p&gt;
-&lt;p&gt;Наборы инструментов, которые можно выбрать в каталоге по ссылке https://brendinstrument.ru/avtooborudovanie, являются удобным и практичным решением для тех, кто хочет иметь все необходимое под рукой. Это автооборудование включать в себя разнообразные предметы, от различных размеров ключей до отверток. Их цена приятно удивит покупателей. Наборы инструментов часто предлагаются в различных конфигурациях, что позволяет автовладельцам и механикам выбирать наборы, наиболее подходящие для их специфических задач.&lt;/p&gt;
-&lt;p&gt;Электроника и устройства, такие как магнитолы, диагностические сканеры и балансировочные станки, необходимы для полноценной эксплуатации автомобилей. Их можно заказать в Москве в нашем каталоге по выгодным условиям с доставкой. Они используются в автомобильной индустрии и автосервисах, где требуется высококачественное электронное оборудование.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить автооборудование по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Автооборудование - все для ремонта и обслуживания вашего автомобиля. Выбирайте качественное автооборудование от ведущих производителей.</t>
-  </si>
-  <si>
-    <t>Ручные измерительные инструменты</t>
-  </si>
-  <si>
-    <t>catalog/slides/028_1.jpeg</t>
-  </si>
-  <si>
-    <t>2022-09-06 20:04:43</t>
-  </si>
-  <si>
-    <t>2023-11-11 22:04:49</t>
-  </si>
-  <si>
-    <t>Купить ручные измерительные инструменты по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Ручные измерительные инструменты - незаменимые помощники для точных измерений. У нас вы найдете широкий выбор линеек, угольников, микрометров и других инструментов.</t>
-  </si>
-  <si>
-    <t>Пилы дисковые аккумуляторные</t>
-  </si>
-  <si>
-    <t>2022-09-20 18:47:35</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:40:08</t>
-  </si>
-  <si>
-    <t>Купить пилы дисковые аккумуляторные по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Пилы дисковые аккумуляторные: портативные и мощные инструменты для быстрой и аккуратной резки различных материалов. Удобство и производительность.</t>
-  </si>
-  <si>
-    <t>Ручной инструмент</t>
-  </si>
-  <si>
-    <t>2022-10-04 11:14:25</t>
-  </si>
-  <si>
-    <t>2023-04-26 23:48:35</t>
-  </si>
-  <si>
-    <t>Купить ручной инструмент по выгодным ценам в Москве | БРЕНД-Инструмент</t>
-  </si>
-  <si>
-    <t>Ручной инструмент: В нашем магазине представлен широкий выбор ручного инструмента для любых задач. Выбирайте качество и надежность!</t>
-  </si>
-  <si>
-    <t>2023-04-27 11:23:57</t>
-  </si>
-  <si>
-    <t>2023-11-09 23:39:27</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Разное&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить различные товары для стройки в Москве</t>
-  </si>
-  <si>
-    <t>Горелки</t>
-  </si>
-  <si>
-    <t>catalog/slides/img210_36137.jpeg</t>
-  </si>
-  <si>
-    <t>2023-07-28 18:00:09</t>
-  </si>
-  <si>
-    <t>2023-11-11 22:10:29</t>
-  </si>
-  <si>
-    <t>Купить горелки в Москве по выгодным ценам</t>
-  </si>
-  <si>
-    <t>Горелки - широкий ассортимент горелок различного типа и назначения. Выбирайте качественные и надежные горелки для выполнения работ любой сложности.</t>
-  </si>
-  <si>
-    <t>Садовая техника</t>
-  </si>
-  <si>
-    <t>2023-08-29 13:31:35</t>
-  </si>
-  <si>
-    <t>2023-11-09 23:19:52</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Садовая техника&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>Купить садовую технику в Москве</t>
-  </si>
-  <si>
-    <t>filter_group_id</t>
-  </si>
-  <si>
-    <t>filter_id</t>
-  </si>
-  <si>
-    <t>store_id</t>
-  </si>
-  <si>
-    <t>keyword(ru-ru)</t>
-  </si>
-  <si>
-    <t>niveliry-i-urovni</t>
-  </si>
-  <si>
-    <t>perforatory</t>
-  </si>
-  <si>
-    <t>sroitelnye-pylesosy</t>
-  </si>
-  <si>
-    <t>teplovye-pushki</t>
-  </si>
-  <si>
-    <t>gajkoverty</t>
-  </si>
-  <si>
-    <t>dreli</t>
-  </si>
-  <si>
-    <t>svarochnye-apparaty</t>
-  </si>
-  <si>
-    <t>lobziki-i-nozhnicy</t>
-  </si>
-  <si>
-    <t>shlifovalnye-mashiny</t>
-  </si>
-  <si>
-    <t>otbojnye-molotki</t>
-  </si>
-  <si>
-    <t>frezernyj-instrument</t>
-  </si>
-  <si>
-    <t>shtroborezy</t>
-  </si>
-  <si>
-    <t>shurupoverty-akkumulyatornye</t>
-  </si>
-  <si>
-    <t>pily</t>
-  </si>
-  <si>
-    <t>jelektrostancii</t>
-  </si>
-  <si>
-    <t>stroitelnye-pistolety</t>
-  </si>
-  <si>
-    <t>zarjadnye-ustrojstva</t>
-  </si>
-  <si>
-    <t>kejsy-i-nabory</t>
-  </si>
-  <si>
-    <t>instrumenty-na-zapchasti</t>
-  </si>
-  <si>
-    <t>professionalnyj-jelektroinstrument</t>
-  </si>
-  <si>
-    <t>ugloshlifovalnye-mashiny</t>
-  </si>
-  <si>
-    <t>ustanovki-almaznogo-bureniya</t>
-  </si>
-  <si>
-    <t>miksery</t>
-  </si>
-  <si>
-    <t>rubanki</t>
-  </si>
-  <si>
-    <t>feny</t>
-  </si>
-  <si>
-    <t>plitkorezy-elektricheskie</t>
-  </si>
-  <si>
-    <t>mojki</t>
-  </si>
-  <si>
-    <t>pressovyj-instrument</t>
-  </si>
-  <si>
-    <t>pily-diskovye</t>
-  </si>
-  <si>
-    <t>pily-torcovochnye</t>
-  </si>
-  <si>
-    <t>benzopily</t>
-  </si>
-  <si>
-    <t>akkumulyatornye-batarei</t>
-  </si>
-  <si>
-    <t>steplery</t>
-  </si>
-  <si>
-    <t>rezbonareznoj-instrument</t>
-  </si>
-  <si>
-    <t>cepnye-elektricheskie</t>
-  </si>
-  <si>
-    <t>kraskopulty-i-okrasochnye-apparaty</t>
-  </si>
-  <si>
-    <t>benzorezy</t>
-  </si>
-  <si>
-    <t>benzobur</t>
-  </si>
-  <si>
-    <t>rasshiritelnyj-instrument</t>
-  </si>
-  <si>
-    <t>kompressory</t>
-  </si>
-  <si>
-    <t>payalniki-dlya-polipropilenovyh-trub</t>
-  </si>
-  <si>
-    <t>tochilnye-stanki</t>
-  </si>
-  <si>
-    <t>shurupoverty-setevye</t>
-  </si>
-  <si>
-    <t>vibroplity</t>
-  </si>
-  <si>
-    <t>sverlilnye-stanki</t>
-  </si>
-  <si>
-    <t>plitkorezy-mehanicheskie</t>
-  </si>
-  <si>
-    <t>shlifmashiny-lentochnye</t>
-  </si>
-  <si>
-    <t>shlifmashiny-vibracionnye</t>
-  </si>
-  <si>
-    <t>pryamoshlifovalnye-mashiny</t>
-  </si>
-  <si>
-    <t>shlifmashiny-ekscentrikovye</t>
-  </si>
-  <si>
-    <t>testery-detektory-izmeritelnye-pribory</t>
-  </si>
-  <si>
-    <t>vibratory</t>
-  </si>
-  <si>
-    <t>plitkorezy</t>
-  </si>
-  <si>
-    <t>shlifmashiny</t>
-  </si>
-  <si>
-    <t>pily-sabelnye</t>
-  </si>
-  <si>
-    <t>shurupoverty</t>
-  </si>
-  <si>
-    <t>multituly-renovatory</t>
-  </si>
-  <si>
-    <t>pily-alligatornye</t>
-  </si>
-  <si>
-    <t>pirometry</t>
-  </si>
-  <si>
-    <t>pily-montazhnye</t>
-  </si>
-  <si>
-    <t>pily-lentochnye</t>
-  </si>
-  <si>
-    <t>pily-pogruzhnye</t>
-  </si>
-  <si>
-    <t>minipily</t>
-  </si>
-  <si>
-    <t>trubogiby-truborezy-strubciny</t>
-  </si>
-  <si>
-    <t>perforatory-rashodnye-materialy</t>
-  </si>
-  <si>
-    <t>almaz-prinadlezhnosti</t>
-  </si>
-  <si>
-    <t>valcovki</t>
-  </si>
-  <si>
-    <t>vintoverty</t>
-  </si>
-  <si>
-    <t>dozatory</t>
-  </si>
-  <si>
-    <t>pily-prinadlezhnosti</t>
-  </si>
-  <si>
-    <t>kamnereznye-stanki</t>
-  </si>
-  <si>
-    <t>plitkorezy-rashodnye-materialy</t>
-  </si>
-  <si>
-    <t>nabory-klyuchej-i-instrumentov</t>
-  </si>
-  <si>
-    <t>gruzopodjemnye-ustrojstva</t>
-  </si>
-  <si>
-    <t>pistolety-dlya-vyazki-armatury</t>
-  </si>
-  <si>
-    <t>kromkorez</t>
-  </si>
-  <si>
-    <t>press-kleschi-mehanicheskie</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>rashodnye-materialy</t>
-  </si>
-  <si>
-    <t>pnevmoinstrumenty</t>
-  </si>
-  <si>
-    <t>teodolity</t>
-  </si>
-  <si>
-    <t>snegouborochnye</t>
-  </si>
-  <si>
-    <t>schetochnaya-shlifmashina</t>
-  </si>
-  <si>
-    <t>kustorezy</t>
-  </si>
-  <si>
-    <t>falceosadochnye-mashiny</t>
-  </si>
-  <si>
-    <t>ushm-s-regulyatorom-oborotov</t>
-  </si>
-  <si>
-    <t>nastolnye-pily</t>
-  </si>
-  <si>
-    <t>upakovschiki</t>
-  </si>
-  <si>
-    <t>santehnika</t>
-  </si>
-  <si>
-    <t>komplekt-instrumenta</t>
-  </si>
-  <si>
-    <t>betonosmesiteli</t>
-  </si>
-  <si>
-    <t>dvigateli</t>
-  </si>
-  <si>
-    <t>telefony</t>
-  </si>
-  <si>
-    <t>kompyuternaya-tehnika</t>
-  </si>
-  <si>
-    <t>igry-i-pristavki</t>
-  </si>
-  <si>
-    <t>sotovye-telefony</t>
-  </si>
-  <si>
-    <t>tovary-dlya-doma</t>
-  </si>
-  <si>
-    <t>avto</t>
-  </si>
-  <si>
-    <t>foto-i-videotehnika</t>
-  </si>
-  <si>
-    <t>lichnye-veshi</t>
-  </si>
-  <si>
-    <t>hobbi-i-otdyh</t>
-  </si>
-  <si>
-    <t>audiotehnika</t>
-  </si>
-  <si>
-    <t>tv-i-video</t>
-  </si>
-  <si>
-    <t>tovary-dlya-detey</t>
-  </si>
-  <si>
-    <t>monitory</t>
-  </si>
-  <si>
-    <t>clock</t>
-  </si>
-  <si>
-    <t>tv</t>
-  </si>
-  <si>
-    <t>Videokamera</t>
-  </si>
-  <si>
-    <t>camera</t>
-  </si>
-  <si>
-    <t>video</t>
-  </si>
-  <si>
-    <t>aksessuarydlyatv</t>
-  </si>
-  <si>
-    <t>noutbuki</t>
-  </si>
-  <si>
-    <t>sistemnye-bloki</t>
-  </si>
-  <si>
-    <t>planshetnye-pk</t>
-  </si>
-  <si>
-    <t>elektronnye-knigi</t>
-  </si>
-  <si>
-    <t>ustroistva-vvoda</t>
-  </si>
-  <si>
-    <t>aksessuary-dlya-kompyuterov</t>
-  </si>
-  <si>
-    <t>printery-i-mfu</t>
-  </si>
-  <si>
-    <t>nastolnye-igry</t>
-  </si>
-  <si>
-    <t>igrovye-pristavki</t>
-  </si>
-  <si>
-    <t>aksessuary-dlya-igrovyh-pristavok</t>
-  </si>
-  <si>
-    <t>igry-dlya-pristavok</t>
-  </si>
-  <si>
-    <t>tovary-dlya-kuhni</t>
-  </si>
-  <si>
-    <t>sportivnyi-inventar</t>
-  </si>
-  <si>
-    <t>mp3-pleery</t>
-  </si>
-  <si>
-    <t>domashnie-kinoteatry</t>
-  </si>
-  <si>
-    <t>kolonki</t>
-  </si>
-  <si>
-    <t>muzykalnye-centry</t>
-  </si>
-  <si>
-    <t>resivery</t>
-  </si>
-  <si>
-    <t>usiliteli</t>
-  </si>
-  <si>
-    <t>proektory</t>
-  </si>
-  <si>
-    <t>muzykalnye-instrumenty</t>
-  </si>
-  <si>
-    <t>kollekcionirovanie</t>
-  </si>
-  <si>
-    <t>multivarki</t>
-  </si>
-  <si>
-    <t>vacuum</t>
-  </si>
-  <si>
-    <t>binoculars</t>
-  </si>
-  <si>
-    <t>holodilniki</t>
-  </si>
-  <si>
-    <t>turizm-i-rybalka</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>pnevmatika</t>
-  </si>
-  <si>
-    <t>navigator</t>
-  </si>
-  <si>
-    <t>slesarnyj-instrument</t>
-  </si>
-  <si>
-    <t>obuv-odezhda-aksessuary</t>
-  </si>
-  <si>
-    <t>santehnika-i-sauna</t>
-  </si>
-  <si>
-    <t>stiralnye-mashiny</t>
-  </si>
-  <si>
-    <t>klimaticheskoe-oborudovanie</t>
-  </si>
-  <si>
-    <t>vesy</t>
-  </si>
-  <si>
-    <t>germetizator</t>
-  </si>
-  <si>
-    <t>ulichnyj-svetilnik</t>
-  </si>
-  <si>
-    <t>nozhi</t>
-  </si>
-  <si>
-    <t>avto-moto</t>
-  </si>
-  <si>
-    <t>aksessuary</t>
-  </si>
-  <si>
-    <t>mechi-sabli-katany</t>
-  </si>
-  <si>
-    <t>raznoe</t>
-  </si>
-  <si>
-    <t>svarochnye-poluavtomaty</t>
-  </si>
-  <si>
-    <t>pila-cepnaya</t>
-  </si>
-  <si>
-    <t>perforatory-akkumulyatornye</t>
-  </si>
-  <si>
-    <t>perforatory-setevye</t>
-  </si>
-  <si>
-    <t>shurupoverty-pnevmaticheskie</t>
-  </si>
-  <si>
-    <t>drel-pnevmaticheskaya</t>
-  </si>
-  <si>
-    <t>mikrometr-1</t>
-  </si>
-  <si>
-    <t>shtangencirkuli</t>
-  </si>
-  <si>
-    <t>kleschi</t>
-  </si>
-  <si>
-    <t>nutromery</t>
-  </si>
-  <si>
-    <t>multimetr</t>
-  </si>
-  <si>
-    <t>skanery</t>
-  </si>
-  <si>
-    <t>detektory</t>
-  </si>
-  <si>
-    <t>izmeriteli</t>
-  </si>
-  <si>
-    <t>videoinspekcii</t>
-  </si>
-  <si>
-    <t>shlifoval</t>
-  </si>
-  <si>
-    <t>pily-cepnye</t>
-  </si>
-  <si>
-    <t>zapchasti-1</t>
-  </si>
-  <si>
-    <t>osvetitelnoe-oborudovanie</t>
-  </si>
-  <si>
-    <t>ventilyaciya</t>
-  </si>
-  <si>
-    <t>elektroprivody</t>
-  </si>
-  <si>
-    <t>ibp-kontrollery</t>
-  </si>
-  <si>
-    <t>stanki-dlya-zatochki</t>
-  </si>
-  <si>
-    <t>payalnye-stancii</t>
-  </si>
-  <si>
-    <t>motokultivatory</t>
-  </si>
-  <si>
-    <t>teplovizory-1</t>
-  </si>
-  <si>
-    <t>shlifmashiny-uglovye-akkumulyatornye</t>
-  </si>
-  <si>
-    <t>shlifmashiny-uglovye-pnevmaticheskie</t>
-  </si>
-  <si>
-    <t>specodezhda-i-siz</t>
-  </si>
-  <si>
-    <t>gidravlicheskij-instrument</t>
-  </si>
-  <si>
-    <t>pnevmaticheskij-gajkovert</t>
-  </si>
-  <si>
-    <t>akkumulyatornye-gajkoverty</t>
-  </si>
-  <si>
-    <t>elektricheskie-gajkoverty</t>
-  </si>
-  <si>
-    <t>gidravlicheskie-gajkoverty</t>
-  </si>
-  <si>
-    <t>mehanicheskie-gajkoverty</t>
-  </si>
-  <si>
-    <t>ot-proizvoditelya</t>
-  </si>
-  <si>
-    <t>makita-ot-proizvoditelya</t>
-  </si>
-  <si>
-    <t>kabelerezy</t>
-  </si>
-  <si>
-    <t>zapchasti-dlya-perforatorov</t>
-  </si>
-  <si>
-    <t>zapchasti-dlya-shurupovertov</t>
-  </si>
-  <si>
-    <t>zapchasti-dlya-bolgarok</t>
-  </si>
-  <si>
-    <t>zapchasti-dlya-benzopil</t>
-  </si>
-  <si>
-    <t>zapchasti-dlya-svarochnogo-oborudovaniya</t>
-  </si>
-  <si>
-    <t>zapchasti-dlya-pil</t>
-  </si>
-  <si>
-    <t>zapchasti-dlya-pil-i-frezerov</t>
-  </si>
-  <si>
-    <t>nozhnicy</t>
-  </si>
-  <si>
-    <t>opticheskie-niveliryy</t>
-  </si>
-  <si>
-    <t>opticheskie-niveliry</t>
-  </si>
-  <si>
-    <t>dalnomeryy</t>
-  </si>
-  <si>
-    <t>dalnomery</t>
-  </si>
-  <si>
-    <t>plazmorezyy</t>
-  </si>
-  <si>
-    <t>plazmorezy</t>
-  </si>
-  <si>
-    <t>ekstrudery-svarochnye</t>
-  </si>
-  <si>
-    <t>rezakii</t>
-  </si>
-  <si>
-    <t>polirovalnye-mashinyy</t>
-  </si>
-  <si>
-    <t>polirovalnye-mashiny</t>
-  </si>
-  <si>
-    <t>gravery</t>
-  </si>
-  <si>
-    <t>vibroinstrument</t>
-  </si>
-  <si>
-    <t>dreli-udarnye</t>
-  </si>
-  <si>
-    <t>nasosy</t>
-  </si>
-  <si>
-    <t>motopompyy</t>
-  </si>
-  <si>
-    <t>motopompy</t>
-  </si>
-  <si>
-    <t>germetizatory</t>
-  </si>
-  <si>
-    <t>pirometri</t>
-  </si>
-  <si>
-    <t>otvertki-akkumulyatornye</t>
-  </si>
-  <si>
-    <t>lazernye-urovni</t>
-  </si>
-  <si>
-    <t>benzoinstrument</t>
-  </si>
-  <si>
-    <t>metallorezhuschij-instrument</t>
-  </si>
-  <si>
-    <t>krepezhnyj-instrument</t>
-  </si>
-  <si>
-    <t>uborochnoe-i-moechnoe-oborudovanie</t>
-  </si>
-  <si>
-    <t>kompressory-i-ventilyatory</t>
-  </si>
-  <si>
-    <t>stolyarno-slesarnyj-instrument</t>
-  </si>
-  <si>
-    <t>akkumulyatory-zaryadnye-ustrojstva</t>
-  </si>
-  <si>
-    <t>gazosignalizator</t>
-  </si>
-  <si>
-    <t>falceosadochnye-mashiny-kromkorezy</t>
-  </si>
-  <si>
-    <t>dreli-i-shurupoverty</t>
-  </si>
-  <si>
-    <t>gidravlika-i-press</t>
-  </si>
-  <si>
-    <t>gajkoverty-vintoverty</t>
-  </si>
-  <si>
-    <t>trimmery</t>
-  </si>
-  <si>
-    <t>avtooborudovanie</t>
-  </si>
-  <si>
-    <t>ruchnye-izmeritelnye-instrumenty</t>
-  </si>
-  <si>
-    <t>pily-diskovye-akkumulyatornye</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>gorelki</t>
-  </si>
-  <si>
-    <t>sadovaya-tehnika-1</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6974,291 +72,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
